--- a/planning.xlsx
+++ b/planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/Misc/Hiking/PCT-Washington-2018/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Documents\PCT-Washington-2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508478C7-9C69-654A-BA19-F3BA515CDA16}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914F3EA7-26CF-44EF-894A-6FC371888A47}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16100" activeTab="1" xr2:uid="{CF50ADE5-3FE7-1D4A-B7E6-9F2C5F6DE96F}"/>
+    <workbookView xWindow="375" yWindow="465" windowWidth="28035" windowHeight="16095" xr2:uid="{CF50ADE5-3FE7-1D4A-B7E6-9F2C5F6DE96F}"/>
   </bookViews>
   <sheets>
     <sheet name="Gear Checklist" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="89">
   <si>
     <t>Gear Checklist</t>
   </si>
@@ -289,6 +289,12 @@
   </si>
   <si>
     <t>How much food / calories</t>
+  </si>
+  <si>
+    <t>TRUE, no repair</t>
+  </si>
+  <si>
+    <t>MAYBE</t>
   </si>
 </sst>
 </file>
@@ -515,15 +521,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -566,6 +563,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -884,48 +890,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97FA1BDE-B68C-E347-BE16-DAED235BDF32}">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView zoomScale="137" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="2" max="2" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="49.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="29" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -933,10 +939,10 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="14"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -944,10 +950,10 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -957,10 +963,10 @@
       <c r="D5" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -968,10 +974,10 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -979,10 +985,10 @@
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -990,10 +996,10 @@
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1001,10 +1007,10 @@
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1012,32 +1018,36 @@
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1047,12 +1057,12 @@
       <c r="D13" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1060,25 +1070,27 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1086,10 +1098,10 @@
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1097,10 +1109,10 @@
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1110,10 +1122,10 @@
       <c r="D18" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E18" s="14"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1121,10 +1133,10 @@
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1132,10 +1144,10 @@
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1143,10 +1155,10 @@
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1154,17 +1166,17 @@
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="14"/>
-    </row>
-    <row r="23" spans="1:5" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="1:5" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
       <c r="B23" s="4"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="18"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1174,25 +1186,27 @@
       <c r="D24" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="6"/>
+      <c r="C25" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="D25" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E25" s="14"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1202,21 +1216,23 @@
       <c r="D26" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="D27" s="6"/>
-      <c r="E27" s="14"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1226,36 +1242,40 @@
       <c r="D28" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E28" s="14"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="6"/>
+      <c r="C29" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="D29" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E29" s="14"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
+      <c r="E29" s="11"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="6"/>
+      <c r="C30" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="D30" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E30" s="14"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1265,109 +1285,125 @@
       <c r="D31" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E31" s="14"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="6"/>
+      <c r="C32" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="14"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="6"/>
+      <c r="C33" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="D33" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E33" s="14"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="6"/>
+      <c r="C34" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="D34" s="6"/>
-      <c r="E34" s="14"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
+      <c r="E34" s="11"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="6"/>
+      <c r="C35" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="D35" s="6"/>
-      <c r="E35" s="14"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
+      <c r="E35" s="11"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="6"/>
+      <c r="C36" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="D36" s="6"/>
-      <c r="E36" s="14"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
+      <c r="E36" s="11"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="6"/>
+      <c r="C37" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="D37" s="6"/>
-      <c r="E37" s="14"/>
-    </row>
-    <row r="38" spans="1:5" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="17"/>
+      <c r="E37" s="11"/>
+    </row>
+    <row r="38" spans="1:5" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
       <c r="B38" s="4"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
-      <c r="E38" s="18"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="13" t="s">
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="6"/>
+      <c r="C39" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="D39" s="6"/>
-      <c r="E39" s="14"/>
-    </row>
-    <row r="40" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A40" s="13" t="s">
+      <c r="E39" s="11"/>
+    </row>
+    <row r="40" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="6"/>
+      <c r="C40" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="D40" s="6"/>
-      <c r="E40" s="15" t="s">
+      <c r="E40" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="13" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -1375,10 +1411,10 @@
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="14"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="13" t="s">
+      <c r="E41" s="11"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -1386,10 +1422,10 @@
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
-      <c r="E42" s="14"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="13" t="s">
+      <c r="E42" s="11"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -1397,10 +1433,10 @@
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
-      <c r="E43" s="14"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="13" t="s">
+      <c r="E43" s="11"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -1408,10 +1444,10 @@
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
-      <c r="E44" s="14"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="13" t="s">
+      <c r="E44" s="11"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -1419,10 +1455,10 @@
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="14"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="13" t="s">
+      <c r="E45" s="11"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -1430,10 +1466,10 @@
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="14"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="13" t="s">
+      <c r="E46" s="11"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -1441,10 +1477,10 @@
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
-      <c r="E47" s="14"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="16" t="s">
+      <c r="E47" s="11"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -1452,10 +1488,10 @@
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
-      <c r="E48" s="14"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="16" t="s">
+      <c r="E48" s="11"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -1463,12 +1499,12 @@
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
-      <c r="E49" s="14" t="s">
+      <c r="E49" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="16" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -1476,21 +1512,23 @@
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="14"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="16" t="s">
+      <c r="E50" s="11"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C51" s="6"/>
+      <c r="C51" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="D51" s="6"/>
-      <c r="E51" s="14"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="16" t="s">
+      <c r="E51" s="11"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -1498,10 +1536,10 @@
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="14"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="16" t="s">
+      <c r="E52" s="11"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -1509,10 +1547,10 @@
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="14"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="16" t="s">
+      <c r="E53" s="11"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -1520,10 +1558,10 @@
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="14"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="16" t="s">
+      <c r="E54" s="11"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B55" s="3" t="s">
@@ -1531,10 +1569,10 @@
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="14"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="16" t="s">
+      <c r="E55" s="11"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -1542,10 +1580,10 @@
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="14"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="16" t="s">
+      <c r="E56" s="11"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B57" s="3" t="s">
@@ -1553,10 +1591,10 @@
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
-      <c r="E57" s="14"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="16" t="s">
+      <c r="E57" s="11"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -1564,10 +1602,10 @@
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="14"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="16" t="s">
+      <c r="E58" s="11"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B59" s="3" t="s">
@@ -1575,17 +1613,17 @@
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="14"/>
-    </row>
-    <row r="60" spans="1:5" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="17"/>
+      <c r="E59" s="11"/>
+    </row>
+    <row r="60" spans="1:5" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="14"/>
       <c r="B60" s="4"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
-      <c r="E60" s="18"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="16" t="s">
+      <c r="E60" s="15"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
         <v>67</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -1593,10 +1631,10 @@
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="14"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="16" t="s">
+      <c r="E61" s="11"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
         <v>67</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -1604,27 +1642,27 @@
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="14"/>
-    </row>
-    <row r="63" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="19" t="s">
+      <c r="E62" s="11"/>
+    </row>
+    <row r="63" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="22"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="19"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
       <c r="E64" s="5"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>74</v>
       </c>
@@ -1633,188 +1671,188 @@
       <c r="D65" s="8"/>
       <c r="E65" s="5"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="E66" s="5"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
       <c r="E67" s="5"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
       <c r="E68" s="5"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
       <c r="E69" s="5"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
       <c r="E70" s="5"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="5"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
       <c r="E72" s="5"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
       <c r="E73" s="5"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
       <c r="E74" s="5"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
       <c r="E75" s="5"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="E76" s="5"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
     </row>
@@ -1831,33 +1869,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BA642A-544A-F04B-B530-281FC0CCF741}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -1875,38 +1913,38 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>79</v>
       </c>
       <c r="B3" s="1" t="b">
@@ -1915,25 +1953,25 @@
       <c r="C3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="24"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>80</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="27" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1951,7 +1989,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/planning.xlsx
+++ b/planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Documents\PCT-Washington-2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/Misc/Hiking/PCT-Washington-2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914F3EA7-26CF-44EF-894A-6FC371888A47}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA91C087-B108-8D44-B4D0-E52AC2361F45}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="465" windowWidth="28035" windowHeight="16095" xr2:uid="{CF50ADE5-3FE7-1D4A-B7E6-9F2C5F6DE96F}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16100" xr2:uid="{CF50ADE5-3FE7-1D4A-B7E6-9F2C5F6DE96F}"/>
   </bookViews>
   <sheets>
     <sheet name="Gear Checklist" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>Gear Checklist</t>
   </si>
@@ -237,9 +237,6 @@
     <t>Traction Spikes</t>
   </si>
   <si>
-    <t>Ice Axe? Eh</t>
-  </si>
-  <si>
     <t>Gaiters?</t>
   </si>
   <si>
@@ -252,9 +249,6 @@
     <t>It’s a book, so may need to find minimalist version?</t>
   </si>
   <si>
-    <t>Source: https://www.rei.com/blog/travel/pacific-crest-trail-backpacking-gear-list (I omitted some things and I put "?"s where I am unsure if the item is needed)</t>
-  </si>
-  <si>
     <t>Where to get food</t>
   </si>
   <si>
@@ -295,13 +289,28 @@
   </si>
   <si>
     <t>MAYBE</t>
+  </si>
+  <si>
+    <t>(I omitted some things and I put "?"s where I am unsure if the item is needed)</t>
+  </si>
+  <si>
+    <t>https://www.rei.com/blog/travel/pacific-crest-trail-backpacking-gear-list</t>
+  </si>
+  <si>
+    <t>Does a swiss army knife count? Or should I bring just knife?</t>
+  </si>
+  <si>
+    <t>Not sure what kind of hat to get.</t>
+  </si>
+  <si>
+    <t>John lennon glasses?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -322,6 +331,14 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -491,10 +508,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -565,6 +583,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -575,10 +596,42 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -888,32 +941,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97FA1BDE-B68C-E347-BE16-DAED235BDF32}">
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.625" customWidth="1"/>
-    <col min="2" max="2" width="29.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="49.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
@@ -921,16 +974,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>71</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>72</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
@@ -941,7 +994,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
@@ -952,7 +1005,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
@@ -965,7 +1018,7 @@
       </c>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
@@ -976,7 +1029,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
@@ -987,7 +1040,7 @@
       <c r="D7" s="6"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>3</v>
       </c>
@@ -998,7 +1051,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
@@ -1009,7 +1062,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>3</v>
       </c>
@@ -1020,7 +1073,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>3</v>
       </c>
@@ -1028,12 +1081,16 @@
         <v>12</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="D11" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>3</v>
       </c>
@@ -1046,7 +1103,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>3</v>
       </c>
@@ -1058,10 +1115,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>3</v>
       </c>
@@ -1074,7 +1131,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>3</v>
       </c>
@@ -1082,14 +1139,16 @@
         <v>21</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="6"/>
+        <v>85</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="E15" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>3</v>
       </c>
@@ -1097,10 +1156,12 @@
         <v>23</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>3</v>
       </c>
@@ -1111,7 +1172,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>3</v>
       </c>
@@ -1124,7 +1185,7 @@
       </c>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>3</v>
       </c>
@@ -1135,7 +1196,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="11"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>3</v>
       </c>
@@ -1146,7 +1207,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="11"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>3</v>
       </c>
@@ -1157,7 +1218,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="11"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>3</v>
       </c>
@@ -1168,14 +1229,14 @@
       <c r="D22" s="6"/>
       <c r="E22" s="11"/>
     </row>
-    <row r="23" spans="1:5" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="4"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>27</v>
       </c>
@@ -1190,7 +1251,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>27</v>
       </c>
@@ -1205,7 +1266,7 @@
       </c>
       <c r="E25" s="11"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>27</v>
       </c>
@@ -1218,7 +1279,7 @@
       </c>
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>27</v>
       </c>
@@ -1231,7 +1292,7 @@
       <c r="D27" s="6"/>
       <c r="E27" s="11"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>27</v>
       </c>
@@ -1239,12 +1300,10 @@
         <v>33</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="6" t="b">
-        <v>1</v>
-      </c>
+      <c r="D28" s="6"/>
       <c r="E28" s="11"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>27</v>
       </c>
@@ -1254,12 +1313,12 @@
       <c r="C29" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="D29" s="6" t="b">
-        <v>1</v>
+      <c r="D29" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="E29" s="11"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>27</v>
       </c>
@@ -1267,14 +1326,14 @@
         <v>35</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D30" s="6" t="b">
         <v>1</v>
       </c>
       <c r="E30" s="11"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
         <v>27</v>
       </c>
@@ -1287,7 +1346,7 @@
       </c>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>27</v>
       </c>
@@ -1297,10 +1356,14 @@
       <c r="C32" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="11"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D32" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>27</v>
       </c>
@@ -1315,7 +1378,7 @@
       </c>
       <c r="E33" s="11"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>27</v>
       </c>
@@ -1325,10 +1388,12 @@
       <c r="C34" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="D34" s="6"/>
+      <c r="D34" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="E34" s="11"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
         <v>27</v>
       </c>
@@ -1338,10 +1403,12 @@
       <c r="C35" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D35" s="6"/>
+      <c r="D35" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E35" s="11"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>27</v>
       </c>
@@ -1351,10 +1418,12 @@
       <c r="C36" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D36" s="6"/>
+      <c r="D36" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E36" s="11"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
         <v>27</v>
       </c>
@@ -1362,19 +1431,21 @@
         <v>42</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D37" s="6"/>
+        <v>86</v>
+      </c>
+      <c r="D37" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E37" s="11"/>
     </row>
-    <row r="38" spans="1:5" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14"/>
       <c r="B38" s="4"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="15"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
         <v>43</v>
       </c>
@@ -1384,10 +1455,14 @@
       <c r="C39" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="11"/>
-    </row>
-    <row r="40" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="D39" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
         <v>43</v>
       </c>
@@ -1397,12 +1472,14 @@
       <c r="C40" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="D40" s="6"/>
+      <c r="D40" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E40" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
         <v>43</v>
       </c>
@@ -1413,7 +1490,7 @@
       <c r="D41" s="6"/>
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
         <v>43</v>
       </c>
@@ -1424,7 +1501,7 @@
       <c r="D42" s="6"/>
       <c r="E42" s="11"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>43</v>
       </c>
@@ -1435,7 +1512,7 @@
       <c r="D43" s="6"/>
       <c r="E43" s="11"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
         <v>43</v>
       </c>
@@ -1446,7 +1523,7 @@
       <c r="D44" s="6"/>
       <c r="E44" s="11"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
         <v>43</v>
       </c>
@@ -1457,7 +1534,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="11"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
         <v>43</v>
       </c>
@@ -1468,7 +1545,7 @@
       <c r="D46" s="6"/>
       <c r="E46" s="11"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
         <v>43</v>
       </c>
@@ -1479,7 +1556,7 @@
       <c r="D47" s="6"/>
       <c r="E47" s="11"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>43</v>
       </c>
@@ -1490,7 +1567,7 @@
       <c r="D48" s="6"/>
       <c r="E48" s="11"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
         <v>43</v>
       </c>
@@ -1503,7 +1580,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>43</v>
       </c>
@@ -1514,7 +1591,7 @@
       <c r="D50" s="6"/>
       <c r="E50" s="11"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
         <v>43</v>
       </c>
@@ -1527,7 +1604,7 @@
       <c r="D51" s="6"/>
       <c r="E51" s="11"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
         <v>43</v>
       </c>
@@ -1538,7 +1615,7 @@
       <c r="D52" s="6"/>
       <c r="E52" s="11"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
         <v>43</v>
       </c>
@@ -1549,7 +1626,7 @@
       <c r="D53" s="6"/>
       <c r="E53" s="11"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
         <v>43</v>
       </c>
@@ -1560,7 +1637,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="11"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>43</v>
       </c>
@@ -1568,10 +1645,12 @@
         <v>62</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
+      <c r="D55" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="E55" s="11"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>43</v>
       </c>
@@ -1582,7 +1661,7 @@
       <c r="D56" s="6"/>
       <c r="E56" s="11"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
         <v>43</v>
       </c>
@@ -1593,36 +1672,44 @@
       <c r="D57" s="6"/>
       <c r="E57" s="11"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
+      <c r="C58" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D58" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="E58" s="11"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
+      <c r="C59" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D59" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E59" s="11"/>
     </row>
-    <row r="60" spans="1:5" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14"/>
       <c r="B60" s="4"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="15"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>67</v>
       </c>
@@ -1630,236 +1717,243 @@
         <v>68</v>
       </c>
       <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
+      <c r="D61" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E61" s="11"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="13" t="s">
+    <row r="62" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="11"/>
-    </row>
-    <row r="63" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="19"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="19"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="5"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="28" t="s">
+        <v>88</v>
+      </c>
       <c r="B64" s="5"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
       <c r="E64" s="5"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
       <c r="E65" s="5"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="E66" s="5"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
       <c r="E67" s="5"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
       <c r="E68" s="5"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
       <c r="E69" s="5"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
       <c r="E70" s="5"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="5"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
       <c r="E72" s="5"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
       <c r="E73" s="5"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
       <c r="E74" s="5"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
       <c r="E75" s="5"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="5"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
-    </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <conditionalFormatting sqref="C3:D62">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="FALSE">
+      <formula>NOT(ISERROR(SEARCH("FALSE",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="MAYBE">
+      <formula>NOT(ISERROR(SEARCH("MAYBE",C3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A64" r:id="rId1" xr:uid="{87FDAD87-FB61-6E4A-93AF-F55DE598C695}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -1873,31 +1967,31 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1913,39 +2007,39 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="31"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>71</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>72</v>
       </c>
       <c r="D2" s="27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" s="1" t="b">
         <v>1</v>
@@ -1955,24 +2049,24 @@
       </c>
       <c r="D3" s="21"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
       <c r="D5" s="24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1989,7 +2083,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/planning.xlsx
+++ b/planning.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/Misc/Hiking/PCT-Washington-2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA91C087-B108-8D44-B4D0-E52AC2361F45}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B01006A-B1F5-0A42-B56B-FC1165E4E650}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16100" xr2:uid="{CF50ADE5-3FE7-1D4A-B7E6-9F2C5F6DE96F}"/>
   </bookViews>
   <sheets>
     <sheet name="Gear Checklist" sheetId="1" r:id="rId1"/>
-    <sheet name="Food and Resupplies" sheetId="2" r:id="rId2"/>
+    <sheet name="Food Ideas" sheetId="2" r:id="rId2"/>
     <sheet name="Permits" sheetId="3" r:id="rId3"/>
     <sheet name="General Itinerary Planning" sheetId="4" r:id="rId4"/>
+    <sheet name="Random" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="136">
   <si>
     <t>Gear Checklist</t>
   </si>
@@ -304,13 +305,145 @@
   </si>
   <si>
     <t>John lennon glasses?</t>
+  </si>
+  <si>
+    <t>Good Food Items Brainstorm</t>
+  </si>
+  <si>
+    <t>Peanut butter</t>
+  </si>
+  <si>
+    <t>tons of calories, protein</t>
+  </si>
+  <si>
+    <t>Granola</t>
+  </si>
+  <si>
+    <t>calories, carbs</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Mile Marker</t>
+  </si>
+  <si>
+    <t>Supply Box?</t>
+  </si>
+  <si>
+    <t>Bridge of the Gods</t>
+  </si>
+  <si>
+    <t>General Itinerary / Pretend Plan</t>
+  </si>
+  <si>
+    <t>Resupply?</t>
+  </si>
+  <si>
+    <t>Campsite?</t>
+  </si>
+  <si>
+    <t>Landmark?</t>
+  </si>
+  <si>
+    <t>Other?</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>The starting location. Can check out the gorge for a bit then depart.</t>
+  </si>
+  <si>
+    <t>Cheese</t>
+  </si>
+  <si>
+    <t>calories. (Michael: will avoid, since am non-dairy)</t>
+  </si>
+  <si>
+    <t>Instant Oatmeal</t>
+  </si>
+  <si>
+    <t>only downside is having to boil water</t>
+  </si>
+  <si>
+    <t>Protein Bars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garden of Eden Protein Bar, RX Bars, </t>
+  </si>
+  <si>
+    <t>Nuts</t>
+  </si>
+  <si>
+    <t>tons of calories</t>
+  </si>
+  <si>
+    <t>Powder Supplments</t>
+  </si>
+  <si>
+    <t>nutrition and protein</t>
+  </si>
+  <si>
+    <t>Dried Fruit</t>
+  </si>
+  <si>
+    <t>HOW THE HELL DO I EAT MEAT. I NEED IT</t>
+  </si>
+  <si>
+    <t>Self Dehydrated Food</t>
+  </si>
+  <si>
+    <t>Store Dehydrated Food</t>
+  </si>
+  <si>
+    <t>more work, but can be done in mass. Pro: can customize</t>
+  </si>
+  <si>
+    <t>Intant Brown Rice?</t>
+  </si>
+  <si>
+    <t>Good carb, but need to avoid sodium / preservatives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">easy </t>
+  </si>
+  <si>
+    <t>eh, why?? Just look at sun for the time. And who cares about elevation</t>
+  </si>
+  <si>
+    <t>but with what?</t>
+  </si>
+  <si>
+    <t>Torillas</t>
+  </si>
+  <si>
+    <t>Note: gives us an idea of what the trek could look like for the first week or two. But, beyond this, I think we should allow ourselves the freedom to do whatever we want on the fly</t>
+  </si>
+  <si>
+    <t>Also, we can detail supply boxes for key locations: Trout Lake, White Pass, Snoq. Pass, Steven's Pass, Stehekin</t>
+  </si>
+  <si>
+    <t>https://www.halfwayanywhere.com/trails/pacific-crest-trail/pct-2017-survey-resupply-guide/</t>
+  </si>
+  <si>
+    <t>Hygene?</t>
+  </si>
+  <si>
+    <t>Where to get food?</t>
+  </si>
+  <si>
+    <t>How to get there?</t>
+  </si>
+  <si>
+    <t>Pooping squat form lol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -343,6 +476,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -364,7 +505,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -387,132 +528,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -539,62 +560,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -944,8 +928,8 @@
   <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -954,37 +938,37 @@
     <col min="2" max="2" width="29.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.5" customWidth="1"/>
+    <col min="5" max="5" width="60.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -992,10 +976,10 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="11"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1003,10 +987,10 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="11"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1016,10 +1000,10 @@
       <c r="D5" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1027,10 +1011,10 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="11"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1038,10 +1022,10 @@
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="11"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1049,10 +1033,10 @@
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="11"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1060,10 +1044,10 @@
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="11"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1071,10 +1055,10 @@
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="11"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1086,12 +1070,12 @@
       <c r="D11" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1101,10 +1085,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="11"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1114,12 +1098,12 @@
       <c r="D13" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1127,12 +1111,12 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1144,12 +1128,12 @@
       <c r="D15" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1159,10 +1143,10 @@
       <c r="D16" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="11"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1170,10 +1154,10 @@
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="11"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1183,10 +1167,10 @@
       <c r="D18" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E18" s="11"/>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1194,10 +1178,10 @@
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="11"/>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1205,10 +1189,10 @@
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="11"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1216,10 +1200,12 @@
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="11"/>
+      <c r="E21" s="2" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1227,17 +1213,17 @@
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="11"/>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
+      <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="15"/>
+      <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1247,12 +1233,12 @@
       <c r="D24" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1264,10 +1250,10 @@
       <c r="D25" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E25" s="11"/>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1277,10 +1263,10 @@
       <c r="D26" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E26" s="11"/>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1290,10 +1276,10 @@
         <v>1</v>
       </c>
       <c r="D27" s="6"/>
-      <c r="E27" s="11"/>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1301,10 +1287,10 @@
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="11"/>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1316,10 +1302,10 @@
       <c r="D29" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E29" s="11"/>
+      <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1331,10 +1317,10 @@
       <c r="D30" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E30" s="11"/>
+      <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1344,10 +1330,10 @@
       <c r="D31" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E31" s="11"/>
+      <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1359,12 +1345,12 @@
       <c r="D32" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1376,10 +1362,10 @@
       <c r="D33" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E33" s="11"/>
+      <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1391,10 +1377,10 @@
       <c r="D34" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E34" s="11"/>
+      <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1406,10 +1392,10 @@
       <c r="D35" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E35" s="11"/>
+      <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -1421,10 +1407,10 @@
       <c r="D36" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E36" s="11"/>
+      <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -1436,17 +1422,17 @@
       <c r="D37" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E37" s="11"/>
+      <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
+      <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
-      <c r="E38" s="15"/>
+      <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -1458,12 +1444,12 @@
       <c r="D39" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -1475,12 +1461,12 @@
       <c r="D40" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -1488,10 +1474,10 @@
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="11"/>
+      <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -1499,10 +1485,10 @@
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
-      <c r="E42" s="11"/>
+      <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -1510,10 +1496,10 @@
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
-      <c r="E43" s="11"/>
+      <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -1521,10 +1507,10 @@
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
-      <c r="E44" s="11"/>
+      <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -1532,10 +1518,10 @@
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="11"/>
+      <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -1543,10 +1529,10 @@
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="11"/>
+      <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -1554,10 +1540,10 @@
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
-      <c r="E47" s="11"/>
+      <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -1565,10 +1551,10 @@
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
-      <c r="E48" s="11"/>
+      <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -1576,12 +1562,12 @@
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -1589,10 +1575,10 @@
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="11"/>
+      <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -1602,10 +1588,10 @@
         <v>1</v>
       </c>
       <c r="D51" s="6"/>
-      <c r="E51" s="11"/>
+      <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -1613,10 +1599,10 @@
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="11"/>
+      <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -1624,10 +1610,10 @@
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="11"/>
+      <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -1635,10 +1621,10 @@
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="11"/>
+      <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B55" s="3" t="s">
@@ -1648,10 +1634,10 @@
       <c r="D55" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E55" s="11"/>
+      <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -1659,10 +1645,10 @@
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="11"/>
+      <c r="E56" s="2"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B57" s="3" t="s">
@@ -1670,10 +1656,10 @@
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
-      <c r="E57" s="11"/>
+      <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -1685,10 +1671,10 @@
       <c r="D58" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E58" s="11"/>
+      <c r="E58" s="2"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B59" s="3" t="s">
@@ -1700,17 +1686,17 @@
       <c r="D59" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E59" s="11"/>
+      <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="14"/>
+      <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
-      <c r="E60" s="15"/>
+      <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -1720,18 +1706,18 @@
       <c r="D61" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E61" s="11"/>
-    </row>
-    <row r="62" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="16" t="s">
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="19"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="2"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
@@ -1741,7 +1727,7 @@
       <c r="E63" s="5"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="28" t="s">
+      <c r="A64" s="11" t="s">
         <v>88</v>
       </c>
       <c r="B64" s="5"/>
@@ -1961,41 +1947,153 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BA642A-544A-F04B-B530-281FC0CCF741}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="D1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" t="s">
         <v>83</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2004,7 +2102,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="137" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2016,29 +2114,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B3" s="1" t="b">
@@ -2047,25 +2145,25 @@
       <c r="C3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="21"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2079,12 +2177,4424 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A06C46E-11BB-9E4B-A7EC-42E2AE6678A6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H432"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="31.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="15"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="15"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="15"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="15"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="15"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="15"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="15"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="15"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="15"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="15"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="15"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="15"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="15"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="15"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="15"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="15"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="15"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="15"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="15"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="15"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="15"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="15"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="15"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="15"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="15"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="15"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="15"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="15"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="15"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="15"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="15"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="15"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="15"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="15"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="15"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="15"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="15"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="15"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="15"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="15"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="15"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="15"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="15"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="15"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="15"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="15"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="15"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="15"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="15"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="15"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="15"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="15"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="15"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="15"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="15"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="15"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="15"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="15"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="15"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="15"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="15"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="15"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="15"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="15"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="15"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="15"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="15"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="15"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="15"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="15"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="15"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="15"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="15"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="15"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="15"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="15"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="15"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="15"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="15"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="15"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="15"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="15"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="15"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="15"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="15"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="15"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="15"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="15"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="15"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="15"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="15"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" s="5"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="15"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="15"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="15"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="15"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="15"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="15"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="15"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="15"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="15"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="15"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="15"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="15"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="15"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="15"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="15"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="15"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="15"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" s="5"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="15"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" s="5"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="15"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" s="5"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="15"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" s="5"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="15"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" s="5"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="15"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" s="5"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="15"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" s="5"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="15"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" s="5"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="15"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" s="5"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="15"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" s="5"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="15"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" s="5"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="15"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" s="5"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="15"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" s="5"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="15"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" s="5"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="15"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" s="5"/>
+      <c r="B153" s="5"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="15"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" s="5"/>
+      <c r="B154" s="5"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="15"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" s="5"/>
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="15"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156" s="5"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="15"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157" s="5"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="15"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A158" s="5"/>
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="15"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A159" s="5"/>
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
+      <c r="H159" s="15"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A160" s="5"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
+      <c r="H160" s="15"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" s="5"/>
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="15"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162" s="5"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
+      <c r="H162" s="15"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163" s="5"/>
+      <c r="B163" s="5"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
+      <c r="H163" s="15"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164" s="5"/>
+      <c r="B164" s="5"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="15"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165" s="5"/>
+      <c r="B165" s="5"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
+      <c r="H165" s="15"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166" s="5"/>
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="15"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167" s="5"/>
+      <c r="B167" s="5"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+      <c r="G167" s="5"/>
+      <c r="H167" s="15"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168" s="5"/>
+      <c r="B168" s="5"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
+      <c r="H168" s="15"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169" s="5"/>
+      <c r="B169" s="5"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+      <c r="G169" s="5"/>
+      <c r="H169" s="15"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170" s="5"/>
+      <c r="B170" s="5"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5"/>
+      <c r="H170" s="15"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A171" s="5"/>
+      <c r="B171" s="5"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
+      <c r="G171" s="5"/>
+      <c r="H171" s="15"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172" s="5"/>
+      <c r="B172" s="5"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5"/>
+      <c r="F172" s="5"/>
+      <c r="G172" s="5"/>
+      <c r="H172" s="15"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A173" s="5"/>
+      <c r="B173" s="5"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
+      <c r="G173" s="5"/>
+      <c r="H173" s="15"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174" s="5"/>
+      <c r="B174" s="5"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
+      <c r="G174" s="5"/>
+      <c r="H174" s="15"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A175" s="5"/>
+      <c r="B175" s="5"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+      <c r="G175" s="5"/>
+      <c r="H175" s="15"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176" s="5"/>
+      <c r="B176" s="5"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5"/>
+      <c r="F176" s="5"/>
+      <c r="G176" s="5"/>
+      <c r="H176" s="15"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177" s="5"/>
+      <c r="B177" s="5"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
+      <c r="F177" s="5"/>
+      <c r="G177" s="5"/>
+      <c r="H177" s="15"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178" s="5"/>
+      <c r="B178" s="5"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
+      <c r="F178" s="5"/>
+      <c r="G178" s="5"/>
+      <c r="H178" s="15"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" s="5"/>
+      <c r="B179" s="5"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="5"/>
+      <c r="G179" s="5"/>
+      <c r="H179" s="15"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" s="5"/>
+      <c r="B180" s="5"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="5"/>
+      <c r="G180" s="5"/>
+      <c r="H180" s="15"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" s="5"/>
+      <c r="B181" s="5"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="5"/>
+      <c r="G181" s="5"/>
+      <c r="H181" s="15"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" s="5"/>
+      <c r="B182" s="5"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="5"/>
+      <c r="G182" s="5"/>
+      <c r="H182" s="15"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183" s="5"/>
+      <c r="B183" s="5"/>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
+      <c r="F183" s="5"/>
+      <c r="G183" s="5"/>
+      <c r="H183" s="15"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184" s="5"/>
+      <c r="B184" s="5"/>
+      <c r="C184" s="5"/>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="5"/>
+      <c r="G184" s="5"/>
+      <c r="H184" s="15"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" s="5"/>
+      <c r="B185" s="5"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
+      <c r="F185" s="5"/>
+      <c r="G185" s="5"/>
+      <c r="H185" s="15"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186" s="5"/>
+      <c r="B186" s="5"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
+      <c r="F186" s="5"/>
+      <c r="G186" s="5"/>
+      <c r="H186" s="15"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187" s="5"/>
+      <c r="B187" s="5"/>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
+      <c r="F187" s="5"/>
+      <c r="G187" s="5"/>
+      <c r="H187" s="15"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A188" s="5"/>
+      <c r="B188" s="5"/>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="5"/>
+      <c r="G188" s="5"/>
+      <c r="H188" s="15"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A189" s="5"/>
+      <c r="B189" s="5"/>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5"/>
+      <c r="E189" s="5"/>
+      <c r="F189" s="5"/>
+      <c r="G189" s="5"/>
+      <c r="H189" s="15"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A190" s="5"/>
+      <c r="B190" s="5"/>
+      <c r="C190" s="5"/>
+      <c r="D190" s="5"/>
+      <c r="E190" s="5"/>
+      <c r="F190" s="5"/>
+      <c r="G190" s="5"/>
+      <c r="H190" s="15"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A191" s="5"/>
+      <c r="B191" s="5"/>
+      <c r="C191" s="5"/>
+      <c r="D191" s="5"/>
+      <c r="E191" s="5"/>
+      <c r="F191" s="5"/>
+      <c r="G191" s="5"/>
+      <c r="H191" s="15"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A192" s="5"/>
+      <c r="B192" s="5"/>
+      <c r="C192" s="5"/>
+      <c r="D192" s="5"/>
+      <c r="E192" s="5"/>
+      <c r="F192" s="5"/>
+      <c r="G192" s="5"/>
+      <c r="H192" s="15"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193" s="5"/>
+      <c r="B193" s="5"/>
+      <c r="C193" s="5"/>
+      <c r="D193" s="5"/>
+      <c r="E193" s="5"/>
+      <c r="F193" s="5"/>
+      <c r="G193" s="5"/>
+      <c r="H193" s="15"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194" s="5"/>
+      <c r="B194" s="5"/>
+      <c r="C194" s="5"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="5"/>
+      <c r="F194" s="5"/>
+      <c r="G194" s="5"/>
+      <c r="H194" s="15"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A195" s="5"/>
+      <c r="B195" s="5"/>
+      <c r="C195" s="5"/>
+      <c r="D195" s="5"/>
+      <c r="E195" s="5"/>
+      <c r="F195" s="5"/>
+      <c r="G195" s="5"/>
+      <c r="H195" s="15"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196" s="5"/>
+      <c r="B196" s="5"/>
+      <c r="C196" s="5"/>
+      <c r="D196" s="5"/>
+      <c r="E196" s="5"/>
+      <c r="F196" s="5"/>
+      <c r="G196" s="5"/>
+      <c r="H196" s="15"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197" s="5"/>
+      <c r="B197" s="5"/>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
+      <c r="F197" s="5"/>
+      <c r="G197" s="5"/>
+      <c r="H197" s="15"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198" s="5"/>
+      <c r="B198" s="5"/>
+      <c r="C198" s="5"/>
+      <c r="D198" s="5"/>
+      <c r="E198" s="5"/>
+      <c r="F198" s="5"/>
+      <c r="G198" s="5"/>
+      <c r="H198" s="15"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199" s="5"/>
+      <c r="B199" s="5"/>
+      <c r="C199" s="5"/>
+      <c r="D199" s="5"/>
+      <c r="E199" s="5"/>
+      <c r="F199" s="5"/>
+      <c r="G199" s="5"/>
+      <c r="H199" s="15"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200" s="5"/>
+      <c r="B200" s="5"/>
+      <c r="C200" s="5"/>
+      <c r="D200" s="5"/>
+      <c r="E200" s="5"/>
+      <c r="F200" s="5"/>
+      <c r="G200" s="5"/>
+      <c r="H200" s="15"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201" s="5"/>
+      <c r="B201" s="5"/>
+      <c r="C201" s="5"/>
+      <c r="D201" s="5"/>
+      <c r="E201" s="5"/>
+      <c r="F201" s="5"/>
+      <c r="G201" s="5"/>
+      <c r="H201" s="15"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A202" s="5"/>
+      <c r="B202" s="5"/>
+      <c r="C202" s="5"/>
+      <c r="D202" s="5"/>
+      <c r="E202" s="5"/>
+      <c r="F202" s="5"/>
+      <c r="G202" s="5"/>
+      <c r="H202" s="15"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A203" s="5"/>
+      <c r="B203" s="5"/>
+      <c r="C203" s="5"/>
+      <c r="D203" s="5"/>
+      <c r="E203" s="5"/>
+      <c r="F203" s="5"/>
+      <c r="G203" s="5"/>
+      <c r="H203" s="15"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A204" s="5"/>
+      <c r="B204" s="5"/>
+      <c r="C204" s="5"/>
+      <c r="D204" s="5"/>
+      <c r="E204" s="5"/>
+      <c r="F204" s="5"/>
+      <c r="G204" s="5"/>
+      <c r="H204" s="15"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A205" s="5"/>
+      <c r="B205" s="5"/>
+      <c r="C205" s="5"/>
+      <c r="D205" s="5"/>
+      <c r="E205" s="5"/>
+      <c r="F205" s="5"/>
+      <c r="G205" s="5"/>
+      <c r="H205" s="15"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A206" s="5"/>
+      <c r="B206" s="5"/>
+      <c r="C206" s="5"/>
+      <c r="D206" s="5"/>
+      <c r="E206" s="5"/>
+      <c r="F206" s="5"/>
+      <c r="G206" s="5"/>
+      <c r="H206" s="15"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207" s="5"/>
+      <c r="B207" s="5"/>
+      <c r="C207" s="5"/>
+      <c r="D207" s="5"/>
+      <c r="E207" s="5"/>
+      <c r="F207" s="5"/>
+      <c r="G207" s="5"/>
+      <c r="H207" s="15"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A208" s="5"/>
+      <c r="B208" s="5"/>
+      <c r="C208" s="5"/>
+      <c r="D208" s="5"/>
+      <c r="E208" s="5"/>
+      <c r="F208" s="5"/>
+      <c r="G208" s="5"/>
+      <c r="H208" s="15"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A209" s="5"/>
+      <c r="B209" s="5"/>
+      <c r="C209" s="5"/>
+      <c r="D209" s="5"/>
+      <c r="E209" s="5"/>
+      <c r="F209" s="5"/>
+      <c r="G209" s="5"/>
+      <c r="H209" s="15"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A210" s="5"/>
+      <c r="B210" s="5"/>
+      <c r="C210" s="5"/>
+      <c r="D210" s="5"/>
+      <c r="E210" s="5"/>
+      <c r="F210" s="5"/>
+      <c r="G210" s="5"/>
+      <c r="H210" s="15"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A211" s="5"/>
+      <c r="B211" s="5"/>
+      <c r="C211" s="5"/>
+      <c r="D211" s="5"/>
+      <c r="E211" s="5"/>
+      <c r="F211" s="5"/>
+      <c r="G211" s="5"/>
+      <c r="H211" s="15"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A212" s="5"/>
+      <c r="B212" s="5"/>
+      <c r="C212" s="5"/>
+      <c r="D212" s="5"/>
+      <c r="E212" s="5"/>
+      <c r="F212" s="5"/>
+      <c r="G212" s="5"/>
+      <c r="H212" s="15"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A213" s="5"/>
+      <c r="B213" s="5"/>
+      <c r="C213" s="5"/>
+      <c r="D213" s="5"/>
+      <c r="E213" s="5"/>
+      <c r="F213" s="5"/>
+      <c r="G213" s="5"/>
+      <c r="H213" s="15"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A214" s="5"/>
+      <c r="B214" s="5"/>
+      <c r="C214" s="5"/>
+      <c r="D214" s="5"/>
+      <c r="E214" s="5"/>
+      <c r="F214" s="5"/>
+      <c r="G214" s="5"/>
+      <c r="H214" s="15"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A215" s="5"/>
+      <c r="B215" s="5"/>
+      <c r="C215" s="5"/>
+      <c r="D215" s="5"/>
+      <c r="E215" s="5"/>
+      <c r="F215" s="5"/>
+      <c r="G215" s="5"/>
+      <c r="H215" s="15"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A216" s="5"/>
+      <c r="B216" s="5"/>
+      <c r="C216" s="5"/>
+      <c r="D216" s="5"/>
+      <c r="E216" s="5"/>
+      <c r="F216" s="5"/>
+      <c r="G216" s="5"/>
+      <c r="H216" s="15"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A217" s="5"/>
+      <c r="B217" s="5"/>
+      <c r="C217" s="5"/>
+      <c r="D217" s="5"/>
+      <c r="E217" s="5"/>
+      <c r="F217" s="5"/>
+      <c r="G217" s="5"/>
+      <c r="H217" s="15"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A218" s="5"/>
+      <c r="B218" s="5"/>
+      <c r="C218" s="5"/>
+      <c r="D218" s="5"/>
+      <c r="E218" s="5"/>
+      <c r="F218" s="5"/>
+      <c r="G218" s="5"/>
+      <c r="H218" s="15"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A219" s="5"/>
+      <c r="B219" s="5"/>
+      <c r="C219" s="5"/>
+      <c r="D219" s="5"/>
+      <c r="E219" s="5"/>
+      <c r="F219" s="5"/>
+      <c r="G219" s="5"/>
+      <c r="H219" s="15"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A220" s="5"/>
+      <c r="B220" s="5"/>
+      <c r="C220" s="5"/>
+      <c r="D220" s="5"/>
+      <c r="E220" s="5"/>
+      <c r="F220" s="5"/>
+      <c r="G220" s="5"/>
+      <c r="H220" s="15"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A221" s="5"/>
+      <c r="B221" s="5"/>
+      <c r="C221" s="5"/>
+      <c r="D221" s="5"/>
+      <c r="E221" s="5"/>
+      <c r="F221" s="5"/>
+      <c r="G221" s="5"/>
+      <c r="H221" s="15"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A222" s="5"/>
+      <c r="B222" s="5"/>
+      <c r="C222" s="5"/>
+      <c r="D222" s="5"/>
+      <c r="E222" s="5"/>
+      <c r="F222" s="5"/>
+      <c r="G222" s="5"/>
+      <c r="H222" s="15"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A223" s="5"/>
+      <c r="B223" s="5"/>
+      <c r="C223" s="5"/>
+      <c r="D223" s="5"/>
+      <c r="E223" s="5"/>
+      <c r="F223" s="5"/>
+      <c r="G223" s="5"/>
+      <c r="H223" s="15"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A224" s="5"/>
+      <c r="B224" s="5"/>
+      <c r="C224" s="5"/>
+      <c r="D224" s="5"/>
+      <c r="E224" s="5"/>
+      <c r="F224" s="5"/>
+      <c r="G224" s="5"/>
+      <c r="H224" s="15"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A225" s="5"/>
+      <c r="B225" s="5"/>
+      <c r="C225" s="5"/>
+      <c r="D225" s="5"/>
+      <c r="E225" s="5"/>
+      <c r="F225" s="5"/>
+      <c r="G225" s="5"/>
+      <c r="H225" s="15"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A226" s="5"/>
+      <c r="B226" s="5"/>
+      <c r="C226" s="5"/>
+      <c r="D226" s="5"/>
+      <c r="E226" s="5"/>
+      <c r="F226" s="5"/>
+      <c r="G226" s="5"/>
+      <c r="H226" s="15"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A227" s="5"/>
+      <c r="B227" s="5"/>
+      <c r="C227" s="5"/>
+      <c r="D227" s="5"/>
+      <c r="E227" s="5"/>
+      <c r="F227" s="5"/>
+      <c r="G227" s="5"/>
+      <c r="H227" s="15"/>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A228" s="5"/>
+      <c r="B228" s="5"/>
+      <c r="C228" s="5"/>
+      <c r="D228" s="5"/>
+      <c r="E228" s="5"/>
+      <c r="F228" s="5"/>
+      <c r="G228" s="5"/>
+      <c r="H228" s="15"/>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A229" s="5"/>
+      <c r="B229" s="5"/>
+      <c r="C229" s="5"/>
+      <c r="D229" s="5"/>
+      <c r="E229" s="5"/>
+      <c r="F229" s="5"/>
+      <c r="G229" s="5"/>
+      <c r="H229" s="15"/>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A230" s="5"/>
+      <c r="B230" s="5"/>
+      <c r="C230" s="5"/>
+      <c r="D230" s="5"/>
+      <c r="E230" s="5"/>
+      <c r="F230" s="5"/>
+      <c r="G230" s="5"/>
+      <c r="H230" s="15"/>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A231" s="5"/>
+      <c r="B231" s="5"/>
+      <c r="C231" s="5"/>
+      <c r="D231" s="5"/>
+      <c r="E231" s="5"/>
+      <c r="F231" s="5"/>
+      <c r="G231" s="5"/>
+      <c r="H231" s="15"/>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A232" s="5"/>
+      <c r="B232" s="5"/>
+      <c r="C232" s="5"/>
+      <c r="D232" s="5"/>
+      <c r="E232" s="5"/>
+      <c r="F232" s="5"/>
+      <c r="G232" s="5"/>
+      <c r="H232" s="15"/>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A233" s="5"/>
+      <c r="B233" s="5"/>
+      <c r="C233" s="5"/>
+      <c r="D233" s="5"/>
+      <c r="E233" s="5"/>
+      <c r="F233" s="5"/>
+      <c r="G233" s="5"/>
+      <c r="H233" s="15"/>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A234" s="5"/>
+      <c r="B234" s="5"/>
+      <c r="C234" s="5"/>
+      <c r="D234" s="5"/>
+      <c r="E234" s="5"/>
+      <c r="F234" s="5"/>
+      <c r="G234" s="5"/>
+      <c r="H234" s="15"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A235" s="5"/>
+      <c r="B235" s="5"/>
+      <c r="C235" s="5"/>
+      <c r="D235" s="5"/>
+      <c r="E235" s="5"/>
+      <c r="F235" s="5"/>
+      <c r="G235" s="5"/>
+      <c r="H235" s="15"/>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A236" s="5"/>
+      <c r="B236" s="5"/>
+      <c r="C236" s="5"/>
+      <c r="D236" s="5"/>
+      <c r="E236" s="5"/>
+      <c r="F236" s="5"/>
+      <c r="G236" s="5"/>
+      <c r="H236" s="15"/>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A237" s="5"/>
+      <c r="B237" s="5"/>
+      <c r="C237" s="5"/>
+      <c r="D237" s="5"/>
+      <c r="E237" s="5"/>
+      <c r="F237" s="5"/>
+      <c r="G237" s="5"/>
+      <c r="H237" s="15"/>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A238" s="5"/>
+      <c r="B238" s="5"/>
+      <c r="C238" s="5"/>
+      <c r="D238" s="5"/>
+      <c r="E238" s="5"/>
+      <c r="F238" s="5"/>
+      <c r="G238" s="5"/>
+      <c r="H238" s="15"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A239" s="5"/>
+      <c r="B239" s="5"/>
+      <c r="C239" s="5"/>
+      <c r="D239" s="5"/>
+      <c r="E239" s="5"/>
+      <c r="F239" s="5"/>
+      <c r="G239" s="5"/>
+      <c r="H239" s="15"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A240" s="5"/>
+      <c r="B240" s="5"/>
+      <c r="C240" s="5"/>
+      <c r="D240" s="5"/>
+      <c r="E240" s="5"/>
+      <c r="F240" s="5"/>
+      <c r="G240" s="5"/>
+      <c r="H240" s="15"/>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A241" s="5"/>
+      <c r="B241" s="5"/>
+      <c r="C241" s="5"/>
+      <c r="D241" s="5"/>
+      <c r="E241" s="5"/>
+      <c r="F241" s="5"/>
+      <c r="G241" s="5"/>
+      <c r="H241" s="15"/>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A242" s="5"/>
+      <c r="B242" s="5"/>
+      <c r="C242" s="5"/>
+      <c r="D242" s="5"/>
+      <c r="E242" s="5"/>
+      <c r="F242" s="5"/>
+      <c r="G242" s="5"/>
+      <c r="H242" s="15"/>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A243" s="5"/>
+      <c r="B243" s="5"/>
+      <c r="C243" s="5"/>
+      <c r="D243" s="5"/>
+      <c r="E243" s="5"/>
+      <c r="F243" s="5"/>
+      <c r="G243" s="5"/>
+      <c r="H243" s="15"/>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A244" s="5"/>
+      <c r="B244" s="5"/>
+      <c r="C244" s="5"/>
+      <c r="D244" s="5"/>
+      <c r="E244" s="5"/>
+      <c r="F244" s="5"/>
+      <c r="G244" s="5"/>
+      <c r="H244" s="15"/>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A245" s="5"/>
+      <c r="B245" s="5"/>
+      <c r="C245" s="5"/>
+      <c r="D245" s="5"/>
+      <c r="E245" s="5"/>
+      <c r="F245" s="5"/>
+      <c r="G245" s="5"/>
+      <c r="H245" s="15"/>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A246" s="5"/>
+      <c r="B246" s="5"/>
+      <c r="C246" s="5"/>
+      <c r="D246" s="5"/>
+      <c r="E246" s="5"/>
+      <c r="F246" s="5"/>
+      <c r="G246" s="5"/>
+      <c r="H246" s="15"/>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A247" s="5"/>
+      <c r="B247" s="5"/>
+      <c r="C247" s="5"/>
+      <c r="D247" s="5"/>
+      <c r="E247" s="5"/>
+      <c r="F247" s="5"/>
+      <c r="G247" s="5"/>
+      <c r="H247" s="15"/>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A248" s="5"/>
+      <c r="B248" s="5"/>
+      <c r="C248" s="5"/>
+      <c r="D248" s="5"/>
+      <c r="E248" s="5"/>
+      <c r="F248" s="5"/>
+      <c r="G248" s="5"/>
+      <c r="H248" s="15"/>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A249" s="5"/>
+      <c r="B249" s="5"/>
+      <c r="C249" s="5"/>
+      <c r="D249" s="5"/>
+      <c r="E249" s="5"/>
+      <c r="F249" s="5"/>
+      <c r="G249" s="5"/>
+      <c r="H249" s="15"/>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A250" s="5"/>
+      <c r="B250" s="5"/>
+      <c r="C250" s="5"/>
+      <c r="D250" s="5"/>
+      <c r="E250" s="5"/>
+      <c r="F250" s="5"/>
+      <c r="G250" s="5"/>
+      <c r="H250" s="15"/>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A251" s="5"/>
+      <c r="B251" s="5"/>
+      <c r="C251" s="5"/>
+      <c r="D251" s="5"/>
+      <c r="E251" s="5"/>
+      <c r="F251" s="5"/>
+      <c r="G251" s="5"/>
+      <c r="H251" s="15"/>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A252" s="5"/>
+      <c r="B252" s="5"/>
+      <c r="C252" s="5"/>
+      <c r="D252" s="5"/>
+      <c r="E252" s="5"/>
+      <c r="F252" s="5"/>
+      <c r="G252" s="5"/>
+      <c r="H252" s="15"/>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A253" s="5"/>
+      <c r="B253" s="5"/>
+      <c r="C253" s="5"/>
+      <c r="D253" s="5"/>
+      <c r="E253" s="5"/>
+      <c r="F253" s="5"/>
+      <c r="G253" s="5"/>
+      <c r="H253" s="15"/>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A254" s="5"/>
+      <c r="B254" s="5"/>
+      <c r="C254" s="5"/>
+      <c r="D254" s="5"/>
+      <c r="E254" s="5"/>
+      <c r="F254" s="5"/>
+      <c r="G254" s="5"/>
+      <c r="H254" s="15"/>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A255" s="5"/>
+      <c r="B255" s="5"/>
+      <c r="C255" s="5"/>
+      <c r="D255" s="5"/>
+      <c r="E255" s="5"/>
+      <c r="F255" s="5"/>
+      <c r="G255" s="5"/>
+      <c r="H255" s="15"/>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A256" s="5"/>
+      <c r="B256" s="5"/>
+      <c r="C256" s="5"/>
+      <c r="D256" s="5"/>
+      <c r="E256" s="5"/>
+      <c r="F256" s="5"/>
+      <c r="G256" s="5"/>
+      <c r="H256" s="15"/>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A257" s="5"/>
+      <c r="B257" s="5"/>
+      <c r="C257" s="5"/>
+      <c r="D257" s="5"/>
+      <c r="E257" s="5"/>
+      <c r="F257" s="5"/>
+      <c r="G257" s="5"/>
+      <c r="H257" s="15"/>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A258" s="5"/>
+      <c r="B258" s="5"/>
+      <c r="C258" s="5"/>
+      <c r="D258" s="5"/>
+      <c r="E258" s="5"/>
+      <c r="F258" s="5"/>
+      <c r="G258" s="5"/>
+      <c r="H258" s="15"/>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A259" s="5"/>
+      <c r="B259" s="5"/>
+      <c r="C259" s="5"/>
+      <c r="D259" s="5"/>
+      <c r="E259" s="5"/>
+      <c r="F259" s="5"/>
+      <c r="G259" s="5"/>
+      <c r="H259" s="15"/>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A260" s="5"/>
+      <c r="B260" s="5"/>
+      <c r="C260" s="5"/>
+      <c r="D260" s="5"/>
+      <c r="E260" s="5"/>
+      <c r="F260" s="5"/>
+      <c r="G260" s="5"/>
+      <c r="H260" s="15"/>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A261" s="5"/>
+      <c r="B261" s="5"/>
+      <c r="C261" s="5"/>
+      <c r="D261" s="5"/>
+      <c r="E261" s="5"/>
+      <c r="F261" s="5"/>
+      <c r="G261" s="5"/>
+      <c r="H261" s="15"/>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A262" s="5"/>
+      <c r="B262" s="5"/>
+      <c r="C262" s="5"/>
+      <c r="D262" s="5"/>
+      <c r="E262" s="5"/>
+      <c r="F262" s="5"/>
+      <c r="G262" s="5"/>
+      <c r="H262" s="15"/>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A263" s="5"/>
+      <c r="B263" s="5"/>
+      <c r="C263" s="5"/>
+      <c r="D263" s="5"/>
+      <c r="E263" s="5"/>
+      <c r="F263" s="5"/>
+      <c r="G263" s="5"/>
+      <c r="H263" s="15"/>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A264" s="5"/>
+      <c r="B264" s="5"/>
+      <c r="C264" s="5"/>
+      <c r="D264" s="5"/>
+      <c r="E264" s="5"/>
+      <c r="F264" s="5"/>
+      <c r="G264" s="5"/>
+      <c r="H264" s="15"/>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A265" s="5"/>
+      <c r="B265" s="5"/>
+      <c r="C265" s="5"/>
+      <c r="D265" s="5"/>
+      <c r="E265" s="5"/>
+      <c r="F265" s="5"/>
+      <c r="G265" s="5"/>
+      <c r="H265" s="15"/>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A266" s="5"/>
+      <c r="B266" s="5"/>
+      <c r="C266" s="5"/>
+      <c r="D266" s="5"/>
+      <c r="E266" s="5"/>
+      <c r="F266" s="5"/>
+      <c r="G266" s="5"/>
+      <c r="H266" s="15"/>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A267" s="5"/>
+      <c r="B267" s="5"/>
+      <c r="C267" s="5"/>
+      <c r="D267" s="5"/>
+      <c r="E267" s="5"/>
+      <c r="F267" s="5"/>
+      <c r="G267" s="5"/>
+      <c r="H267" s="15"/>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A268" s="5"/>
+      <c r="B268" s="5"/>
+      <c r="C268" s="5"/>
+      <c r="D268" s="5"/>
+      <c r="E268" s="5"/>
+      <c r="F268" s="5"/>
+      <c r="G268" s="5"/>
+      <c r="H268" s="15"/>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A269" s="5"/>
+      <c r="B269" s="5"/>
+      <c r="C269" s="5"/>
+      <c r="D269" s="5"/>
+      <c r="E269" s="5"/>
+      <c r="F269" s="5"/>
+      <c r="G269" s="5"/>
+      <c r="H269" s="15"/>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A270" s="5"/>
+      <c r="B270" s="5"/>
+      <c r="C270" s="5"/>
+      <c r="D270" s="5"/>
+      <c r="E270" s="5"/>
+      <c r="F270" s="5"/>
+      <c r="G270" s="5"/>
+      <c r="H270" s="15"/>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A271" s="5"/>
+      <c r="B271" s="5"/>
+      <c r="C271" s="5"/>
+      <c r="D271" s="5"/>
+      <c r="E271" s="5"/>
+      <c r="F271" s="5"/>
+      <c r="G271" s="5"/>
+      <c r="H271" s="15"/>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A272" s="5"/>
+      <c r="B272" s="5"/>
+      <c r="C272" s="5"/>
+      <c r="D272" s="5"/>
+      <c r="E272" s="5"/>
+      <c r="F272" s="5"/>
+      <c r="G272" s="5"/>
+      <c r="H272" s="15"/>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A273" s="5"/>
+      <c r="B273" s="5"/>
+      <c r="C273" s="5"/>
+      <c r="D273" s="5"/>
+      <c r="E273" s="5"/>
+      <c r="F273" s="5"/>
+      <c r="G273" s="5"/>
+      <c r="H273" s="15"/>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A274" s="5"/>
+      <c r="B274" s="5"/>
+      <c r="C274" s="5"/>
+      <c r="D274" s="5"/>
+      <c r="E274" s="5"/>
+      <c r="F274" s="5"/>
+      <c r="G274" s="5"/>
+      <c r="H274" s="15"/>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A275" s="5"/>
+      <c r="B275" s="5"/>
+      <c r="C275" s="5"/>
+      <c r="D275" s="5"/>
+      <c r="E275" s="5"/>
+      <c r="F275" s="5"/>
+      <c r="G275" s="5"/>
+      <c r="H275" s="15"/>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A276" s="5"/>
+      <c r="B276" s="5"/>
+      <c r="C276" s="5"/>
+      <c r="D276" s="5"/>
+      <c r="E276" s="5"/>
+      <c r="F276" s="5"/>
+      <c r="G276" s="5"/>
+      <c r="H276" s="15"/>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A277" s="5"/>
+      <c r="B277" s="5"/>
+      <c r="C277" s="5"/>
+      <c r="D277" s="5"/>
+      <c r="E277" s="5"/>
+      <c r="F277" s="5"/>
+      <c r="G277" s="5"/>
+      <c r="H277" s="15"/>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A278" s="5"/>
+      <c r="B278" s="5"/>
+      <c r="C278" s="5"/>
+      <c r="D278" s="5"/>
+      <c r="E278" s="5"/>
+      <c r="F278" s="5"/>
+      <c r="G278" s="5"/>
+      <c r="H278" s="15"/>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A279" s="5"/>
+      <c r="B279" s="5"/>
+      <c r="C279" s="5"/>
+      <c r="D279" s="5"/>
+      <c r="E279" s="5"/>
+      <c r="F279" s="5"/>
+      <c r="G279" s="5"/>
+      <c r="H279" s="15"/>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A280" s="5"/>
+      <c r="B280" s="5"/>
+      <c r="C280" s="5"/>
+      <c r="D280" s="5"/>
+      <c r="E280" s="5"/>
+      <c r="F280" s="5"/>
+      <c r="G280" s="5"/>
+      <c r="H280" s="15"/>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A281" s="5"/>
+      <c r="B281" s="5"/>
+      <c r="C281" s="5"/>
+      <c r="D281" s="5"/>
+      <c r="E281" s="5"/>
+      <c r="F281" s="5"/>
+      <c r="G281" s="5"/>
+      <c r="H281" s="15"/>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A282" s="5"/>
+      <c r="B282" s="5"/>
+      <c r="C282" s="5"/>
+      <c r="D282" s="5"/>
+      <c r="E282" s="5"/>
+      <c r="F282" s="5"/>
+      <c r="G282" s="5"/>
+      <c r="H282" s="15"/>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A283" s="5"/>
+      <c r="B283" s="5"/>
+      <c r="C283" s="5"/>
+      <c r="D283" s="5"/>
+      <c r="E283" s="5"/>
+      <c r="F283" s="5"/>
+      <c r="G283" s="5"/>
+      <c r="H283" s="15"/>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A284" s="5"/>
+      <c r="B284" s="5"/>
+      <c r="C284" s="5"/>
+      <c r="D284" s="5"/>
+      <c r="E284" s="5"/>
+      <c r="F284" s="5"/>
+      <c r="G284" s="5"/>
+      <c r="H284" s="15"/>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A285" s="5"/>
+      <c r="B285" s="5"/>
+      <c r="C285" s="5"/>
+      <c r="D285" s="5"/>
+      <c r="E285" s="5"/>
+      <c r="F285" s="5"/>
+      <c r="G285" s="5"/>
+      <c r="H285" s="15"/>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A286" s="5"/>
+      <c r="B286" s="5"/>
+      <c r="C286" s="5"/>
+      <c r="D286" s="5"/>
+      <c r="E286" s="5"/>
+      <c r="F286" s="5"/>
+      <c r="G286" s="5"/>
+      <c r="H286" s="15"/>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A287" s="5"/>
+      <c r="B287" s="5"/>
+      <c r="C287" s="5"/>
+      <c r="D287" s="5"/>
+      <c r="E287" s="5"/>
+      <c r="F287" s="5"/>
+      <c r="G287" s="5"/>
+      <c r="H287" s="15"/>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A288" s="5"/>
+      <c r="B288" s="5"/>
+      <c r="C288" s="5"/>
+      <c r="D288" s="5"/>
+      <c r="E288" s="5"/>
+      <c r="F288" s="5"/>
+      <c r="G288" s="5"/>
+      <c r="H288" s="15"/>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A289" s="5"/>
+      <c r="B289" s="5"/>
+      <c r="C289" s="5"/>
+      <c r="D289" s="5"/>
+      <c r="E289" s="5"/>
+      <c r="F289" s="5"/>
+      <c r="G289" s="5"/>
+      <c r="H289" s="15"/>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A290" s="5"/>
+      <c r="B290" s="5"/>
+      <c r="C290" s="5"/>
+      <c r="D290" s="5"/>
+      <c r="E290" s="5"/>
+      <c r="F290" s="5"/>
+      <c r="G290" s="5"/>
+      <c r="H290" s="15"/>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A291" s="5"/>
+      <c r="B291" s="5"/>
+      <c r="C291" s="5"/>
+      <c r="D291" s="5"/>
+      <c r="E291" s="5"/>
+      <c r="F291" s="5"/>
+      <c r="G291" s="5"/>
+      <c r="H291" s="15"/>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A292" s="5"/>
+      <c r="B292" s="5"/>
+      <c r="C292" s="5"/>
+      <c r="D292" s="5"/>
+      <c r="E292" s="5"/>
+      <c r="F292" s="5"/>
+      <c r="G292" s="5"/>
+      <c r="H292" s="15"/>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A293" s="5"/>
+      <c r="B293" s="5"/>
+      <c r="C293" s="5"/>
+      <c r="D293" s="5"/>
+      <c r="E293" s="5"/>
+      <c r="F293" s="5"/>
+      <c r="G293" s="5"/>
+      <c r="H293" s="15"/>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A294" s="5"/>
+      <c r="B294" s="5"/>
+      <c r="C294" s="5"/>
+      <c r="D294" s="5"/>
+      <c r="E294" s="5"/>
+      <c r="F294" s="5"/>
+      <c r="G294" s="5"/>
+      <c r="H294" s="15"/>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A295" s="5"/>
+      <c r="B295" s="5"/>
+      <c r="C295" s="5"/>
+      <c r="D295" s="5"/>
+      <c r="E295" s="5"/>
+      <c r="F295" s="5"/>
+      <c r="G295" s="5"/>
+      <c r="H295" s="15"/>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A296" s="5"/>
+      <c r="B296" s="5"/>
+      <c r="C296" s="5"/>
+      <c r="D296" s="5"/>
+      <c r="E296" s="5"/>
+      <c r="F296" s="5"/>
+      <c r="G296" s="5"/>
+      <c r="H296" s="15"/>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A297" s="5"/>
+      <c r="B297" s="5"/>
+      <c r="C297" s="5"/>
+      <c r="D297" s="5"/>
+      <c r="E297" s="5"/>
+      <c r="F297" s="5"/>
+      <c r="G297" s="5"/>
+      <c r="H297" s="15"/>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A298" s="5"/>
+      <c r="B298" s="5"/>
+      <c r="C298" s="5"/>
+      <c r="D298" s="5"/>
+      <c r="E298" s="5"/>
+      <c r="F298" s="5"/>
+      <c r="G298" s="5"/>
+      <c r="H298" s="15"/>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A299" s="5"/>
+      <c r="B299" s="5"/>
+      <c r="C299" s="5"/>
+      <c r="D299" s="5"/>
+      <c r="E299" s="5"/>
+      <c r="F299" s="5"/>
+      <c r="G299" s="5"/>
+      <c r="H299" s="15"/>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A300" s="5"/>
+      <c r="B300" s="5"/>
+      <c r="C300" s="5"/>
+      <c r="D300" s="5"/>
+      <c r="E300" s="5"/>
+      <c r="F300" s="5"/>
+      <c r="G300" s="5"/>
+      <c r="H300" s="15"/>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A301" s="5"/>
+      <c r="B301" s="5"/>
+      <c r="C301" s="5"/>
+      <c r="D301" s="5"/>
+      <c r="E301" s="5"/>
+      <c r="F301" s="5"/>
+      <c r="G301" s="5"/>
+      <c r="H301" s="15"/>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A302" s="5"/>
+      <c r="B302" s="5"/>
+      <c r="C302" s="5"/>
+      <c r="D302" s="5"/>
+      <c r="E302" s="5"/>
+      <c r="F302" s="5"/>
+      <c r="G302" s="5"/>
+      <c r="H302" s="15"/>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A303" s="5"/>
+      <c r="B303" s="5"/>
+      <c r="C303" s="5"/>
+      <c r="D303" s="5"/>
+      <c r="E303" s="5"/>
+      <c r="F303" s="5"/>
+      <c r="G303" s="5"/>
+      <c r="H303" s="15"/>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A304" s="5"/>
+      <c r="B304" s="5"/>
+      <c r="C304" s="5"/>
+      <c r="D304" s="5"/>
+      <c r="E304" s="5"/>
+      <c r="F304" s="5"/>
+      <c r="G304" s="5"/>
+      <c r="H304" s="15"/>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A305" s="5"/>
+      <c r="B305" s="5"/>
+      <c r="C305" s="5"/>
+      <c r="D305" s="5"/>
+      <c r="E305" s="5"/>
+      <c r="F305" s="5"/>
+      <c r="G305" s="5"/>
+      <c r="H305" s="15"/>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A306" s="5"/>
+      <c r="B306" s="5"/>
+      <c r="C306" s="5"/>
+      <c r="D306" s="5"/>
+      <c r="E306" s="5"/>
+      <c r="F306" s="5"/>
+      <c r="G306" s="5"/>
+      <c r="H306" s="15"/>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A307" s="5"/>
+      <c r="B307" s="5"/>
+      <c r="C307" s="5"/>
+      <c r="D307" s="5"/>
+      <c r="E307" s="5"/>
+      <c r="F307" s="5"/>
+      <c r="G307" s="5"/>
+      <c r="H307" s="15"/>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A308" s="5"/>
+      <c r="B308" s="5"/>
+      <c r="C308" s="5"/>
+      <c r="D308" s="5"/>
+      <c r="E308" s="5"/>
+      <c r="F308" s="5"/>
+      <c r="G308" s="5"/>
+      <c r="H308" s="15"/>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A309" s="5"/>
+      <c r="B309" s="5"/>
+      <c r="C309" s="5"/>
+      <c r="D309" s="5"/>
+      <c r="E309" s="5"/>
+      <c r="F309" s="5"/>
+      <c r="G309" s="5"/>
+      <c r="H309" s="15"/>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A310" s="5"/>
+      <c r="B310" s="5"/>
+      <c r="C310" s="5"/>
+      <c r="D310" s="5"/>
+      <c r="E310" s="5"/>
+      <c r="F310" s="5"/>
+      <c r="G310" s="5"/>
+      <c r="H310" s="15"/>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A311" s="5"/>
+      <c r="B311" s="5"/>
+      <c r="C311" s="5"/>
+      <c r="D311" s="5"/>
+      <c r="E311" s="5"/>
+      <c r="F311" s="5"/>
+      <c r="G311" s="5"/>
+      <c r="H311" s="15"/>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A312" s="5"/>
+      <c r="B312" s="5"/>
+      <c r="C312" s="5"/>
+      <c r="D312" s="5"/>
+      <c r="E312" s="5"/>
+      <c r="F312" s="5"/>
+      <c r="G312" s="5"/>
+      <c r="H312" s="15"/>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A313" s="5"/>
+      <c r="B313" s="5"/>
+      <c r="C313" s="5"/>
+      <c r="D313" s="5"/>
+      <c r="E313" s="5"/>
+      <c r="F313" s="5"/>
+      <c r="G313" s="5"/>
+      <c r="H313" s="15"/>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A314" s="5"/>
+      <c r="B314" s="5"/>
+      <c r="C314" s="5"/>
+      <c r="D314" s="5"/>
+      <c r="E314" s="5"/>
+      <c r="F314" s="5"/>
+      <c r="G314" s="5"/>
+      <c r="H314" s="15"/>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A315" s="5"/>
+      <c r="B315" s="5"/>
+      <c r="C315" s="5"/>
+      <c r="D315" s="5"/>
+      <c r="E315" s="5"/>
+      <c r="F315" s="5"/>
+      <c r="G315" s="5"/>
+      <c r="H315" s="15"/>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A316" s="5"/>
+      <c r="B316" s="5"/>
+      <c r="C316" s="5"/>
+      <c r="D316" s="5"/>
+      <c r="E316" s="5"/>
+      <c r="F316" s="5"/>
+      <c r="G316" s="5"/>
+      <c r="H316" s="15"/>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A317" s="5"/>
+      <c r="B317" s="5"/>
+      <c r="C317" s="5"/>
+      <c r="D317" s="5"/>
+      <c r="E317" s="5"/>
+      <c r="F317" s="5"/>
+      <c r="G317" s="5"/>
+      <c r="H317" s="15"/>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A318" s="5"/>
+      <c r="B318" s="5"/>
+      <c r="C318" s="5"/>
+      <c r="D318" s="5"/>
+      <c r="E318" s="5"/>
+      <c r="F318" s="5"/>
+      <c r="G318" s="5"/>
+      <c r="H318" s="15"/>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A319" s="5"/>
+      <c r="B319" s="5"/>
+      <c r="C319" s="5"/>
+      <c r="D319" s="5"/>
+      <c r="E319" s="5"/>
+      <c r="F319" s="5"/>
+      <c r="G319" s="5"/>
+      <c r="H319" s="15"/>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A320" s="5"/>
+      <c r="B320" s="5"/>
+      <c r="C320" s="5"/>
+      <c r="D320" s="5"/>
+      <c r="E320" s="5"/>
+      <c r="F320" s="5"/>
+      <c r="G320" s="5"/>
+      <c r="H320" s="15"/>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A321" s="5"/>
+      <c r="B321" s="5"/>
+      <c r="C321" s="5"/>
+      <c r="D321" s="5"/>
+      <c r="E321" s="5"/>
+      <c r="F321" s="5"/>
+      <c r="G321" s="5"/>
+      <c r="H321" s="15"/>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A322" s="5"/>
+      <c r="B322" s="5"/>
+      <c r="C322" s="5"/>
+      <c r="D322" s="5"/>
+      <c r="E322" s="5"/>
+      <c r="F322" s="5"/>
+      <c r="G322" s="5"/>
+      <c r="H322" s="15"/>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A323" s="5"/>
+      <c r="B323" s="5"/>
+      <c r="C323" s="5"/>
+      <c r="D323" s="5"/>
+      <c r="E323" s="5"/>
+      <c r="F323" s="5"/>
+      <c r="G323" s="5"/>
+      <c r="H323" s="15"/>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A324" s="5"/>
+      <c r="B324" s="5"/>
+      <c r="C324" s="5"/>
+      <c r="D324" s="5"/>
+      <c r="E324" s="5"/>
+      <c r="F324" s="5"/>
+      <c r="G324" s="5"/>
+      <c r="H324" s="15"/>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A325" s="5"/>
+      <c r="B325" s="5"/>
+      <c r="C325" s="5"/>
+      <c r="D325" s="5"/>
+      <c r="E325" s="5"/>
+      <c r="F325" s="5"/>
+      <c r="G325" s="5"/>
+      <c r="H325" s="15"/>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A326" s="5"/>
+      <c r="B326" s="5"/>
+      <c r="C326" s="5"/>
+      <c r="D326" s="5"/>
+      <c r="E326" s="5"/>
+      <c r="F326" s="5"/>
+      <c r="G326" s="5"/>
+      <c r="H326" s="15"/>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A327" s="5"/>
+      <c r="B327" s="5"/>
+      <c r="C327" s="5"/>
+      <c r="D327" s="5"/>
+      <c r="E327" s="5"/>
+      <c r="F327" s="5"/>
+      <c r="G327" s="5"/>
+      <c r="H327" s="15"/>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A328" s="5"/>
+      <c r="B328" s="5"/>
+      <c r="C328" s="5"/>
+      <c r="D328" s="5"/>
+      <c r="E328" s="5"/>
+      <c r="F328" s="5"/>
+      <c r="G328" s="5"/>
+      <c r="H328" s="15"/>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A329" s="5"/>
+      <c r="B329" s="5"/>
+      <c r="C329" s="5"/>
+      <c r="D329" s="5"/>
+      <c r="E329" s="5"/>
+      <c r="F329" s="5"/>
+      <c r="G329" s="5"/>
+      <c r="H329" s="15"/>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A330" s="5"/>
+      <c r="B330" s="5"/>
+      <c r="C330" s="5"/>
+      <c r="D330" s="5"/>
+      <c r="E330" s="5"/>
+      <c r="F330" s="5"/>
+      <c r="G330" s="5"/>
+      <c r="H330" s="15"/>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A331" s="5"/>
+      <c r="B331" s="5"/>
+      <c r="C331" s="5"/>
+      <c r="D331" s="5"/>
+      <c r="E331" s="5"/>
+      <c r="F331" s="5"/>
+      <c r="G331" s="5"/>
+      <c r="H331" s="15"/>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A332" s="5"/>
+      <c r="B332" s="5"/>
+      <c r="C332" s="5"/>
+      <c r="D332" s="5"/>
+      <c r="E332" s="5"/>
+      <c r="F332" s="5"/>
+      <c r="G332" s="5"/>
+      <c r="H332" s="15"/>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A333" s="5"/>
+      <c r="B333" s="5"/>
+      <c r="C333" s="5"/>
+      <c r="D333" s="5"/>
+      <c r="E333" s="5"/>
+      <c r="F333" s="5"/>
+      <c r="G333" s="5"/>
+      <c r="H333" s="15"/>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A334" s="5"/>
+      <c r="B334" s="5"/>
+      <c r="C334" s="5"/>
+      <c r="D334" s="5"/>
+      <c r="E334" s="5"/>
+      <c r="F334" s="5"/>
+      <c r="G334" s="5"/>
+      <c r="H334" s="15"/>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A335" s="5"/>
+      <c r="B335" s="5"/>
+      <c r="C335" s="5"/>
+      <c r="D335" s="5"/>
+      <c r="E335" s="5"/>
+      <c r="F335" s="5"/>
+      <c r="G335" s="5"/>
+      <c r="H335" s="15"/>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A336" s="5"/>
+      <c r="B336" s="5"/>
+      <c r="C336" s="5"/>
+      <c r="D336" s="5"/>
+      <c r="E336" s="5"/>
+      <c r="F336" s="5"/>
+      <c r="G336" s="5"/>
+      <c r="H336" s="15"/>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A337" s="5"/>
+      <c r="B337" s="5"/>
+      <c r="C337" s="5"/>
+      <c r="D337" s="5"/>
+      <c r="E337" s="5"/>
+      <c r="F337" s="5"/>
+      <c r="G337" s="5"/>
+      <c r="H337" s="15"/>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A338" s="5"/>
+      <c r="B338" s="5"/>
+      <c r="C338" s="5"/>
+      <c r="D338" s="5"/>
+      <c r="E338" s="5"/>
+      <c r="F338" s="5"/>
+      <c r="G338" s="5"/>
+      <c r="H338" s="15"/>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A339" s="5"/>
+      <c r="B339" s="5"/>
+      <c r="C339" s="5"/>
+      <c r="D339" s="5"/>
+      <c r="E339" s="5"/>
+      <c r="F339" s="5"/>
+      <c r="G339" s="5"/>
+      <c r="H339" s="15"/>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A340" s="5"/>
+      <c r="B340" s="5"/>
+      <c r="C340" s="5"/>
+      <c r="D340" s="5"/>
+      <c r="E340" s="5"/>
+      <c r="F340" s="5"/>
+      <c r="G340" s="5"/>
+      <c r="H340" s="15"/>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A341" s="5"/>
+      <c r="B341" s="5"/>
+      <c r="C341" s="5"/>
+      <c r="D341" s="5"/>
+      <c r="E341" s="5"/>
+      <c r="F341" s="5"/>
+      <c r="G341" s="5"/>
+      <c r="H341" s="15"/>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A342" s="5"/>
+      <c r="B342" s="5"/>
+      <c r="C342" s="5"/>
+      <c r="D342" s="5"/>
+      <c r="E342" s="5"/>
+      <c r="F342" s="5"/>
+      <c r="G342" s="5"/>
+      <c r="H342" s="15"/>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A343" s="5"/>
+      <c r="B343" s="5"/>
+      <c r="C343" s="5"/>
+      <c r="D343" s="5"/>
+      <c r="E343" s="5"/>
+      <c r="F343" s="5"/>
+      <c r="G343" s="5"/>
+      <c r="H343" s="15"/>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A344" s="5"/>
+      <c r="B344" s="5"/>
+      <c r="C344" s="5"/>
+      <c r="D344" s="5"/>
+      <c r="E344" s="5"/>
+      <c r="F344" s="5"/>
+      <c r="G344" s="5"/>
+      <c r="H344" s="15"/>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A345" s="5"/>
+      <c r="B345" s="5"/>
+      <c r="C345" s="5"/>
+      <c r="D345" s="5"/>
+      <c r="E345" s="5"/>
+      <c r="F345" s="5"/>
+      <c r="G345" s="5"/>
+      <c r="H345" s="15"/>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A346" s="5"/>
+      <c r="B346" s="5"/>
+      <c r="C346" s="5"/>
+      <c r="D346" s="5"/>
+      <c r="E346" s="5"/>
+      <c r="F346" s="5"/>
+      <c r="G346" s="5"/>
+      <c r="H346" s="15"/>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A347" s="5"/>
+      <c r="B347" s="5"/>
+      <c r="C347" s="5"/>
+      <c r="D347" s="5"/>
+      <c r="E347" s="5"/>
+      <c r="F347" s="5"/>
+      <c r="G347" s="5"/>
+      <c r="H347" s="15"/>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A348" s="5"/>
+      <c r="B348" s="5"/>
+      <c r="C348" s="5"/>
+      <c r="D348" s="5"/>
+      <c r="E348" s="5"/>
+      <c r="F348" s="5"/>
+      <c r="G348" s="5"/>
+      <c r="H348" s="15"/>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A349" s="5"/>
+      <c r="B349" s="5"/>
+      <c r="C349" s="5"/>
+      <c r="D349" s="5"/>
+      <c r="E349" s="5"/>
+      <c r="F349" s="5"/>
+      <c r="G349" s="5"/>
+      <c r="H349" s="15"/>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A350" s="5"/>
+      <c r="B350" s="5"/>
+      <c r="C350" s="5"/>
+      <c r="D350" s="5"/>
+      <c r="E350" s="5"/>
+      <c r="F350" s="5"/>
+      <c r="G350" s="5"/>
+      <c r="H350" s="15"/>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A351" s="5"/>
+      <c r="B351" s="5"/>
+      <c r="C351" s="5"/>
+      <c r="D351" s="5"/>
+      <c r="E351" s="5"/>
+      <c r="F351" s="5"/>
+      <c r="G351" s="5"/>
+      <c r="H351" s="15"/>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A352" s="5"/>
+      <c r="B352" s="5"/>
+      <c r="C352" s="5"/>
+      <c r="D352" s="5"/>
+      <c r="E352" s="5"/>
+      <c r="F352" s="5"/>
+      <c r="G352" s="5"/>
+      <c r="H352" s="15"/>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A353" s="5"/>
+      <c r="B353" s="5"/>
+      <c r="C353" s="5"/>
+      <c r="D353" s="5"/>
+      <c r="E353" s="5"/>
+      <c r="F353" s="5"/>
+      <c r="G353" s="5"/>
+      <c r="H353" s="15"/>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A354" s="5"/>
+      <c r="B354" s="5"/>
+      <c r="C354" s="5"/>
+      <c r="D354" s="5"/>
+      <c r="E354" s="5"/>
+      <c r="F354" s="5"/>
+      <c r="G354" s="5"/>
+      <c r="H354" s="15"/>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A355" s="5"/>
+      <c r="B355" s="5"/>
+      <c r="C355" s="5"/>
+      <c r="D355" s="5"/>
+      <c r="E355" s="5"/>
+      <c r="F355" s="5"/>
+      <c r="G355" s="5"/>
+      <c r="H355" s="15"/>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A356" s="5"/>
+      <c r="B356" s="5"/>
+      <c r="C356" s="5"/>
+      <c r="D356" s="5"/>
+      <c r="E356" s="5"/>
+      <c r="F356" s="5"/>
+      <c r="G356" s="5"/>
+      <c r="H356" s="15"/>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A357" s="5"/>
+      <c r="B357" s="5"/>
+      <c r="C357" s="5"/>
+      <c r="D357" s="5"/>
+      <c r="E357" s="5"/>
+      <c r="F357" s="5"/>
+      <c r="G357" s="5"/>
+      <c r="H357" s="15"/>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A358" s="5"/>
+      <c r="B358" s="5"/>
+      <c r="C358" s="5"/>
+      <c r="D358" s="5"/>
+      <c r="E358" s="5"/>
+      <c r="F358" s="5"/>
+      <c r="G358" s="5"/>
+      <c r="H358" s="15"/>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A359" s="5"/>
+      <c r="B359" s="5"/>
+      <c r="C359" s="5"/>
+      <c r="D359" s="5"/>
+      <c r="E359" s="5"/>
+      <c r="F359" s="5"/>
+      <c r="G359" s="5"/>
+      <c r="H359" s="15"/>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A360" s="5"/>
+      <c r="B360" s="5"/>
+      <c r="C360" s="5"/>
+      <c r="D360" s="5"/>
+      <c r="E360" s="5"/>
+      <c r="F360" s="5"/>
+      <c r="G360" s="5"/>
+      <c r="H360" s="15"/>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A361" s="5"/>
+      <c r="B361" s="5"/>
+      <c r="C361" s="5"/>
+      <c r="D361" s="5"/>
+      <c r="E361" s="5"/>
+      <c r="F361" s="5"/>
+      <c r="G361" s="5"/>
+      <c r="H361" s="15"/>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A362" s="5"/>
+      <c r="B362" s="5"/>
+      <c r="C362" s="5"/>
+      <c r="D362" s="5"/>
+      <c r="E362" s="5"/>
+      <c r="F362" s="5"/>
+      <c r="G362" s="5"/>
+      <c r="H362" s="15"/>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A363" s="5"/>
+      <c r="B363" s="5"/>
+      <c r="C363" s="5"/>
+      <c r="D363" s="5"/>
+      <c r="E363" s="5"/>
+      <c r="F363" s="5"/>
+      <c r="G363" s="5"/>
+      <c r="H363" s="15"/>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A364" s="5"/>
+      <c r="B364" s="5"/>
+      <c r="C364" s="5"/>
+      <c r="D364" s="5"/>
+      <c r="E364" s="5"/>
+      <c r="F364" s="5"/>
+      <c r="G364" s="5"/>
+      <c r="H364" s="15"/>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A365" s="5"/>
+      <c r="B365" s="5"/>
+      <c r="C365" s="5"/>
+      <c r="D365" s="5"/>
+      <c r="E365" s="5"/>
+      <c r="F365" s="5"/>
+      <c r="G365" s="5"/>
+      <c r="H365" s="15"/>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A366" s="5"/>
+      <c r="B366" s="5"/>
+      <c r="C366" s="5"/>
+      <c r="D366" s="5"/>
+      <c r="E366" s="5"/>
+      <c r="F366" s="5"/>
+      <c r="G366" s="5"/>
+      <c r="H366" s="15"/>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A367" s="5"/>
+      <c r="B367" s="5"/>
+      <c r="C367" s="5"/>
+      <c r="D367" s="5"/>
+      <c r="E367" s="5"/>
+      <c r="F367" s="5"/>
+      <c r="G367" s="5"/>
+      <c r="H367" s="15"/>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A368" s="5"/>
+      <c r="B368" s="5"/>
+      <c r="C368" s="5"/>
+      <c r="D368" s="5"/>
+      <c r="E368" s="5"/>
+      <c r="F368" s="5"/>
+      <c r="G368" s="5"/>
+      <c r="H368" s="15"/>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A369" s="5"/>
+      <c r="B369" s="5"/>
+      <c r="C369" s="5"/>
+      <c r="D369" s="5"/>
+      <c r="E369" s="5"/>
+      <c r="F369" s="5"/>
+      <c r="G369" s="5"/>
+      <c r="H369" s="15"/>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A370" s="5"/>
+      <c r="B370" s="5"/>
+      <c r="C370" s="5"/>
+      <c r="D370" s="5"/>
+      <c r="E370" s="5"/>
+      <c r="F370" s="5"/>
+      <c r="G370" s="5"/>
+      <c r="H370" s="15"/>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A371" s="5"/>
+      <c r="B371" s="5"/>
+      <c r="C371" s="5"/>
+      <c r="D371" s="5"/>
+      <c r="E371" s="5"/>
+      <c r="F371" s="5"/>
+      <c r="G371" s="5"/>
+      <c r="H371" s="15"/>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A372" s="5"/>
+      <c r="B372" s="5"/>
+      <c r="C372" s="5"/>
+      <c r="D372" s="5"/>
+      <c r="E372" s="5"/>
+      <c r="F372" s="5"/>
+      <c r="G372" s="5"/>
+      <c r="H372" s="15"/>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A373" s="5"/>
+      <c r="B373" s="5"/>
+      <c r="C373" s="5"/>
+      <c r="D373" s="5"/>
+      <c r="E373" s="5"/>
+      <c r="F373" s="5"/>
+      <c r="G373" s="5"/>
+      <c r="H373" s="5"/>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A374" s="5"/>
+      <c r="B374" s="5"/>
+      <c r="C374" s="5"/>
+      <c r="D374" s="5"/>
+      <c r="E374" s="5"/>
+      <c r="F374" s="5"/>
+      <c r="G374" s="5"/>
+      <c r="H374" s="5"/>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A375" s="5"/>
+      <c r="B375" s="5"/>
+      <c r="C375" s="5"/>
+      <c r="D375" s="5"/>
+      <c r="E375" s="5"/>
+      <c r="F375" s="5"/>
+      <c r="G375" s="5"/>
+      <c r="H375" s="5"/>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A376" s="5"/>
+      <c r="B376" s="5"/>
+      <c r="C376" s="5"/>
+      <c r="D376" s="5"/>
+      <c r="E376" s="5"/>
+      <c r="F376" s="5"/>
+      <c r="G376" s="5"/>
+      <c r="H376" s="5"/>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A377" s="5"/>
+      <c r="B377" s="5"/>
+      <c r="C377" s="5"/>
+      <c r="D377" s="5"/>
+      <c r="E377" s="5"/>
+      <c r="F377" s="5"/>
+      <c r="G377" s="5"/>
+      <c r="H377" s="5"/>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A378" s="5"/>
+      <c r="B378" s="5"/>
+      <c r="C378" s="5"/>
+      <c r="D378" s="5"/>
+      <c r="E378" s="5"/>
+      <c r="F378" s="5"/>
+      <c r="G378" s="5"/>
+      <c r="H378" s="5"/>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A379" s="5"/>
+      <c r="B379" s="5"/>
+      <c r="C379" s="5"/>
+      <c r="D379" s="5"/>
+      <c r="E379" s="5"/>
+      <c r="F379" s="5"/>
+      <c r="G379" s="5"/>
+      <c r="H379" s="5"/>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A380" s="5"/>
+      <c r="B380" s="5"/>
+      <c r="C380" s="5"/>
+      <c r="D380" s="5"/>
+      <c r="E380" s="5"/>
+      <c r="F380" s="5"/>
+      <c r="G380" s="5"/>
+      <c r="H380" s="5"/>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A381" s="5"/>
+      <c r="B381" s="5"/>
+      <c r="C381" s="5"/>
+      <c r="D381" s="5"/>
+      <c r="E381" s="5"/>
+      <c r="F381" s="5"/>
+      <c r="G381" s="5"/>
+      <c r="H381" s="5"/>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A382" s="5"/>
+      <c r="B382" s="5"/>
+      <c r="C382" s="5"/>
+      <c r="D382" s="5"/>
+      <c r="E382" s="5"/>
+      <c r="F382" s="5"/>
+      <c r="G382" s="5"/>
+      <c r="H382" s="5"/>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A383" s="5"/>
+      <c r="B383" s="5"/>
+      <c r="C383" s="5"/>
+      <c r="D383" s="5"/>
+      <c r="E383" s="5"/>
+      <c r="F383" s="5"/>
+      <c r="G383" s="5"/>
+      <c r="H383" s="5"/>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A384" s="5"/>
+      <c r="B384" s="5"/>
+      <c r="C384" s="5"/>
+      <c r="D384" s="5"/>
+      <c r="E384" s="5"/>
+      <c r="F384" s="5"/>
+      <c r="G384" s="5"/>
+      <c r="H384" s="5"/>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A385" s="5"/>
+      <c r="B385" s="5"/>
+      <c r="C385" s="5"/>
+      <c r="D385" s="5"/>
+      <c r="E385" s="5"/>
+      <c r="F385" s="5"/>
+      <c r="G385" s="5"/>
+      <c r="H385" s="5"/>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A386" s="5"/>
+      <c r="B386" s="5"/>
+      <c r="C386" s="5"/>
+      <c r="D386" s="5"/>
+      <c r="E386" s="5"/>
+      <c r="F386" s="5"/>
+      <c r="G386" s="5"/>
+      <c r="H386" s="5"/>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A387" s="5"/>
+      <c r="B387" s="5"/>
+      <c r="C387" s="5"/>
+      <c r="D387" s="5"/>
+      <c r="E387" s="5"/>
+      <c r="F387" s="5"/>
+      <c r="G387" s="5"/>
+      <c r="H387" s="5"/>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A388" s="5"/>
+      <c r="B388" s="5"/>
+      <c r="C388" s="5"/>
+      <c r="D388" s="5"/>
+      <c r="E388" s="5"/>
+      <c r="F388" s="5"/>
+      <c r="G388" s="5"/>
+      <c r="H388" s="5"/>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A389" s="5"/>
+      <c r="B389" s="5"/>
+      <c r="C389" s="5"/>
+      <c r="D389" s="5"/>
+      <c r="E389" s="5"/>
+      <c r="F389" s="5"/>
+      <c r="G389" s="5"/>
+      <c r="H389" s="5"/>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A390" s="5"/>
+      <c r="B390" s="5"/>
+      <c r="C390" s="5"/>
+      <c r="D390" s="5"/>
+      <c r="E390" s="5"/>
+      <c r="F390" s="5"/>
+      <c r="G390" s="5"/>
+      <c r="H390" s="5"/>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A391" s="5"/>
+      <c r="B391" s="5"/>
+      <c r="C391" s="5"/>
+      <c r="D391" s="5"/>
+      <c r="E391" s="5"/>
+      <c r="F391" s="5"/>
+      <c r="G391" s="5"/>
+      <c r="H391" s="5"/>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A392" s="5"/>
+      <c r="B392" s="5"/>
+      <c r="C392" s="5"/>
+      <c r="D392" s="5"/>
+      <c r="E392" s="5"/>
+      <c r="F392" s="5"/>
+      <c r="G392" s="5"/>
+      <c r="H392" s="5"/>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A393" s="5"/>
+      <c r="B393" s="5"/>
+      <c r="C393" s="5"/>
+      <c r="D393" s="5"/>
+      <c r="E393" s="5"/>
+      <c r="F393" s="5"/>
+      <c r="G393" s="5"/>
+      <c r="H393" s="5"/>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A394" s="5"/>
+      <c r="B394" s="5"/>
+      <c r="C394" s="5"/>
+      <c r="D394" s="5"/>
+      <c r="E394" s="5"/>
+      <c r="F394" s="5"/>
+      <c r="G394" s="5"/>
+      <c r="H394" s="5"/>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A395" s="5"/>
+      <c r="B395" s="5"/>
+      <c r="C395" s="5"/>
+      <c r="D395" s="5"/>
+      <c r="E395" s="5"/>
+      <c r="F395" s="5"/>
+      <c r="G395" s="5"/>
+      <c r="H395" s="5"/>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A396" s="5"/>
+      <c r="B396" s="5"/>
+      <c r="C396" s="5"/>
+      <c r="D396" s="5"/>
+      <c r="E396" s="5"/>
+      <c r="F396" s="5"/>
+      <c r="G396" s="5"/>
+      <c r="H396" s="5"/>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A397" s="5"/>
+      <c r="B397" s="5"/>
+      <c r="C397" s="5"/>
+      <c r="D397" s="5"/>
+      <c r="E397" s="5"/>
+      <c r="F397" s="5"/>
+      <c r="G397" s="5"/>
+      <c r="H397" s="5"/>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A398" s="5"/>
+      <c r="B398" s="5"/>
+      <c r="C398" s="5"/>
+      <c r="D398" s="5"/>
+      <c r="E398" s="5"/>
+      <c r="F398" s="5"/>
+      <c r="G398" s="5"/>
+      <c r="H398" s="5"/>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A399" s="5"/>
+      <c r="B399" s="5"/>
+      <c r="C399" s="5"/>
+      <c r="D399" s="5"/>
+      <c r="E399" s="5"/>
+      <c r="F399" s="5"/>
+      <c r="G399" s="5"/>
+      <c r="H399" s="5"/>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A400" s="5"/>
+      <c r="B400" s="5"/>
+      <c r="C400" s="5"/>
+      <c r="D400" s="5"/>
+      <c r="E400" s="5"/>
+      <c r="F400" s="5"/>
+      <c r="G400" s="5"/>
+      <c r="H400" s="5"/>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A401" s="5"/>
+      <c r="B401" s="5"/>
+      <c r="C401" s="5"/>
+      <c r="D401" s="5"/>
+      <c r="E401" s="5"/>
+      <c r="F401" s="5"/>
+      <c r="G401" s="5"/>
+      <c r="H401" s="5"/>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A402" s="5"/>
+      <c r="B402" s="5"/>
+      <c r="C402" s="5"/>
+      <c r="D402" s="5"/>
+      <c r="E402" s="5"/>
+      <c r="F402" s="5"/>
+      <c r="G402" s="5"/>
+      <c r="H402" s="5"/>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A403" s="5"/>
+      <c r="B403" s="5"/>
+      <c r="C403" s="5"/>
+      <c r="D403" s="5"/>
+      <c r="E403" s="5"/>
+      <c r="F403" s="5"/>
+      <c r="G403" s="5"/>
+      <c r="H403" s="5"/>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A404" s="5"/>
+      <c r="B404" s="5"/>
+      <c r="C404" s="5"/>
+      <c r="D404" s="5"/>
+      <c r="E404" s="5"/>
+      <c r="F404" s="5"/>
+      <c r="G404" s="5"/>
+      <c r="H404" s="5"/>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A405" s="5"/>
+      <c r="B405" s="5"/>
+      <c r="C405" s="5"/>
+      <c r="D405" s="5"/>
+      <c r="E405" s="5"/>
+      <c r="F405" s="5"/>
+      <c r="G405" s="5"/>
+      <c r="H405" s="5"/>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A406" s="5"/>
+      <c r="B406" s="5"/>
+      <c r="C406" s="5"/>
+      <c r="D406" s="5"/>
+      <c r="E406" s="5"/>
+      <c r="F406" s="5"/>
+      <c r="G406" s="5"/>
+      <c r="H406" s="5"/>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A407" s="5"/>
+      <c r="B407" s="5"/>
+      <c r="C407" s="5"/>
+      <c r="D407" s="5"/>
+      <c r="E407" s="5"/>
+      <c r="F407" s="5"/>
+      <c r="G407" s="5"/>
+      <c r="H407" s="5"/>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A408" s="5"/>
+      <c r="B408" s="5"/>
+      <c r="C408" s="5"/>
+      <c r="D408" s="5"/>
+      <c r="E408" s="5"/>
+      <c r="F408" s="5"/>
+      <c r="G408" s="5"/>
+      <c r="H408" s="5"/>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A409" s="5"/>
+      <c r="B409" s="5"/>
+      <c r="C409" s="5"/>
+      <c r="D409" s="5"/>
+      <c r="E409" s="5"/>
+      <c r="F409" s="5"/>
+      <c r="G409" s="5"/>
+      <c r="H409" s="5"/>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A410" s="5"/>
+      <c r="B410" s="5"/>
+      <c r="C410" s="5"/>
+      <c r="D410" s="5"/>
+      <c r="E410" s="5"/>
+      <c r="F410" s="5"/>
+      <c r="G410" s="5"/>
+      <c r="H410" s="5"/>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A411" s="5"/>
+      <c r="B411" s="5"/>
+      <c r="C411" s="5"/>
+      <c r="D411" s="5"/>
+      <c r="E411" s="5"/>
+      <c r="F411" s="5"/>
+      <c r="G411" s="5"/>
+      <c r="H411" s="5"/>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A412" s="5"/>
+      <c r="B412" s="5"/>
+      <c r="C412" s="5"/>
+      <c r="D412" s="5"/>
+      <c r="E412" s="5"/>
+      <c r="F412" s="5"/>
+      <c r="G412" s="5"/>
+      <c r="H412" s="5"/>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A413" s="5"/>
+      <c r="B413" s="5"/>
+      <c r="C413" s="5"/>
+      <c r="D413" s="5"/>
+      <c r="E413" s="5"/>
+      <c r="F413" s="5"/>
+      <c r="G413" s="5"/>
+      <c r="H413" s="5"/>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A414" s="5"/>
+      <c r="B414" s="5"/>
+      <c r="C414" s="5"/>
+      <c r="D414" s="5"/>
+      <c r="E414" s="5"/>
+      <c r="F414" s="5"/>
+      <c r="G414" s="5"/>
+      <c r="H414" s="5"/>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A415" s="5"/>
+      <c r="B415" s="5"/>
+      <c r="C415" s="5"/>
+      <c r="D415" s="5"/>
+      <c r="E415" s="5"/>
+      <c r="F415" s="5"/>
+      <c r="G415" s="5"/>
+      <c r="H415" s="5"/>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A416" s="5"/>
+      <c r="B416" s="5"/>
+      <c r="C416" s="5"/>
+      <c r="D416" s="5"/>
+      <c r="E416" s="5"/>
+      <c r="F416" s="5"/>
+      <c r="G416" s="5"/>
+      <c r="H416" s="5"/>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A417" s="5"/>
+      <c r="B417" s="5"/>
+      <c r="C417" s="5"/>
+      <c r="D417" s="5"/>
+      <c r="E417" s="5"/>
+      <c r="F417" s="5"/>
+      <c r="G417" s="5"/>
+      <c r="H417" s="5"/>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A418" s="5"/>
+      <c r="B418" s="5"/>
+      <c r="C418" s="5"/>
+      <c r="D418" s="5"/>
+      <c r="E418" s="5"/>
+      <c r="F418" s="5"/>
+      <c r="G418" s="5"/>
+      <c r="H418" s="5"/>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A419" s="5"/>
+      <c r="B419" s="5"/>
+      <c r="C419" s="5"/>
+      <c r="D419" s="5"/>
+      <c r="E419" s="5"/>
+      <c r="F419" s="5"/>
+      <c r="G419" s="5"/>
+      <c r="H419" s="5"/>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A420" s="5"/>
+      <c r="B420" s="5"/>
+      <c r="C420" s="5"/>
+      <c r="D420" s="5"/>
+      <c r="E420" s="5"/>
+      <c r="F420" s="5"/>
+      <c r="G420" s="5"/>
+      <c r="H420" s="5"/>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A421" s="5"/>
+      <c r="B421" s="5"/>
+      <c r="C421" s="5"/>
+      <c r="D421" s="5"/>
+      <c r="E421" s="5"/>
+      <c r="F421" s="5"/>
+      <c r="G421" s="5"/>
+      <c r="H421" s="5"/>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A422" s="5"/>
+      <c r="B422" s="5"/>
+      <c r="C422" s="5"/>
+      <c r="D422" s="5"/>
+      <c r="E422" s="5"/>
+      <c r="F422" s="5"/>
+      <c r="G422" s="5"/>
+      <c r="H422" s="5"/>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A423" s="5"/>
+      <c r="B423" s="5"/>
+      <c r="C423" s="5"/>
+      <c r="D423" s="5"/>
+      <c r="E423" s="5"/>
+      <c r="F423" s="5"/>
+      <c r="G423" s="5"/>
+      <c r="H423" s="5"/>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A424" s="5"/>
+      <c r="B424" s="5"/>
+      <c r="C424" s="5"/>
+      <c r="D424" s="5"/>
+      <c r="E424" s="5"/>
+      <c r="F424" s="5"/>
+      <c r="G424" s="5"/>
+      <c r="H424" s="5"/>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A425" s="5"/>
+      <c r="B425" s="5"/>
+      <c r="C425" s="5"/>
+      <c r="D425" s="5"/>
+      <c r="E425" s="5"/>
+      <c r="F425" s="5"/>
+      <c r="G425" s="5"/>
+      <c r="H425" s="5"/>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A426" s="5"/>
+      <c r="B426" s="5"/>
+      <c r="C426" s="5"/>
+      <c r="D426" s="5"/>
+      <c r="E426" s="5"/>
+      <c r="F426" s="5"/>
+      <c r="G426" s="5"/>
+      <c r="H426" s="5"/>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A427" s="5"/>
+      <c r="B427" s="5"/>
+      <c r="C427" s="5"/>
+      <c r="D427" s="5"/>
+      <c r="E427" s="5"/>
+      <c r="F427" s="5"/>
+      <c r="G427" s="5"/>
+      <c r="H427" s="5"/>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A428" s="5"/>
+      <c r="B428" s="5"/>
+      <c r="C428" s="5"/>
+      <c r="D428" s="5"/>
+      <c r="E428" s="5"/>
+      <c r="F428" s="5"/>
+      <c r="G428" s="5"/>
+      <c r="H428" s="5"/>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A429" s="5"/>
+      <c r="B429" s="5"/>
+      <c r="C429" s="5"/>
+      <c r="D429" s="5"/>
+      <c r="E429" s="5"/>
+      <c r="F429" s="5"/>
+      <c r="G429" s="5"/>
+      <c r="H429" s="5"/>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A430" s="5"/>
+      <c r="B430" s="5"/>
+      <c r="C430" s="5"/>
+      <c r="D430" s="5"/>
+      <c r="E430" s="5"/>
+      <c r="F430" s="5"/>
+      <c r="G430" s="5"/>
+      <c r="H430" s="5"/>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A431" s="5"/>
+      <c r="B431" s="5"/>
+      <c r="C431" s="5"/>
+      <c r="D431" s="5"/>
+      <c r="E431" s="5"/>
+      <c r="F431" s="5"/>
+      <c r="G431" s="5"/>
+      <c r="H431" s="5"/>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A432" s="5"/>
+      <c r="B432" s="5"/>
+      <c r="C432" s="5"/>
+      <c r="D432" s="5"/>
+      <c r="E432" s="5"/>
+      <c r="F432" s="5"/>
+      <c r="G432" s="5"/>
+      <c r="H432" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A26" r:id="rId1" xr:uid="{D8969698-29C1-B840-A626-5011ABBFAFDB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C061361-537C-1845-97CC-CD42E322FD94}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/planning.xlsx
+++ b/planning.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/Misc/Hiking/PCT-Washington-2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B01006A-B1F5-0A42-B56B-FC1165E4E650}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17D7033-0829-7F47-A335-66DAEA1FBB7A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16100" xr2:uid="{CF50ADE5-3FE7-1D4A-B7E6-9F2C5F6DE96F}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16100" activeTab="4" xr2:uid="{CF50ADE5-3FE7-1D4A-B7E6-9F2C5F6DE96F}"/>
   </bookViews>
   <sheets>
     <sheet name="Gear Checklist" sheetId="1" r:id="rId1"/>
     <sheet name="Food Ideas" sheetId="2" r:id="rId2"/>
     <sheet name="Permits" sheetId="3" r:id="rId3"/>
-    <sheet name="General Itinerary Planning" sheetId="4" r:id="rId4"/>
-    <sheet name="Random" sheetId="5" r:id="rId5"/>
+    <sheet name="Supply Boxes" sheetId="7" r:id="rId4"/>
+    <sheet name="Other" sheetId="6" r:id="rId5"/>
+    <sheet name="Sample Itinerary" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="139">
   <si>
     <t>Gear Checklist</t>
   </si>
@@ -421,29 +422,38 @@
     <t>Note: gives us an idea of what the trek could look like for the first week or two. But, beyond this, I think we should allow ourselves the freedom to do whatever we want on the fly</t>
   </si>
   <si>
-    <t>Also, we can detail supply boxes for key locations: Trout Lake, White Pass, Snoq. Pass, Steven's Pass, Stehekin</t>
-  </si>
-  <si>
     <t>https://www.halfwayanywhere.com/trails/pacific-crest-trail/pct-2017-survey-resupply-guide/</t>
   </si>
   <si>
-    <t>Hygene?</t>
-  </si>
-  <si>
-    <t>Where to get food?</t>
-  </si>
-  <si>
-    <t>How to get there?</t>
-  </si>
-  <si>
-    <t>Pooping squat form lol</t>
+    <t>Dehydrated Pasta</t>
+  </si>
+  <si>
+    <t>https://tinyurl.com/yadtra82</t>
+  </si>
+  <si>
+    <t>Navigation</t>
+  </si>
+  <si>
+    <t>Hygene</t>
+  </si>
+  <si>
+    <t>How/where to get food</t>
+  </si>
+  <si>
+    <t>Key locations: Trout Lake, White Pass, Snoq. Pass, Steven's Pass, Stehekin</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=c7BaaLjZP2k</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3oSXJJghlGk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -533,7 +543,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -566,9 +576,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -579,6 +586,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -927,12 +938,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97FA1BDE-B68C-E347-BE16-DAED235BDF32}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
+    <sheetView zoomScale="137" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
     <col min="2" max="2" width="29.83203125" bestFit="1" customWidth="1"/>
@@ -941,16 +952,16 @@
     <col min="5" max="5" width="60.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -967,7 +978,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -978,7 +989,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -989,7 +1000,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1002,7 +1013,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1013,7 +1024,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -1024,7 +1035,7 @@
       <c r="D7" s="6"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -1035,7 +1046,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -1046,7 +1057,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -1057,7 +1068,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -1074,7 +1085,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
@@ -1087,7 +1098,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
@@ -1102,7 +1113,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="32">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -1111,11 +1122,11 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
@@ -1132,7 +1143,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
@@ -1145,7 +1156,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
@@ -1156,7 +1167,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
@@ -1169,7 +1180,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
@@ -1180,7 +1191,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
@@ -1191,7 +1202,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
@@ -1204,7 +1215,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1215,14 +1226,14 @@
       <c r="D22" s="6"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="8" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
@@ -1237,7 +1248,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
@@ -1252,7 +1263,7 @@
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
@@ -1265,7 +1276,7 @@
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -1278,7 +1289,7 @@
       <c r="D27" s="6"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -1289,7 +1300,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -1304,7 +1315,7 @@
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
@@ -1319,7 +1330,7 @@
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
         <v>27</v>
       </c>
@@ -1332,7 +1343,7 @@
       </c>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
         <v>27</v>
       </c>
@@ -1349,7 +1360,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
         <v>27</v>
       </c>
@@ -1364,7 +1375,7 @@
       </c>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
         <v>27</v>
       </c>
@@ -1379,7 +1390,7 @@
       </c>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
         <v>27</v>
       </c>
@@ -1394,7 +1405,7 @@
       </c>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
         <v>27</v>
       </c>
@@ -1409,7 +1420,7 @@
       </c>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
         <v>27</v>
       </c>
@@ -1424,14 +1435,14 @@
       </c>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="8" customHeight="1">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
         <v>43</v>
       </c>
@@ -1448,7 +1459,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="48">
       <c r="A40" s="2" t="s">
         <v>43</v>
       </c>
@@ -1461,11 +1472,11 @@
       <c r="D40" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
         <v>43</v>
       </c>
@@ -1476,7 +1487,7 @@
       <c r="D41" s="6"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
         <v>43</v>
       </c>
@@ -1487,7 +1498,7 @@
       <c r="D42" s="6"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
@@ -1498,7 +1509,7 @@
       <c r="D43" s="6"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
@@ -1509,7 +1520,7 @@
       <c r="D44" s="6"/>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
@@ -1520,7 +1531,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" s="2" t="s">
         <v>43</v>
       </c>
@@ -1531,7 +1542,7 @@
       <c r="D46" s="6"/>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
         <v>43</v>
       </c>
@@ -1542,7 +1553,7 @@
       <c r="D47" s="6"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" s="3" t="s">
         <v>43</v>
       </c>
@@ -1553,7 +1564,7 @@
       <c r="D48" s="6"/>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" s="3" t="s">
         <v>43</v>
       </c>
@@ -1566,7 +1577,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50" s="3" t="s">
         <v>43</v>
       </c>
@@ -1577,7 +1588,7 @@
       <c r="D50" s="6"/>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51" s="3" t="s">
         <v>43</v>
       </c>
@@ -1590,7 +1601,7 @@
       <c r="D51" s="6"/>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52" s="3" t="s">
         <v>43</v>
       </c>
@@ -1601,7 +1612,7 @@
       <c r="D52" s="6"/>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53" s="3" t="s">
         <v>43</v>
       </c>
@@ -1612,7 +1623,7 @@
       <c r="D53" s="6"/>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54" s="3" t="s">
         <v>43</v>
       </c>
@@ -1623,7 +1634,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55" s="3" t="s">
         <v>43</v>
       </c>
@@ -1636,7 +1647,7 @@
       </c>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56" s="3" t="s">
         <v>43</v>
       </c>
@@ -1647,7 +1658,7 @@
       <c r="D56" s="6"/>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57" s="3" t="s">
         <v>43</v>
       </c>
@@ -1658,7 +1669,7 @@
       <c r="D57" s="6"/>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58" s="3" t="s">
         <v>43</v>
       </c>
@@ -1673,7 +1684,7 @@
       </c>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59" s="3" t="s">
         <v>43</v>
       </c>
@@ -1688,14 +1699,14 @@
       </c>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:5" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" ht="8" customHeight="1">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="4"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61" s="3" t="s">
         <v>67</v>
       </c>
@@ -1708,7 +1719,7 @@
       </c>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5">
       <c r="A62" s="3" t="s">
         <v>67</v>
       </c>
@@ -1719,14 +1730,14 @@
       <c r="D62" s="6"/>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="E63" s="5"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64" s="11" t="s">
         <v>88</v>
       </c>
@@ -1735,7 +1746,7 @@
       <c r="D64" s="8"/>
       <c r="E64" s="5"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65" s="5" t="s">
         <v>87</v>
       </c>
@@ -1744,181 +1755,181 @@
       <c r="D65" s="8"/>
       <c r="E65" s="5"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="E66" s="5"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
       <c r="E67" s="5"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
       <c r="E68" s="5"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
       <c r="E69" s="5"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
       <c r="E70" s="5"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="5"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
       <c r="E72" s="5"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
       <c r="E73" s="5"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
       <c r="E74" s="5"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
       <c r="E75" s="5"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5">
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5">
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5">
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5">
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5">
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:4">
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:4">
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:4">
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:4">
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:4">
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:4">
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:4">
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:4">
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:4">
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:4">
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:4">
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:4">
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:4">
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:4">
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:4">
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:4">
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:4">
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:4">
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:4">
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:4">
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:4">
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:4">
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
     </row>
@@ -1947,28 +1958,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BA642A-544A-F04B-B530-281FC0CCF741}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="16"/>
       <c r="D1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -1979,7 +1990,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>93</v>
       </c>
@@ -1990,7 +2001,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>95</v>
       </c>
@@ -2001,7 +2012,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>108</v>
       </c>
@@ -2012,7 +2023,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>110</v>
       </c>
@@ -2020,7 +2031,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>112</v>
       </c>
@@ -2028,7 +2039,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>114</v>
       </c>
@@ -2036,7 +2047,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>116</v>
       </c>
@@ -2044,19 +2055,19 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>121</v>
       </c>
@@ -2064,7 +2075,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>120</v>
       </c>
@@ -2072,26 +2083,49 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:4">
+      <c r="A14" s="15" t="s">
         <v>123</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>127</v>
       </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B16" r:id="rId1" xr:uid="{F65C4E4D-7DB0-524F-AEE9-C07713DD2E6F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -2105,7 +2139,7 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
@@ -2113,15 +2147,15 @@
     <col min="4" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="10" t="s">
         <v>76</v>
       </c>
@@ -2135,7 +2169,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>77</v>
       </c>
@@ -2147,7 +2181,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>78</v>
       </c>
@@ -2157,7 +2191,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>80</v>
       </c>
@@ -2176,15 +2210,69 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A96DF5E5-73F5-5344-833A-A3765C39EC12}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39BB26A1-FBA0-9741-B5B7-41236C284E72}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A06C46E-11BB-9E4B-A7EC-42E2AE6678A6}">
   <dimension ref="A1:H432"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -2193,45 +2281,45 @@
     <col min="8" max="8" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="32">
       <c r="A3" s="2" t="s">
         <v>100</v>
       </c>
@@ -2253,11 +2341,11 @@
       <c r="G3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2265,9 +2353,9 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="14"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2275,9 +2363,9 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="14"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2285,9 +2373,9 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="14"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2295,9 +2383,9 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="14"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2305,9 +2393,9 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="14"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2315,9 +2403,9 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="14"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2325,9 +2413,9 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="14"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2335,9 +2423,9 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2345,9 +2433,9 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="14"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2355,9 +2443,9 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="14"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2365,9 +2453,9 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="14"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2375,9 +2463,9 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="14"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2385,9 +2473,9 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="14"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2395,9 +2483,9 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="14"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2405,9 +2493,9 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="14"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2415,9 +2503,9 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="14"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2425,9 +2513,9 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="14"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2435,9 +2523,9 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="14"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2445,9 +2533,9 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="14"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2455,9 +2543,9 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="14"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="5" t="s">
         <v>129</v>
       </c>
@@ -2467,10 +2555,10 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="15"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="11" t="s">
         <v>130</v>
       </c>
       <c r="B25" s="5"/>
@@ -2479,21 +2567,18 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
-        <v>131</v>
-      </c>
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26" spans="1:8">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="15"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H26" s="14"/>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -2501,9 +2586,9 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="15"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -2511,9 +2596,9 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="15"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H28" s="14"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -2521,9 +2606,9 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="15"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -2531,9 +2616,9 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="15"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -2541,9 +2626,9 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="15"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H31" s="14"/>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -2551,9 +2636,9 @@
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="15"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H32" s="14"/>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -2561,9 +2646,9 @@
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="15"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H33" s="14"/>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -2571,9 +2656,9 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="15"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H34" s="14"/>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -2581,9 +2666,9 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
-      <c r="H35" s="15"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H35" s="14"/>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -2591,9 +2676,9 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
-      <c r="H36" s="15"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H36" s="14"/>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -2601,9 +2686,9 @@
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
-      <c r="H37" s="15"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H37" s="14"/>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -2611,9 +2696,9 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
-      <c r="H38" s="15"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H38" s="14"/>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -2621,9 +2706,9 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
-      <c r="H39" s="15"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H39" s="14"/>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -2631,9 +2716,9 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
-      <c r="H40" s="15"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H40" s="14"/>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -2641,9 +2726,9 @@
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
-      <c r="H41" s="15"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H41" s="14"/>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -2651,9 +2736,9 @@
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
-      <c r="H42" s="15"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H42" s="14"/>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -2661,9 +2746,9 @@
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
-      <c r="H43" s="15"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H43" s="14"/>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -2671,9 +2756,9 @@
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
-      <c r="H44" s="15"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H44" s="14"/>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -2681,9 +2766,9 @@
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
-      <c r="H45" s="15"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H45" s="14"/>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -2691,9 +2776,9 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
-      <c r="H46" s="15"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H46" s="14"/>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -2701,9 +2786,9 @@
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
-      <c r="H47" s="15"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H47" s="14"/>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -2711,9 +2796,9 @@
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
-      <c r="H48" s="15"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H48" s="14"/>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -2721,9 +2806,9 @@
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
-      <c r="H49" s="15"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H49" s="14"/>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -2731,9 +2816,9 @@
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
-      <c r="H50" s="15"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H50" s="14"/>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -2741,9 +2826,9 @@
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
-      <c r="H51" s="15"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H51" s="14"/>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -2751,9 +2836,9 @@
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
-      <c r="H52" s="15"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H52" s="14"/>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -2761,9 +2846,9 @@
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
-      <c r="H53" s="15"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H53" s="14"/>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -2771,9 +2856,9 @@
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
-      <c r="H54" s="15"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H54" s="14"/>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -2781,9 +2866,9 @@
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
-      <c r="H55" s="15"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H55" s="14"/>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -2791,9 +2876,9 @@
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
-      <c r="H56" s="15"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H56" s="14"/>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -2801,9 +2886,9 @@
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
-      <c r="H57" s="15"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H57" s="14"/>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -2811,9 +2896,9 @@
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
-      <c r="H58" s="15"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H58" s="14"/>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -2821,9 +2906,9 @@
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
-      <c r="H59" s="15"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H59" s="14"/>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -2831,9 +2916,9 @@
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
-      <c r="H60" s="15"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H60" s="14"/>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -2841,9 +2926,9 @@
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
-      <c r="H61" s="15"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H61" s="14"/>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -2851,9 +2936,9 @@
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
-      <c r="H62" s="15"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H62" s="14"/>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -2861,9 +2946,9 @@
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
-      <c r="H63" s="15"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H63" s="14"/>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -2871,9 +2956,9 @@
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
-      <c r="H64" s="15"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H64" s="14"/>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -2881,9 +2966,9 @@
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
-      <c r="H65" s="15"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H65" s="14"/>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -2891,9 +2976,9 @@
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
-      <c r="H66" s="15"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H66" s="14"/>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -2901,9 +2986,9 @@
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
-      <c r="H67" s="15"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H67" s="14"/>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -2911,9 +2996,9 @@
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
-      <c r="H68" s="15"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H68" s="14"/>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -2921,9 +3006,9 @@
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
-      <c r="H69" s="15"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H69" s="14"/>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -2931,9 +3016,9 @@
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
-      <c r="H70" s="15"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H70" s="14"/>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -2941,9 +3026,9 @@
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
-      <c r="H71" s="15"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H71" s="14"/>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -2951,9 +3036,9 @@
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
-      <c r="H72" s="15"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H72" s="14"/>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -2961,9 +3046,9 @@
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
-      <c r="H73" s="15"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H73" s="14"/>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -2971,9 +3056,9 @@
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
-      <c r="H74" s="15"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H74" s="14"/>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -2981,9 +3066,9 @@
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
-      <c r="H75" s="15"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H75" s="14"/>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -2991,9 +3076,9 @@
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
-      <c r="H76" s="15"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H76" s="14"/>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -3001,9 +3086,9 @@
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
-      <c r="H77" s="15"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H77" s="14"/>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -3011,9 +3096,9 @@
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
-      <c r="H78" s="15"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H78" s="14"/>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -3021,9 +3106,9 @@
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
-      <c r="H79" s="15"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H79" s="14"/>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -3031,9 +3116,9 @@
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
-      <c r="H80" s="15"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H80" s="14"/>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -3041,9 +3126,9 @@
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
-      <c r="H81" s="15"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H81" s="14"/>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -3051,9 +3136,9 @@
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
-      <c r="H82" s="15"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H82" s="14"/>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -3061,9 +3146,9 @@
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
-      <c r="H83" s="15"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H83" s="14"/>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -3071,9 +3156,9 @@
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
-      <c r="H84" s="15"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H84" s="14"/>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -3081,9 +3166,9 @@
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
-      <c r="H85" s="15"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H85" s="14"/>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -3091,9 +3176,9 @@
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
-      <c r="H86" s="15"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H86" s="14"/>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -3101,9 +3186,9 @@
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
-      <c r="H87" s="15"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H87" s="14"/>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -3111,9 +3196,9 @@
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
-      <c r="H88" s="15"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H88" s="14"/>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -3121,9 +3206,9 @@
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
-      <c r="H89" s="15"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H89" s="14"/>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -3131,9 +3216,9 @@
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
-      <c r="H90" s="15"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H90" s="14"/>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -3141,9 +3226,9 @@
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
-      <c r="H91" s="15"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H91" s="14"/>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -3151,9 +3236,9 @@
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
-      <c r="H92" s="15"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H92" s="14"/>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -3161,9 +3246,9 @@
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
-      <c r="H93" s="15"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H93" s="14"/>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -3171,9 +3256,9 @@
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
-      <c r="H94" s="15"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H94" s="14"/>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -3181,9 +3266,9 @@
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
-      <c r="H95" s="15"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H95" s="14"/>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -3191,9 +3276,9 @@
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
-      <c r="H96" s="15"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H96" s="14"/>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -3201,9 +3286,9 @@
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
-      <c r="H97" s="15"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H97" s="14"/>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -3211,9 +3296,9 @@
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
-      <c r="H98" s="15"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H98" s="14"/>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -3221,9 +3306,9 @@
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
-      <c r="H99" s="15"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H99" s="14"/>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -3231,9 +3316,9 @@
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
-      <c r="H100" s="15"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H100" s="14"/>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -3241,9 +3326,9 @@
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
-      <c r="H101" s="15"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H101" s="14"/>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -3251,9 +3336,9 @@
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
-      <c r="H102" s="15"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H102" s="14"/>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -3261,9 +3346,9 @@
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
-      <c r="H103" s="15"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H103" s="14"/>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -3271,9 +3356,9 @@
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
-      <c r="H104" s="15"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H104" s="14"/>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -3281,9 +3366,9 @@
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
-      <c r="H105" s="15"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H105" s="14"/>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -3291,9 +3376,9 @@
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
-      <c r="H106" s="15"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H106" s="14"/>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -3301,9 +3386,9 @@
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
-      <c r="H107" s="15"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H107" s="14"/>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -3311,9 +3396,9 @@
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
-      <c r="H108" s="15"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H108" s="14"/>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -3321,9 +3406,9 @@
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
-      <c r="H109" s="15"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H109" s="14"/>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -3331,9 +3416,9 @@
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
-      <c r="H110" s="15"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H110" s="14"/>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -3341,9 +3426,9 @@
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
-      <c r="H111" s="15"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H111" s="14"/>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -3351,9 +3436,9 @@
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
-      <c r="H112" s="15"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H112" s="14"/>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -3361,9 +3446,9 @@
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
-      <c r="H113" s="15"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H113" s="14"/>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -3371,9 +3456,9 @@
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
-      <c r="H114" s="15"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H114" s="14"/>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -3381,9 +3466,9 @@
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
-      <c r="H115" s="15"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H115" s="14"/>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -3391,9 +3476,9 @@
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
-      <c r="H116" s="15"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H116" s="14"/>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -3401,9 +3486,9 @@
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
-      <c r="H117" s="15"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H117" s="14"/>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -3411,9 +3496,9 @@
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
-      <c r="H118" s="15"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H118" s="14"/>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -3421,9 +3506,9 @@
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
-      <c r="H119" s="15"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H119" s="14"/>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -3431,9 +3516,9 @@
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
-      <c r="H120" s="15"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H120" s="14"/>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -3441,9 +3526,9 @@
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
-      <c r="H121" s="15"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H121" s="14"/>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -3451,9 +3536,9 @@
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
-      <c r="H122" s="15"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H122" s="14"/>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -3461,9 +3546,9 @@
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
-      <c r="H123" s="15"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H123" s="14"/>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -3471,9 +3556,9 @@
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
-      <c r="H124" s="15"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H124" s="14"/>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -3481,9 +3566,9 @@
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
-      <c r="H125" s="15"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H125" s="14"/>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -3491,9 +3576,9 @@
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
-      <c r="H126" s="15"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H126" s="14"/>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -3501,9 +3586,9 @@
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
-      <c r="H127" s="15"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H127" s="14"/>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -3511,9 +3596,9 @@
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
-      <c r="H128" s="15"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H128" s="14"/>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -3521,9 +3606,9 @@
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
-      <c r="H129" s="15"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H129" s="14"/>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -3531,9 +3616,9 @@
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
-      <c r="H130" s="15"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H130" s="14"/>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -3541,9 +3626,9 @@
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
       <c r="G131" s="5"/>
-      <c r="H131" s="15"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H131" s="14"/>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -3551,9 +3636,9 @@
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
       <c r="G132" s="5"/>
-      <c r="H132" s="15"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H132" s="14"/>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -3561,9 +3646,9 @@
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
       <c r="G133" s="5"/>
-      <c r="H133" s="15"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H133" s="14"/>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -3571,9 +3656,9 @@
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
       <c r="G134" s="5"/>
-      <c r="H134" s="15"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H134" s="14"/>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -3581,9 +3666,9 @@
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
       <c r="G135" s="5"/>
-      <c r="H135" s="15"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H135" s="14"/>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -3591,9 +3676,9 @@
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
       <c r="G136" s="5"/>
-      <c r="H136" s="15"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H136" s="14"/>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -3601,9 +3686,9 @@
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
       <c r="G137" s="5"/>
-      <c r="H137" s="15"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H137" s="14"/>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -3611,9 +3696,9 @@
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
       <c r="G138" s="5"/>
-      <c r="H138" s="15"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H138" s="14"/>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -3621,9 +3706,9 @@
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
       <c r="G139" s="5"/>
-      <c r="H139" s="15"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H139" s="14"/>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -3631,9 +3716,9 @@
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
       <c r="G140" s="5"/>
-      <c r="H140" s="15"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H140" s="14"/>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -3641,9 +3726,9 @@
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
-      <c r="H141" s="15"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H141" s="14"/>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -3651,9 +3736,9 @@
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
       <c r="G142" s="5"/>
-      <c r="H142" s="15"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H142" s="14"/>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -3661,9 +3746,9 @@
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
       <c r="G143" s="5"/>
-      <c r="H143" s="15"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H143" s="14"/>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -3671,9 +3756,9 @@
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
       <c r="G144" s="5"/>
-      <c r="H144" s="15"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H144" s="14"/>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -3681,9 +3766,9 @@
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
       <c r="G145" s="5"/>
-      <c r="H145" s="15"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H145" s="14"/>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -3691,9 +3776,9 @@
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
       <c r="G146" s="5"/>
-      <c r="H146" s="15"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H146" s="14"/>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -3701,9 +3786,9 @@
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
       <c r="G147" s="5"/>
-      <c r="H147" s="15"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H147" s="14"/>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -3711,9 +3796,9 @@
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
       <c r="G148" s="5"/>
-      <c r="H148" s="15"/>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H148" s="14"/>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -3721,9 +3806,9 @@
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
       <c r="G149" s="5"/>
-      <c r="H149" s="15"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H149" s="14"/>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -3731,9 +3816,9 @@
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
-      <c r="H150" s="15"/>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H150" s="14"/>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -3741,9 +3826,9 @@
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
       <c r="G151" s="5"/>
-      <c r="H151" s="15"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H151" s="14"/>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -3751,9 +3836,9 @@
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
-      <c r="H152" s="15"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H152" s="14"/>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -3761,9 +3846,9 @@
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
-      <c r="H153" s="15"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H153" s="14"/>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -3771,9 +3856,9 @@
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
       <c r="G154" s="5"/>
-      <c r="H154" s="15"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H154" s="14"/>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -3781,9 +3866,9 @@
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
       <c r="G155" s="5"/>
-      <c r="H155" s="15"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H155" s="14"/>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -3791,9 +3876,9 @@
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
       <c r="G156" s="5"/>
-      <c r="H156" s="15"/>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H156" s="14"/>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -3801,9 +3886,9 @@
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
       <c r="G157" s="5"/>
-      <c r="H157" s="15"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H157" s="14"/>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -3811,9 +3896,9 @@
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
-      <c r="H158" s="15"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H158" s="14"/>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -3821,9 +3906,9 @@
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
-      <c r="H159" s="15"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H159" s="14"/>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -3831,9 +3916,9 @@
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
-      <c r="H160" s="15"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H160" s="14"/>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -3841,9 +3926,9 @@
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
-      <c r="H161" s="15"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H161" s="14"/>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -3851,9 +3936,9 @@
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
-      <c r="H162" s="15"/>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H162" s="14"/>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -3861,9 +3946,9 @@
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
-      <c r="H163" s="15"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H163" s="14"/>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -3871,9 +3956,9 @@
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
-      <c r="H164" s="15"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H164" s="14"/>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -3881,9 +3966,9 @@
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
-      <c r="H165" s="15"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H165" s="14"/>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -3891,9 +3976,9 @@
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
       <c r="G166" s="5"/>
-      <c r="H166" s="15"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H166" s="14"/>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -3901,9 +3986,9 @@
       <c r="E167" s="5"/>
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
-      <c r="H167" s="15"/>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H167" s="14"/>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -3911,9 +3996,9 @@
       <c r="E168" s="5"/>
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
-      <c r="H168" s="15"/>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H168" s="14"/>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -3921,9 +4006,9 @@
       <c r="E169" s="5"/>
       <c r="F169" s="5"/>
       <c r="G169" s="5"/>
-      <c r="H169" s="15"/>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H169" s="14"/>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -3931,9 +4016,9 @@
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
       <c r="G170" s="5"/>
-      <c r="H170" s="15"/>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H170" s="14"/>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -3941,9 +4026,9 @@
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
-      <c r="H171" s="15"/>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H171" s="14"/>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -3951,9 +4036,9 @@
       <c r="E172" s="5"/>
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
-      <c r="H172" s="15"/>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H172" s="14"/>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -3961,9 +4046,9 @@
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
       <c r="G173" s="5"/>
-      <c r="H173" s="15"/>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H173" s="14"/>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -3971,9 +4056,9 @@
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
       <c r="G174" s="5"/>
-      <c r="H174" s="15"/>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H174" s="14"/>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -3981,9 +4066,9 @@
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
-      <c r="H175" s="15"/>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H175" s="14"/>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -3991,9 +4076,9 @@
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
       <c r="G176" s="5"/>
-      <c r="H176" s="15"/>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H176" s="14"/>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -4001,9 +4086,9 @@
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
       <c r="G177" s="5"/>
-      <c r="H177" s="15"/>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H177" s="14"/>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -4011,9 +4096,9 @@
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
       <c r="G178" s="5"/>
-      <c r="H178" s="15"/>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H178" s="14"/>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -4021,9 +4106,9 @@
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
       <c r="G179" s="5"/>
-      <c r="H179" s="15"/>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H179" s="14"/>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -4031,9 +4116,9 @@
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
       <c r="G180" s="5"/>
-      <c r="H180" s="15"/>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H180" s="14"/>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -4041,9 +4126,9 @@
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
       <c r="G181" s="5"/>
-      <c r="H181" s="15"/>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H181" s="14"/>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -4051,9 +4136,9 @@
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
       <c r="G182" s="5"/>
-      <c r="H182" s="15"/>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H182" s="14"/>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -4061,9 +4146,9 @@
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
       <c r="G183" s="5"/>
-      <c r="H183" s="15"/>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H183" s="14"/>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -4071,9 +4156,9 @@
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
       <c r="G184" s="5"/>
-      <c r="H184" s="15"/>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H184" s="14"/>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -4081,9 +4166,9 @@
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
       <c r="G185" s="5"/>
-      <c r="H185" s="15"/>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H185" s="14"/>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -4091,9 +4176,9 @@
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
       <c r="G186" s="5"/>
-      <c r="H186" s="15"/>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H186" s="14"/>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -4101,9 +4186,9 @@
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
       <c r="G187" s="5"/>
-      <c r="H187" s="15"/>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H187" s="14"/>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -4111,9 +4196,9 @@
       <c r="E188" s="5"/>
       <c r="F188" s="5"/>
       <c r="G188" s="5"/>
-      <c r="H188" s="15"/>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H188" s="14"/>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -4121,9 +4206,9 @@
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
       <c r="G189" s="5"/>
-      <c r="H189" s="15"/>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H189" s="14"/>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -4131,9 +4216,9 @@
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
       <c r="G190" s="5"/>
-      <c r="H190" s="15"/>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H190" s="14"/>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -4141,9 +4226,9 @@
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
       <c r="G191" s="5"/>
-      <c r="H191" s="15"/>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H191" s="14"/>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -4151,9 +4236,9 @@
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
       <c r="G192" s="5"/>
-      <c r="H192" s="15"/>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H192" s="14"/>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -4161,9 +4246,9 @@
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
       <c r="G193" s="5"/>
-      <c r="H193" s="15"/>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H193" s="14"/>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -4171,9 +4256,9 @@
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
       <c r="G194" s="5"/>
-      <c r="H194" s="15"/>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H194" s="14"/>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -4181,9 +4266,9 @@
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
       <c r="G195" s="5"/>
-      <c r="H195" s="15"/>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H195" s="14"/>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -4191,9 +4276,9 @@
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
       <c r="G196" s="5"/>
-      <c r="H196" s="15"/>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H196" s="14"/>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -4201,9 +4286,9 @@
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
       <c r="G197" s="5"/>
-      <c r="H197" s="15"/>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H197" s="14"/>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -4211,9 +4296,9 @@
       <c r="E198" s="5"/>
       <c r="F198" s="5"/>
       <c r="G198" s="5"/>
-      <c r="H198" s="15"/>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H198" s="14"/>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -4221,9 +4306,9 @@
       <c r="E199" s="5"/>
       <c r="F199" s="5"/>
       <c r="G199" s="5"/>
-      <c r="H199" s="15"/>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H199" s="14"/>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -4231,9 +4316,9 @@
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
       <c r="G200" s="5"/>
-      <c r="H200" s="15"/>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H200" s="14"/>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -4241,9 +4326,9 @@
       <c r="E201" s="5"/>
       <c r="F201" s="5"/>
       <c r="G201" s="5"/>
-      <c r="H201" s="15"/>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H201" s="14"/>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -4251,9 +4336,9 @@
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
       <c r="G202" s="5"/>
-      <c r="H202" s="15"/>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H202" s="14"/>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -4261,9 +4346,9 @@
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
       <c r="G203" s="5"/>
-      <c r="H203" s="15"/>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H203" s="14"/>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -4271,9 +4356,9 @@
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
-      <c r="H204" s="15"/>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H204" s="14"/>
+    </row>
+    <row r="205" spans="1:8">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -4281,9 +4366,9 @@
       <c r="E205" s="5"/>
       <c r="F205" s="5"/>
       <c r="G205" s="5"/>
-      <c r="H205" s="15"/>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H205" s="14"/>
+    </row>
+    <row r="206" spans="1:8">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -4291,9 +4376,9 @@
       <c r="E206" s="5"/>
       <c r="F206" s="5"/>
       <c r="G206" s="5"/>
-      <c r="H206" s="15"/>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H206" s="14"/>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -4301,9 +4386,9 @@
       <c r="E207" s="5"/>
       <c r="F207" s="5"/>
       <c r="G207" s="5"/>
-      <c r="H207" s="15"/>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H207" s="14"/>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -4311,9 +4396,9 @@
       <c r="E208" s="5"/>
       <c r="F208" s="5"/>
       <c r="G208" s="5"/>
-      <c r="H208" s="15"/>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H208" s="14"/>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -4321,9 +4406,9 @@
       <c r="E209" s="5"/>
       <c r="F209" s="5"/>
       <c r="G209" s="5"/>
-      <c r="H209" s="15"/>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H209" s="14"/>
+    </row>
+    <row r="210" spans="1:8">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -4331,9 +4416,9 @@
       <c r="E210" s="5"/>
       <c r="F210" s="5"/>
       <c r="G210" s="5"/>
-      <c r="H210" s="15"/>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H210" s="14"/>
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -4341,9 +4426,9 @@
       <c r="E211" s="5"/>
       <c r="F211" s="5"/>
       <c r="G211" s="5"/>
-      <c r="H211" s="15"/>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H211" s="14"/>
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -4351,9 +4436,9 @@
       <c r="E212" s="5"/>
       <c r="F212" s="5"/>
       <c r="G212" s="5"/>
-      <c r="H212" s="15"/>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H212" s="14"/>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -4361,9 +4446,9 @@
       <c r="E213" s="5"/>
       <c r="F213" s="5"/>
       <c r="G213" s="5"/>
-      <c r="H213" s="15"/>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H213" s="14"/>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -4371,9 +4456,9 @@
       <c r="E214" s="5"/>
       <c r="F214" s="5"/>
       <c r="G214" s="5"/>
-      <c r="H214" s="15"/>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H214" s="14"/>
+    </row>
+    <row r="215" spans="1:8">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -4381,9 +4466,9 @@
       <c r="E215" s="5"/>
       <c r="F215" s="5"/>
       <c r="G215" s="5"/>
-      <c r="H215" s="15"/>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H215" s="14"/>
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -4391,9 +4476,9 @@
       <c r="E216" s="5"/>
       <c r="F216" s="5"/>
       <c r="G216" s="5"/>
-      <c r="H216" s="15"/>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H216" s="14"/>
+    </row>
+    <row r="217" spans="1:8">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -4401,9 +4486,9 @@
       <c r="E217" s="5"/>
       <c r="F217" s="5"/>
       <c r="G217" s="5"/>
-      <c r="H217" s="15"/>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H217" s="14"/>
+    </row>
+    <row r="218" spans="1:8">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -4411,9 +4496,9 @@
       <c r="E218" s="5"/>
       <c r="F218" s="5"/>
       <c r="G218" s="5"/>
-      <c r="H218" s="15"/>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H218" s="14"/>
+    </row>
+    <row r="219" spans="1:8">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -4421,9 +4506,9 @@
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
       <c r="G219" s="5"/>
-      <c r="H219" s="15"/>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H219" s="14"/>
+    </row>
+    <row r="220" spans="1:8">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -4431,9 +4516,9 @@
       <c r="E220" s="5"/>
       <c r="F220" s="5"/>
       <c r="G220" s="5"/>
-      <c r="H220" s="15"/>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H220" s="14"/>
+    </row>
+    <row r="221" spans="1:8">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -4441,9 +4526,9 @@
       <c r="E221" s="5"/>
       <c r="F221" s="5"/>
       <c r="G221" s="5"/>
-      <c r="H221" s="15"/>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H221" s="14"/>
+    </row>
+    <row r="222" spans="1:8">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -4451,9 +4536,9 @@
       <c r="E222" s="5"/>
       <c r="F222" s="5"/>
       <c r="G222" s="5"/>
-      <c r="H222" s="15"/>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H222" s="14"/>
+    </row>
+    <row r="223" spans="1:8">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -4461,9 +4546,9 @@
       <c r="E223" s="5"/>
       <c r="F223" s="5"/>
       <c r="G223" s="5"/>
-      <c r="H223" s="15"/>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H223" s="14"/>
+    </row>
+    <row r="224" spans="1:8">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -4471,9 +4556,9 @@
       <c r="E224" s="5"/>
       <c r="F224" s="5"/>
       <c r="G224" s="5"/>
-      <c r="H224" s="15"/>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H224" s="14"/>
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -4481,9 +4566,9 @@
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
       <c r="G225" s="5"/>
-      <c r="H225" s="15"/>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H225" s="14"/>
+    </row>
+    <row r="226" spans="1:8">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -4491,9 +4576,9 @@
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
       <c r="G226" s="5"/>
-      <c r="H226" s="15"/>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H226" s="14"/>
+    </row>
+    <row r="227" spans="1:8">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -4501,9 +4586,9 @@
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
       <c r="G227" s="5"/>
-      <c r="H227" s="15"/>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H227" s="14"/>
+    </row>
+    <row r="228" spans="1:8">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -4511,9 +4596,9 @@
       <c r="E228" s="5"/>
       <c r="F228" s="5"/>
       <c r="G228" s="5"/>
-      <c r="H228" s="15"/>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H228" s="14"/>
+    </row>
+    <row r="229" spans="1:8">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -4521,9 +4606,9 @@
       <c r="E229" s="5"/>
       <c r="F229" s="5"/>
       <c r="G229" s="5"/>
-      <c r="H229" s="15"/>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H229" s="14"/>
+    </row>
+    <row r="230" spans="1:8">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -4531,9 +4616,9 @@
       <c r="E230" s="5"/>
       <c r="F230" s="5"/>
       <c r="G230" s="5"/>
-      <c r="H230" s="15"/>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H230" s="14"/>
+    </row>
+    <row r="231" spans="1:8">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -4541,9 +4626,9 @@
       <c r="E231" s="5"/>
       <c r="F231" s="5"/>
       <c r="G231" s="5"/>
-      <c r="H231" s="15"/>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H231" s="14"/>
+    </row>
+    <row r="232" spans="1:8">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -4551,9 +4636,9 @@
       <c r="E232" s="5"/>
       <c r="F232" s="5"/>
       <c r="G232" s="5"/>
-      <c r="H232" s="15"/>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H232" s="14"/>
+    </row>
+    <row r="233" spans="1:8">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -4561,9 +4646,9 @@
       <c r="E233" s="5"/>
       <c r="F233" s="5"/>
       <c r="G233" s="5"/>
-      <c r="H233" s="15"/>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H233" s="14"/>
+    </row>
+    <row r="234" spans="1:8">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -4571,9 +4656,9 @@
       <c r="E234" s="5"/>
       <c r="F234" s="5"/>
       <c r="G234" s="5"/>
-      <c r="H234" s="15"/>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H234" s="14"/>
+    </row>
+    <row r="235" spans="1:8">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -4581,9 +4666,9 @@
       <c r="E235" s="5"/>
       <c r="F235" s="5"/>
       <c r="G235" s="5"/>
-      <c r="H235" s="15"/>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H235" s="14"/>
+    </row>
+    <row r="236" spans="1:8">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -4591,9 +4676,9 @@
       <c r="E236" s="5"/>
       <c r="F236" s="5"/>
       <c r="G236" s="5"/>
-      <c r="H236" s="15"/>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H236" s="14"/>
+    </row>
+    <row r="237" spans="1:8">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -4601,9 +4686,9 @@
       <c r="E237" s="5"/>
       <c r="F237" s="5"/>
       <c r="G237" s="5"/>
-      <c r="H237" s="15"/>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H237" s="14"/>
+    </row>
+    <row r="238" spans="1:8">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -4611,9 +4696,9 @@
       <c r="E238" s="5"/>
       <c r="F238" s="5"/>
       <c r="G238" s="5"/>
-      <c r="H238" s="15"/>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H238" s="14"/>
+    </row>
+    <row r="239" spans="1:8">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -4621,9 +4706,9 @@
       <c r="E239" s="5"/>
       <c r="F239" s="5"/>
       <c r="G239" s="5"/>
-      <c r="H239" s="15"/>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H239" s="14"/>
+    </row>
+    <row r="240" spans="1:8">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -4631,9 +4716,9 @@
       <c r="E240" s="5"/>
       <c r="F240" s="5"/>
       <c r="G240" s="5"/>
-      <c r="H240" s="15"/>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H240" s="14"/>
+    </row>
+    <row r="241" spans="1:8">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -4641,9 +4726,9 @@
       <c r="E241" s="5"/>
       <c r="F241" s="5"/>
       <c r="G241" s="5"/>
-      <c r="H241" s="15"/>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H241" s="14"/>
+    </row>
+    <row r="242" spans="1:8">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -4651,9 +4736,9 @@
       <c r="E242" s="5"/>
       <c r="F242" s="5"/>
       <c r="G242" s="5"/>
-      <c r="H242" s="15"/>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H242" s="14"/>
+    </row>
+    <row r="243" spans="1:8">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -4661,9 +4746,9 @@
       <c r="E243" s="5"/>
       <c r="F243" s="5"/>
       <c r="G243" s="5"/>
-      <c r="H243" s="15"/>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H243" s="14"/>
+    </row>
+    <row r="244" spans="1:8">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -4671,9 +4756,9 @@
       <c r="E244" s="5"/>
       <c r="F244" s="5"/>
       <c r="G244" s="5"/>
-      <c r="H244" s="15"/>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H244" s="14"/>
+    </row>
+    <row r="245" spans="1:8">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -4681,9 +4766,9 @@
       <c r="E245" s="5"/>
       <c r="F245" s="5"/>
       <c r="G245" s="5"/>
-      <c r="H245" s="15"/>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H245" s="14"/>
+    </row>
+    <row r="246" spans="1:8">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -4691,9 +4776,9 @@
       <c r="E246" s="5"/>
       <c r="F246" s="5"/>
       <c r="G246" s="5"/>
-      <c r="H246" s="15"/>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H246" s="14"/>
+    </row>
+    <row r="247" spans="1:8">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -4701,9 +4786,9 @@
       <c r="E247" s="5"/>
       <c r="F247" s="5"/>
       <c r="G247" s="5"/>
-      <c r="H247" s="15"/>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H247" s="14"/>
+    </row>
+    <row r="248" spans="1:8">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
@@ -4711,9 +4796,9 @@
       <c r="E248" s="5"/>
       <c r="F248" s="5"/>
       <c r="G248" s="5"/>
-      <c r="H248" s="15"/>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H248" s="14"/>
+    </row>
+    <row r="249" spans="1:8">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
@@ -4721,9 +4806,9 @@
       <c r="E249" s="5"/>
       <c r="F249" s="5"/>
       <c r="G249" s="5"/>
-      <c r="H249" s="15"/>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H249" s="14"/>
+    </row>
+    <row r="250" spans="1:8">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
@@ -4731,9 +4816,9 @@
       <c r="E250" s="5"/>
       <c r="F250" s="5"/>
       <c r="G250" s="5"/>
-      <c r="H250" s="15"/>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H250" s="14"/>
+    </row>
+    <row r="251" spans="1:8">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
@@ -4741,9 +4826,9 @@
       <c r="E251" s="5"/>
       <c r="F251" s="5"/>
       <c r="G251" s="5"/>
-      <c r="H251" s="15"/>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H251" s="14"/>
+    </row>
+    <row r="252" spans="1:8">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
@@ -4751,9 +4836,9 @@
       <c r="E252" s="5"/>
       <c r="F252" s="5"/>
       <c r="G252" s="5"/>
-      <c r="H252" s="15"/>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H252" s="14"/>
+    </row>
+    <row r="253" spans="1:8">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
@@ -4761,9 +4846,9 @@
       <c r="E253" s="5"/>
       <c r="F253" s="5"/>
       <c r="G253" s="5"/>
-      <c r="H253" s="15"/>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H253" s="14"/>
+    </row>
+    <row r="254" spans="1:8">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
@@ -4771,9 +4856,9 @@
       <c r="E254" s="5"/>
       <c r="F254" s="5"/>
       <c r="G254" s="5"/>
-      <c r="H254" s="15"/>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H254" s="14"/>
+    </row>
+    <row r="255" spans="1:8">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
@@ -4781,9 +4866,9 @@
       <c r="E255" s="5"/>
       <c r="F255" s="5"/>
       <c r="G255" s="5"/>
-      <c r="H255" s="15"/>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H255" s="14"/>
+    </row>
+    <row r="256" spans="1:8">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
@@ -4791,9 +4876,9 @@
       <c r="E256" s="5"/>
       <c r="F256" s="5"/>
       <c r="G256" s="5"/>
-      <c r="H256" s="15"/>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H256" s="14"/>
+    </row>
+    <row r="257" spans="1:8">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
@@ -4801,9 +4886,9 @@
       <c r="E257" s="5"/>
       <c r="F257" s="5"/>
       <c r="G257" s="5"/>
-      <c r="H257" s="15"/>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H257" s="14"/>
+    </row>
+    <row r="258" spans="1:8">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
@@ -4811,9 +4896,9 @@
       <c r="E258" s="5"/>
       <c r="F258" s="5"/>
       <c r="G258" s="5"/>
-      <c r="H258" s="15"/>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H258" s="14"/>
+    </row>
+    <row r="259" spans="1:8">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
@@ -4821,9 +4906,9 @@
       <c r="E259" s="5"/>
       <c r="F259" s="5"/>
       <c r="G259" s="5"/>
-      <c r="H259" s="15"/>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H259" s="14"/>
+    </row>
+    <row r="260" spans="1:8">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
@@ -4831,9 +4916,9 @@
       <c r="E260" s="5"/>
       <c r="F260" s="5"/>
       <c r="G260" s="5"/>
-      <c r="H260" s="15"/>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H260" s="14"/>
+    </row>
+    <row r="261" spans="1:8">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -4841,9 +4926,9 @@
       <c r="E261" s="5"/>
       <c r="F261" s="5"/>
       <c r="G261" s="5"/>
-      <c r="H261" s="15"/>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H261" s="14"/>
+    </row>
+    <row r="262" spans="1:8">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
@@ -4851,9 +4936,9 @@
       <c r="E262" s="5"/>
       <c r="F262" s="5"/>
       <c r="G262" s="5"/>
-      <c r="H262" s="15"/>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H262" s="14"/>
+    </row>
+    <row r="263" spans="1:8">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
@@ -4861,9 +4946,9 @@
       <c r="E263" s="5"/>
       <c r="F263" s="5"/>
       <c r="G263" s="5"/>
-      <c r="H263" s="15"/>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H263" s="14"/>
+    </row>
+    <row r="264" spans="1:8">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
@@ -4871,9 +4956,9 @@
       <c r="E264" s="5"/>
       <c r="F264" s="5"/>
       <c r="G264" s="5"/>
-      <c r="H264" s="15"/>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H264" s="14"/>
+    </row>
+    <row r="265" spans="1:8">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
@@ -4881,9 +4966,9 @@
       <c r="E265" s="5"/>
       <c r="F265" s="5"/>
       <c r="G265" s="5"/>
-      <c r="H265" s="15"/>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H265" s="14"/>
+    </row>
+    <row r="266" spans="1:8">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
@@ -4891,9 +4976,9 @@
       <c r="E266" s="5"/>
       <c r="F266" s="5"/>
       <c r="G266" s="5"/>
-      <c r="H266" s="15"/>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H266" s="14"/>
+    </row>
+    <row r="267" spans="1:8">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
@@ -4901,9 +4986,9 @@
       <c r="E267" s="5"/>
       <c r="F267" s="5"/>
       <c r="G267" s="5"/>
-      <c r="H267" s="15"/>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H267" s="14"/>
+    </row>
+    <row r="268" spans="1:8">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
@@ -4911,9 +4996,9 @@
       <c r="E268" s="5"/>
       <c r="F268" s="5"/>
       <c r="G268" s="5"/>
-      <c r="H268" s="15"/>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H268" s="14"/>
+    </row>
+    <row r="269" spans="1:8">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
@@ -4921,9 +5006,9 @@
       <c r="E269" s="5"/>
       <c r="F269" s="5"/>
       <c r="G269" s="5"/>
-      <c r="H269" s="15"/>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H269" s="14"/>
+    </row>
+    <row r="270" spans="1:8">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
@@ -4931,9 +5016,9 @@
       <c r="E270" s="5"/>
       <c r="F270" s="5"/>
       <c r="G270" s="5"/>
-      <c r="H270" s="15"/>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H270" s="14"/>
+    </row>
+    <row r="271" spans="1:8">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
@@ -4941,9 +5026,9 @@
       <c r="E271" s="5"/>
       <c r="F271" s="5"/>
       <c r="G271" s="5"/>
-      <c r="H271" s="15"/>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H271" s="14"/>
+    </row>
+    <row r="272" spans="1:8">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
@@ -4951,9 +5036,9 @@
       <c r="E272" s="5"/>
       <c r="F272" s="5"/>
       <c r="G272" s="5"/>
-      <c r="H272" s="15"/>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H272" s="14"/>
+    </row>
+    <row r="273" spans="1:8">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
@@ -4961,9 +5046,9 @@
       <c r="E273" s="5"/>
       <c r="F273" s="5"/>
       <c r="G273" s="5"/>
-      <c r="H273" s="15"/>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H273" s="14"/>
+    </row>
+    <row r="274" spans="1:8">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
@@ -4971,9 +5056,9 @@
       <c r="E274" s="5"/>
       <c r="F274" s="5"/>
       <c r="G274" s="5"/>
-      <c r="H274" s="15"/>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H274" s="14"/>
+    </row>
+    <row r="275" spans="1:8">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
@@ -4981,9 +5066,9 @@
       <c r="E275" s="5"/>
       <c r="F275" s="5"/>
       <c r="G275" s="5"/>
-      <c r="H275" s="15"/>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H275" s="14"/>
+    </row>
+    <row r="276" spans="1:8">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
@@ -4991,9 +5076,9 @@
       <c r="E276" s="5"/>
       <c r="F276" s="5"/>
       <c r="G276" s="5"/>
-      <c r="H276" s="15"/>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H276" s="14"/>
+    </row>
+    <row r="277" spans="1:8">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
@@ -5001,9 +5086,9 @@
       <c r="E277" s="5"/>
       <c r="F277" s="5"/>
       <c r="G277" s="5"/>
-      <c r="H277" s="15"/>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H277" s="14"/>
+    </row>
+    <row r="278" spans="1:8">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
@@ -5011,9 +5096,9 @@
       <c r="E278" s="5"/>
       <c r="F278" s="5"/>
       <c r="G278" s="5"/>
-      <c r="H278" s="15"/>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H278" s="14"/>
+    </row>
+    <row r="279" spans="1:8">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
@@ -5021,9 +5106,9 @@
       <c r="E279" s="5"/>
       <c r="F279" s="5"/>
       <c r="G279" s="5"/>
-      <c r="H279" s="15"/>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H279" s="14"/>
+    </row>
+    <row r="280" spans="1:8">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
@@ -5031,9 +5116,9 @@
       <c r="E280" s="5"/>
       <c r="F280" s="5"/>
       <c r="G280" s="5"/>
-      <c r="H280" s="15"/>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H280" s="14"/>
+    </row>
+    <row r="281" spans="1:8">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
@@ -5041,9 +5126,9 @@
       <c r="E281" s="5"/>
       <c r="F281" s="5"/>
       <c r="G281" s="5"/>
-      <c r="H281" s="15"/>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H281" s="14"/>
+    </row>
+    <row r="282" spans="1:8">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
@@ -5051,9 +5136,9 @@
       <c r="E282" s="5"/>
       <c r="F282" s="5"/>
       <c r="G282" s="5"/>
-      <c r="H282" s="15"/>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H282" s="14"/>
+    </row>
+    <row r="283" spans="1:8">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
@@ -5061,9 +5146,9 @@
       <c r="E283" s="5"/>
       <c r="F283" s="5"/>
       <c r="G283" s="5"/>
-      <c r="H283" s="15"/>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H283" s="14"/>
+    </row>
+    <row r="284" spans="1:8">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
@@ -5071,9 +5156,9 @@
       <c r="E284" s="5"/>
       <c r="F284" s="5"/>
       <c r="G284" s="5"/>
-      <c r="H284" s="15"/>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H284" s="14"/>
+    </row>
+    <row r="285" spans="1:8">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
@@ -5081,9 +5166,9 @@
       <c r="E285" s="5"/>
       <c r="F285" s="5"/>
       <c r="G285" s="5"/>
-      <c r="H285" s="15"/>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H285" s="14"/>
+    </row>
+    <row r="286" spans="1:8">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
@@ -5091,9 +5176,9 @@
       <c r="E286" s="5"/>
       <c r="F286" s="5"/>
       <c r="G286" s="5"/>
-      <c r="H286" s="15"/>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H286" s="14"/>
+    </row>
+    <row r="287" spans="1:8">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
@@ -5101,9 +5186,9 @@
       <c r="E287" s="5"/>
       <c r="F287" s="5"/>
       <c r="G287" s="5"/>
-      <c r="H287" s="15"/>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H287" s="14"/>
+    </row>
+    <row r="288" spans="1:8">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
@@ -5111,9 +5196,9 @@
       <c r="E288" s="5"/>
       <c r="F288" s="5"/>
       <c r="G288" s="5"/>
-      <c r="H288" s="15"/>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H288" s="14"/>
+    </row>
+    <row r="289" spans="1:8">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
@@ -5121,9 +5206,9 @@
       <c r="E289" s="5"/>
       <c r="F289" s="5"/>
       <c r="G289" s="5"/>
-      <c r="H289" s="15"/>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H289" s="14"/>
+    </row>
+    <row r="290" spans="1:8">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
@@ -5131,9 +5216,9 @@
       <c r="E290" s="5"/>
       <c r="F290" s="5"/>
       <c r="G290" s="5"/>
-      <c r="H290" s="15"/>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H290" s="14"/>
+    </row>
+    <row r="291" spans="1:8">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
@@ -5141,9 +5226,9 @@
       <c r="E291" s="5"/>
       <c r="F291" s="5"/>
       <c r="G291" s="5"/>
-      <c r="H291" s="15"/>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H291" s="14"/>
+    </row>
+    <row r="292" spans="1:8">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
@@ -5151,9 +5236,9 @@
       <c r="E292" s="5"/>
       <c r="F292" s="5"/>
       <c r="G292" s="5"/>
-      <c r="H292" s="15"/>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H292" s="14"/>
+    </row>
+    <row r="293" spans="1:8">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
@@ -5161,9 +5246,9 @@
       <c r="E293" s="5"/>
       <c r="F293" s="5"/>
       <c r="G293" s="5"/>
-      <c r="H293" s="15"/>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H293" s="14"/>
+    </row>
+    <row r="294" spans="1:8">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
@@ -5171,9 +5256,9 @@
       <c r="E294" s="5"/>
       <c r="F294" s="5"/>
       <c r="G294" s="5"/>
-      <c r="H294" s="15"/>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H294" s="14"/>
+    </row>
+    <row r="295" spans="1:8">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
@@ -5181,9 +5266,9 @@
       <c r="E295" s="5"/>
       <c r="F295" s="5"/>
       <c r="G295" s="5"/>
-      <c r="H295" s="15"/>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H295" s="14"/>
+    </row>
+    <row r="296" spans="1:8">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
@@ -5191,9 +5276,9 @@
       <c r="E296" s="5"/>
       <c r="F296" s="5"/>
       <c r="G296" s="5"/>
-      <c r="H296" s="15"/>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H296" s="14"/>
+    </row>
+    <row r="297" spans="1:8">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
@@ -5201,9 +5286,9 @@
       <c r="E297" s="5"/>
       <c r="F297" s="5"/>
       <c r="G297" s="5"/>
-      <c r="H297" s="15"/>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H297" s="14"/>
+    </row>
+    <row r="298" spans="1:8">
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
@@ -5211,9 +5296,9 @@
       <c r="E298" s="5"/>
       <c r="F298" s="5"/>
       <c r="G298" s="5"/>
-      <c r="H298" s="15"/>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H298" s="14"/>
+    </row>
+    <row r="299" spans="1:8">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
@@ -5221,9 +5306,9 @@
       <c r="E299" s="5"/>
       <c r="F299" s="5"/>
       <c r="G299" s="5"/>
-      <c r="H299" s="15"/>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H299" s="14"/>
+    </row>
+    <row r="300" spans="1:8">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
@@ -5231,9 +5316,9 @@
       <c r="E300" s="5"/>
       <c r="F300" s="5"/>
       <c r="G300" s="5"/>
-      <c r="H300" s="15"/>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H300" s="14"/>
+    </row>
+    <row r="301" spans="1:8">
       <c r="A301" s="5"/>
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
@@ -5241,9 +5326,9 @@
       <c r="E301" s="5"/>
       <c r="F301" s="5"/>
       <c r="G301" s="5"/>
-      <c r="H301" s="15"/>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H301" s="14"/>
+    </row>
+    <row r="302" spans="1:8">
       <c r="A302" s="5"/>
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
@@ -5251,9 +5336,9 @@
       <c r="E302" s="5"/>
       <c r="F302" s="5"/>
       <c r="G302" s="5"/>
-      <c r="H302" s="15"/>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H302" s="14"/>
+    </row>
+    <row r="303" spans="1:8">
       <c r="A303" s="5"/>
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
@@ -5261,9 +5346,9 @@
       <c r="E303" s="5"/>
       <c r="F303" s="5"/>
       <c r="G303" s="5"/>
-      <c r="H303" s="15"/>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H303" s="14"/>
+    </row>
+    <row r="304" spans="1:8">
       <c r="A304" s="5"/>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
@@ -5271,9 +5356,9 @@
       <c r="E304" s="5"/>
       <c r="F304" s="5"/>
       <c r="G304" s="5"/>
-      <c r="H304" s="15"/>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H304" s="14"/>
+    </row>
+    <row r="305" spans="1:8">
       <c r="A305" s="5"/>
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
@@ -5281,9 +5366,9 @@
       <c r="E305" s="5"/>
       <c r="F305" s="5"/>
       <c r="G305" s="5"/>
-      <c r="H305" s="15"/>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H305" s="14"/>
+    </row>
+    <row r="306" spans="1:8">
       <c r="A306" s="5"/>
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
@@ -5291,9 +5376,9 @@
       <c r="E306" s="5"/>
       <c r="F306" s="5"/>
       <c r="G306" s="5"/>
-      <c r="H306" s="15"/>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H306" s="14"/>
+    </row>
+    <row r="307" spans="1:8">
       <c r="A307" s="5"/>
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
@@ -5301,9 +5386,9 @@
       <c r="E307" s="5"/>
       <c r="F307" s="5"/>
       <c r="G307" s="5"/>
-      <c r="H307" s="15"/>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H307" s="14"/>
+    </row>
+    <row r="308" spans="1:8">
       <c r="A308" s="5"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
@@ -5311,9 +5396,9 @@
       <c r="E308" s="5"/>
       <c r="F308" s="5"/>
       <c r="G308" s="5"/>
-      <c r="H308" s="15"/>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H308" s="14"/>
+    </row>
+    <row r="309" spans="1:8">
       <c r="A309" s="5"/>
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
@@ -5321,9 +5406,9 @@
       <c r="E309" s="5"/>
       <c r="F309" s="5"/>
       <c r="G309" s="5"/>
-      <c r="H309" s="15"/>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H309" s="14"/>
+    </row>
+    <row r="310" spans="1:8">
       <c r="A310" s="5"/>
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
@@ -5331,9 +5416,9 @@
       <c r="E310" s="5"/>
       <c r="F310" s="5"/>
       <c r="G310" s="5"/>
-      <c r="H310" s="15"/>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H310" s="14"/>
+    </row>
+    <row r="311" spans="1:8">
       <c r="A311" s="5"/>
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
@@ -5341,9 +5426,9 @@
       <c r="E311" s="5"/>
       <c r="F311" s="5"/>
       <c r="G311" s="5"/>
-      <c r="H311" s="15"/>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H311" s="14"/>
+    </row>
+    <row r="312" spans="1:8">
       <c r="A312" s="5"/>
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
@@ -5351,9 +5436,9 @@
       <c r="E312" s="5"/>
       <c r="F312" s="5"/>
       <c r="G312" s="5"/>
-      <c r="H312" s="15"/>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H312" s="14"/>
+    </row>
+    <row r="313" spans="1:8">
       <c r="A313" s="5"/>
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
@@ -5361,9 +5446,9 @@
       <c r="E313" s="5"/>
       <c r="F313" s="5"/>
       <c r="G313" s="5"/>
-      <c r="H313" s="15"/>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H313" s="14"/>
+    </row>
+    <row r="314" spans="1:8">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
@@ -5371,9 +5456,9 @@
       <c r="E314" s="5"/>
       <c r="F314" s="5"/>
       <c r="G314" s="5"/>
-      <c r="H314" s="15"/>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H314" s="14"/>
+    </row>
+    <row r="315" spans="1:8">
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
@@ -5381,9 +5466,9 @@
       <c r="E315" s="5"/>
       <c r="F315" s="5"/>
       <c r="G315" s="5"/>
-      <c r="H315" s="15"/>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H315" s="14"/>
+    </row>
+    <row r="316" spans="1:8">
       <c r="A316" s="5"/>
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
@@ -5391,9 +5476,9 @@
       <c r="E316" s="5"/>
       <c r="F316" s="5"/>
       <c r="G316" s="5"/>
-      <c r="H316" s="15"/>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H316" s="14"/>
+    </row>
+    <row r="317" spans="1:8">
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
@@ -5401,9 +5486,9 @@
       <c r="E317" s="5"/>
       <c r="F317" s="5"/>
       <c r="G317" s="5"/>
-      <c r="H317" s="15"/>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H317" s="14"/>
+    </row>
+    <row r="318" spans="1:8">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
@@ -5411,9 +5496,9 @@
       <c r="E318" s="5"/>
       <c r="F318" s="5"/>
       <c r="G318" s="5"/>
-      <c r="H318" s="15"/>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H318" s="14"/>
+    </row>
+    <row r="319" spans="1:8">
       <c r="A319" s="5"/>
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
@@ -5421,9 +5506,9 @@
       <c r="E319" s="5"/>
       <c r="F319" s="5"/>
       <c r="G319" s="5"/>
-      <c r="H319" s="15"/>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H319" s="14"/>
+    </row>
+    <row r="320" spans="1:8">
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
@@ -5431,9 +5516,9 @@
       <c r="E320" s="5"/>
       <c r="F320" s="5"/>
       <c r="G320" s="5"/>
-      <c r="H320" s="15"/>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H320" s="14"/>
+    </row>
+    <row r="321" spans="1:8">
       <c r="A321" s="5"/>
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
@@ -5441,9 +5526,9 @@
       <c r="E321" s="5"/>
       <c r="F321" s="5"/>
       <c r="G321" s="5"/>
-      <c r="H321" s="15"/>
-    </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H321" s="14"/>
+    </row>
+    <row r="322" spans="1:8">
       <c r="A322" s="5"/>
       <c r="B322" s="5"/>
       <c r="C322" s="5"/>
@@ -5451,9 +5536,9 @@
       <c r="E322" s="5"/>
       <c r="F322" s="5"/>
       <c r="G322" s="5"/>
-      <c r="H322" s="15"/>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H322" s="14"/>
+    </row>
+    <row r="323" spans="1:8">
       <c r="A323" s="5"/>
       <c r="B323" s="5"/>
       <c r="C323" s="5"/>
@@ -5461,9 +5546,9 @@
       <c r="E323" s="5"/>
       <c r="F323" s="5"/>
       <c r="G323" s="5"/>
-      <c r="H323" s="15"/>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H323" s="14"/>
+    </row>
+    <row r="324" spans="1:8">
       <c r="A324" s="5"/>
       <c r="B324" s="5"/>
       <c r="C324" s="5"/>
@@ -5471,9 +5556,9 @@
       <c r="E324" s="5"/>
       <c r="F324" s="5"/>
       <c r="G324" s="5"/>
-      <c r="H324" s="15"/>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H324" s="14"/>
+    </row>
+    <row r="325" spans="1:8">
       <c r="A325" s="5"/>
       <c r="B325" s="5"/>
       <c r="C325" s="5"/>
@@ -5481,9 +5566,9 @@
       <c r="E325" s="5"/>
       <c r="F325" s="5"/>
       <c r="G325" s="5"/>
-      <c r="H325" s="15"/>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H325" s="14"/>
+    </row>
+    <row r="326" spans="1:8">
       <c r="A326" s="5"/>
       <c r="B326" s="5"/>
       <c r="C326" s="5"/>
@@ -5491,9 +5576,9 @@
       <c r="E326" s="5"/>
       <c r="F326" s="5"/>
       <c r="G326" s="5"/>
-      <c r="H326" s="15"/>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H326" s="14"/>
+    </row>
+    <row r="327" spans="1:8">
       <c r="A327" s="5"/>
       <c r="B327" s="5"/>
       <c r="C327" s="5"/>
@@ -5501,9 +5586,9 @@
       <c r="E327" s="5"/>
       <c r="F327" s="5"/>
       <c r="G327" s="5"/>
-      <c r="H327" s="15"/>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H327" s="14"/>
+    </row>
+    <row r="328" spans="1:8">
       <c r="A328" s="5"/>
       <c r="B328" s="5"/>
       <c r="C328" s="5"/>
@@ -5511,9 +5596,9 @@
       <c r="E328" s="5"/>
       <c r="F328" s="5"/>
       <c r="G328" s="5"/>
-      <c r="H328" s="15"/>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H328" s="14"/>
+    </row>
+    <row r="329" spans="1:8">
       <c r="A329" s="5"/>
       <c r="B329" s="5"/>
       <c r="C329" s="5"/>
@@ -5521,9 +5606,9 @@
       <c r="E329" s="5"/>
       <c r="F329" s="5"/>
       <c r="G329" s="5"/>
-      <c r="H329" s="15"/>
-    </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H329" s="14"/>
+    </row>
+    <row r="330" spans="1:8">
       <c r="A330" s="5"/>
       <c r="B330" s="5"/>
       <c r="C330" s="5"/>
@@ -5531,9 +5616,9 @@
       <c r="E330" s="5"/>
       <c r="F330" s="5"/>
       <c r="G330" s="5"/>
-      <c r="H330" s="15"/>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H330" s="14"/>
+    </row>
+    <row r="331" spans="1:8">
       <c r="A331" s="5"/>
       <c r="B331" s="5"/>
       <c r="C331" s="5"/>
@@ -5541,9 +5626,9 @@
       <c r="E331" s="5"/>
       <c r="F331" s="5"/>
       <c r="G331" s="5"/>
-      <c r="H331" s="15"/>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H331" s="14"/>
+    </row>
+    <row r="332" spans="1:8">
       <c r="A332" s="5"/>
       <c r="B332" s="5"/>
       <c r="C332" s="5"/>
@@ -5551,9 +5636,9 @@
       <c r="E332" s="5"/>
       <c r="F332" s="5"/>
       <c r="G332" s="5"/>
-      <c r="H332" s="15"/>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H332" s="14"/>
+    </row>
+    <row r="333" spans="1:8">
       <c r="A333" s="5"/>
       <c r="B333" s="5"/>
       <c r="C333" s="5"/>
@@ -5561,9 +5646,9 @@
       <c r="E333" s="5"/>
       <c r="F333" s="5"/>
       <c r="G333" s="5"/>
-      <c r="H333" s="15"/>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H333" s="14"/>
+    </row>
+    <row r="334" spans="1:8">
       <c r="A334" s="5"/>
       <c r="B334" s="5"/>
       <c r="C334" s="5"/>
@@ -5571,9 +5656,9 @@
       <c r="E334" s="5"/>
       <c r="F334" s="5"/>
       <c r="G334" s="5"/>
-      <c r="H334" s="15"/>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H334" s="14"/>
+    </row>
+    <row r="335" spans="1:8">
       <c r="A335" s="5"/>
       <c r="B335" s="5"/>
       <c r="C335" s="5"/>
@@ -5581,9 +5666,9 @@
       <c r="E335" s="5"/>
       <c r="F335" s="5"/>
       <c r="G335" s="5"/>
-      <c r="H335" s="15"/>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H335" s="14"/>
+    </row>
+    <row r="336" spans="1:8">
       <c r="A336" s="5"/>
       <c r="B336" s="5"/>
       <c r="C336" s="5"/>
@@ -5591,9 +5676,9 @@
       <c r="E336" s="5"/>
       <c r="F336" s="5"/>
       <c r="G336" s="5"/>
-      <c r="H336" s="15"/>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H336" s="14"/>
+    </row>
+    <row r="337" spans="1:8">
       <c r="A337" s="5"/>
       <c r="B337" s="5"/>
       <c r="C337" s="5"/>
@@ -5601,9 +5686,9 @@
       <c r="E337" s="5"/>
       <c r="F337" s="5"/>
       <c r="G337" s="5"/>
-      <c r="H337" s="15"/>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H337" s="14"/>
+    </row>
+    <row r="338" spans="1:8">
       <c r="A338" s="5"/>
       <c r="B338" s="5"/>
       <c r="C338" s="5"/>
@@ -5611,9 +5696,9 @@
       <c r="E338" s="5"/>
       <c r="F338" s="5"/>
       <c r="G338" s="5"/>
-      <c r="H338" s="15"/>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H338" s="14"/>
+    </row>
+    <row r="339" spans="1:8">
       <c r="A339" s="5"/>
       <c r="B339" s="5"/>
       <c r="C339" s="5"/>
@@ -5621,9 +5706,9 @@
       <c r="E339" s="5"/>
       <c r="F339" s="5"/>
       <c r="G339" s="5"/>
-      <c r="H339" s="15"/>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H339" s="14"/>
+    </row>
+    <row r="340" spans="1:8">
       <c r="A340" s="5"/>
       <c r="B340" s="5"/>
       <c r="C340" s="5"/>
@@ -5631,9 +5716,9 @@
       <c r="E340" s="5"/>
       <c r="F340" s="5"/>
       <c r="G340" s="5"/>
-      <c r="H340" s="15"/>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H340" s="14"/>
+    </row>
+    <row r="341" spans="1:8">
       <c r="A341" s="5"/>
       <c r="B341" s="5"/>
       <c r="C341" s="5"/>
@@ -5641,9 +5726,9 @@
       <c r="E341" s="5"/>
       <c r="F341" s="5"/>
       <c r="G341" s="5"/>
-      <c r="H341" s="15"/>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H341" s="14"/>
+    </row>
+    <row r="342" spans="1:8">
       <c r="A342" s="5"/>
       <c r="B342" s="5"/>
       <c r="C342" s="5"/>
@@ -5651,9 +5736,9 @@
       <c r="E342" s="5"/>
       <c r="F342" s="5"/>
       <c r="G342" s="5"/>
-      <c r="H342" s="15"/>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H342" s="14"/>
+    </row>
+    <row r="343" spans="1:8">
       <c r="A343" s="5"/>
       <c r="B343" s="5"/>
       <c r="C343" s="5"/>
@@ -5661,9 +5746,9 @@
       <c r="E343" s="5"/>
       <c r="F343" s="5"/>
       <c r="G343" s="5"/>
-      <c r="H343" s="15"/>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H343" s="14"/>
+    </row>
+    <row r="344" spans="1:8">
       <c r="A344" s="5"/>
       <c r="B344" s="5"/>
       <c r="C344" s="5"/>
@@ -5671,9 +5756,9 @@
       <c r="E344" s="5"/>
       <c r="F344" s="5"/>
       <c r="G344" s="5"/>
-      <c r="H344" s="15"/>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H344" s="14"/>
+    </row>
+    <row r="345" spans="1:8">
       <c r="A345" s="5"/>
       <c r="B345" s="5"/>
       <c r="C345" s="5"/>
@@ -5681,9 +5766,9 @@
       <c r="E345" s="5"/>
       <c r="F345" s="5"/>
       <c r="G345" s="5"/>
-      <c r="H345" s="15"/>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H345" s="14"/>
+    </row>
+    <row r="346" spans="1:8">
       <c r="A346" s="5"/>
       <c r="B346" s="5"/>
       <c r="C346" s="5"/>
@@ -5691,9 +5776,9 @@
       <c r="E346" s="5"/>
       <c r="F346" s="5"/>
       <c r="G346" s="5"/>
-      <c r="H346" s="15"/>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H346" s="14"/>
+    </row>
+    <row r="347" spans="1:8">
       <c r="A347" s="5"/>
       <c r="B347" s="5"/>
       <c r="C347" s="5"/>
@@ -5701,9 +5786,9 @@
       <c r="E347" s="5"/>
       <c r="F347" s="5"/>
       <c r="G347" s="5"/>
-      <c r="H347" s="15"/>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H347" s="14"/>
+    </row>
+    <row r="348" spans="1:8">
       <c r="A348" s="5"/>
       <c r="B348" s="5"/>
       <c r="C348" s="5"/>
@@ -5711,9 +5796,9 @@
       <c r="E348" s="5"/>
       <c r="F348" s="5"/>
       <c r="G348" s="5"/>
-      <c r="H348" s="15"/>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H348" s="14"/>
+    </row>
+    <row r="349" spans="1:8">
       <c r="A349" s="5"/>
       <c r="B349" s="5"/>
       <c r="C349" s="5"/>
@@ -5721,9 +5806,9 @@
       <c r="E349" s="5"/>
       <c r="F349" s="5"/>
       <c r="G349" s="5"/>
-      <c r="H349" s="15"/>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H349" s="14"/>
+    </row>
+    <row r="350" spans="1:8">
       <c r="A350" s="5"/>
       <c r="B350" s="5"/>
       <c r="C350" s="5"/>
@@ -5731,9 +5816,9 @@
       <c r="E350" s="5"/>
       <c r="F350" s="5"/>
       <c r="G350" s="5"/>
-      <c r="H350" s="15"/>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H350" s="14"/>
+    </row>
+    <row r="351" spans="1:8">
       <c r="A351" s="5"/>
       <c r="B351" s="5"/>
       <c r="C351" s="5"/>
@@ -5741,9 +5826,9 @@
       <c r="E351" s="5"/>
       <c r="F351" s="5"/>
       <c r="G351" s="5"/>
-      <c r="H351" s="15"/>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H351" s="14"/>
+    </row>
+    <row r="352" spans="1:8">
       <c r="A352" s="5"/>
       <c r="B352" s="5"/>
       <c r="C352" s="5"/>
@@ -5751,9 +5836,9 @@
       <c r="E352" s="5"/>
       <c r="F352" s="5"/>
       <c r="G352" s="5"/>
-      <c r="H352" s="15"/>
-    </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H352" s="14"/>
+    </row>
+    <row r="353" spans="1:8">
       <c r="A353" s="5"/>
       <c r="B353" s="5"/>
       <c r="C353" s="5"/>
@@ -5761,9 +5846,9 @@
       <c r="E353" s="5"/>
       <c r="F353" s="5"/>
       <c r="G353" s="5"/>
-      <c r="H353" s="15"/>
-    </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H353" s="14"/>
+    </row>
+    <row r="354" spans="1:8">
       <c r="A354" s="5"/>
       <c r="B354" s="5"/>
       <c r="C354" s="5"/>
@@ -5771,9 +5856,9 @@
       <c r="E354" s="5"/>
       <c r="F354" s="5"/>
       <c r="G354" s="5"/>
-      <c r="H354" s="15"/>
-    </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H354" s="14"/>
+    </row>
+    <row r="355" spans="1:8">
       <c r="A355" s="5"/>
       <c r="B355" s="5"/>
       <c r="C355" s="5"/>
@@ -5781,9 +5866,9 @@
       <c r="E355" s="5"/>
       <c r="F355" s="5"/>
       <c r="G355" s="5"/>
-      <c r="H355" s="15"/>
-    </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H355" s="14"/>
+    </row>
+    <row r="356" spans="1:8">
       <c r="A356" s="5"/>
       <c r="B356" s="5"/>
       <c r="C356" s="5"/>
@@ -5791,9 +5876,9 @@
       <c r="E356" s="5"/>
       <c r="F356" s="5"/>
       <c r="G356" s="5"/>
-      <c r="H356" s="15"/>
-    </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H356" s="14"/>
+    </row>
+    <row r="357" spans="1:8">
       <c r="A357" s="5"/>
       <c r="B357" s="5"/>
       <c r="C357" s="5"/>
@@ -5801,9 +5886,9 @@
       <c r="E357" s="5"/>
       <c r="F357" s="5"/>
       <c r="G357" s="5"/>
-      <c r="H357" s="15"/>
-    </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H357" s="14"/>
+    </row>
+    <row r="358" spans="1:8">
       <c r="A358" s="5"/>
       <c r="B358" s="5"/>
       <c r="C358" s="5"/>
@@ -5811,9 +5896,9 @@
       <c r="E358" s="5"/>
       <c r="F358" s="5"/>
       <c r="G358" s="5"/>
-      <c r="H358" s="15"/>
-    </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H358" s="14"/>
+    </row>
+    <row r="359" spans="1:8">
       <c r="A359" s="5"/>
       <c r="B359" s="5"/>
       <c r="C359" s="5"/>
@@ -5821,9 +5906,9 @@
       <c r="E359" s="5"/>
       <c r="F359" s="5"/>
       <c r="G359" s="5"/>
-      <c r="H359" s="15"/>
-    </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H359" s="14"/>
+    </row>
+    <row r="360" spans="1:8">
       <c r="A360" s="5"/>
       <c r="B360" s="5"/>
       <c r="C360" s="5"/>
@@ -5831,9 +5916,9 @@
       <c r="E360" s="5"/>
       <c r="F360" s="5"/>
       <c r="G360" s="5"/>
-      <c r="H360" s="15"/>
-    </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H360" s="14"/>
+    </row>
+    <row r="361" spans="1:8">
       <c r="A361" s="5"/>
       <c r="B361" s="5"/>
       <c r="C361" s="5"/>
@@ -5841,9 +5926,9 @@
       <c r="E361" s="5"/>
       <c r="F361" s="5"/>
       <c r="G361" s="5"/>
-      <c r="H361" s="15"/>
-    </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H361" s="14"/>
+    </row>
+    <row r="362" spans="1:8">
       <c r="A362" s="5"/>
       <c r="B362" s="5"/>
       <c r="C362" s="5"/>
@@ -5851,9 +5936,9 @@
       <c r="E362" s="5"/>
       <c r="F362" s="5"/>
       <c r="G362" s="5"/>
-      <c r="H362" s="15"/>
-    </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H362" s="14"/>
+    </row>
+    <row r="363" spans="1:8">
       <c r="A363" s="5"/>
       <c r="B363" s="5"/>
       <c r="C363" s="5"/>
@@ -5861,9 +5946,9 @@
       <c r="E363" s="5"/>
       <c r="F363" s="5"/>
       <c r="G363" s="5"/>
-      <c r="H363" s="15"/>
-    </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H363" s="14"/>
+    </row>
+    <row r="364" spans="1:8">
       <c r="A364" s="5"/>
       <c r="B364" s="5"/>
       <c r="C364" s="5"/>
@@ -5871,9 +5956,9 @@
       <c r="E364" s="5"/>
       <c r="F364" s="5"/>
       <c r="G364" s="5"/>
-      <c r="H364" s="15"/>
-    </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H364" s="14"/>
+    </row>
+    <row r="365" spans="1:8">
       <c r="A365" s="5"/>
       <c r="B365" s="5"/>
       <c r="C365" s="5"/>
@@ -5881,9 +5966,9 @@
       <c r="E365" s="5"/>
       <c r="F365" s="5"/>
       <c r="G365" s="5"/>
-      <c r="H365" s="15"/>
-    </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H365" s="14"/>
+    </row>
+    <row r="366" spans="1:8">
       <c r="A366" s="5"/>
       <c r="B366" s="5"/>
       <c r="C366" s="5"/>
@@ -5891,9 +5976,9 @@
       <c r="E366" s="5"/>
       <c r="F366" s="5"/>
       <c r="G366" s="5"/>
-      <c r="H366" s="15"/>
-    </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H366" s="14"/>
+    </row>
+    <row r="367" spans="1:8">
       <c r="A367" s="5"/>
       <c r="B367" s="5"/>
       <c r="C367" s="5"/>
@@ -5901,9 +5986,9 @@
       <c r="E367" s="5"/>
       <c r="F367" s="5"/>
       <c r="G367" s="5"/>
-      <c r="H367" s="15"/>
-    </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H367" s="14"/>
+    </row>
+    <row r="368" spans="1:8">
       <c r="A368" s="5"/>
       <c r="B368" s="5"/>
       <c r="C368" s="5"/>
@@ -5911,9 +5996,9 @@
       <c r="E368" s="5"/>
       <c r="F368" s="5"/>
       <c r="G368" s="5"/>
-      <c r="H368" s="15"/>
-    </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H368" s="14"/>
+    </row>
+    <row r="369" spans="1:8">
       <c r="A369" s="5"/>
       <c r="B369" s="5"/>
       <c r="C369" s="5"/>
@@ -5921,9 +6006,9 @@
       <c r="E369" s="5"/>
       <c r="F369" s="5"/>
       <c r="G369" s="5"/>
-      <c r="H369" s="15"/>
-    </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H369" s="14"/>
+    </row>
+    <row r="370" spans="1:8">
       <c r="A370" s="5"/>
       <c r="B370" s="5"/>
       <c r="C370" s="5"/>
@@ -5931,9 +6016,9 @@
       <c r="E370" s="5"/>
       <c r="F370" s="5"/>
       <c r="G370" s="5"/>
-      <c r="H370" s="15"/>
-    </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H370" s="14"/>
+    </row>
+    <row r="371" spans="1:8">
       <c r="A371" s="5"/>
       <c r="B371" s="5"/>
       <c r="C371" s="5"/>
@@ -5941,9 +6026,9 @@
       <c r="E371" s="5"/>
       <c r="F371" s="5"/>
       <c r="G371" s="5"/>
-      <c r="H371" s="15"/>
-    </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H371" s="14"/>
+    </row>
+    <row r="372" spans="1:8">
       <c r="A372" s="5"/>
       <c r="B372" s="5"/>
       <c r="C372" s="5"/>
@@ -5951,9 +6036,9 @@
       <c r="E372" s="5"/>
       <c r="F372" s="5"/>
       <c r="G372" s="5"/>
-      <c r="H372" s="15"/>
-    </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H372" s="14"/>
+    </row>
+    <row r="373" spans="1:8">
       <c r="A373" s="5"/>
       <c r="B373" s="5"/>
       <c r="C373" s="5"/>
@@ -5963,7 +6048,7 @@
       <c r="G373" s="5"/>
       <c r="H373" s="5"/>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:8">
       <c r="A374" s="5"/>
       <c r="B374" s="5"/>
       <c r="C374" s="5"/>
@@ -5973,7 +6058,7 @@
       <c r="G374" s="5"/>
       <c r="H374" s="5"/>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:8">
       <c r="A375" s="5"/>
       <c r="B375" s="5"/>
       <c r="C375" s="5"/>
@@ -5983,7 +6068,7 @@
       <c r="G375" s="5"/>
       <c r="H375" s="5"/>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:8">
       <c r="A376" s="5"/>
       <c r="B376" s="5"/>
       <c r="C376" s="5"/>
@@ -5993,7 +6078,7 @@
       <c r="G376" s="5"/>
       <c r="H376" s="5"/>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:8">
       <c r="A377" s="5"/>
       <c r="B377" s="5"/>
       <c r="C377" s="5"/>
@@ -6003,7 +6088,7 @@
       <c r="G377" s="5"/>
       <c r="H377" s="5"/>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:8">
       <c r="A378" s="5"/>
       <c r="B378" s="5"/>
       <c r="C378" s="5"/>
@@ -6013,7 +6098,7 @@
       <c r="G378" s="5"/>
       <c r="H378" s="5"/>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:8">
       <c r="A379" s="5"/>
       <c r="B379" s="5"/>
       <c r="C379" s="5"/>
@@ -6023,7 +6108,7 @@
       <c r="G379" s="5"/>
       <c r="H379" s="5"/>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:8">
       <c r="A380" s="5"/>
       <c r="B380" s="5"/>
       <c r="C380" s="5"/>
@@ -6033,7 +6118,7 @@
       <c r="G380" s="5"/>
       <c r="H380" s="5"/>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:8">
       <c r="A381" s="5"/>
       <c r="B381" s="5"/>
       <c r="C381" s="5"/>
@@ -6043,7 +6128,7 @@
       <c r="G381" s="5"/>
       <c r="H381" s="5"/>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:8">
       <c r="A382" s="5"/>
       <c r="B382" s="5"/>
       <c r="C382" s="5"/>
@@ -6053,7 +6138,7 @@
       <c r="G382" s="5"/>
       <c r="H382" s="5"/>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:8">
       <c r="A383" s="5"/>
       <c r="B383" s="5"/>
       <c r="C383" s="5"/>
@@ -6063,7 +6148,7 @@
       <c r="G383" s="5"/>
       <c r="H383" s="5"/>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:8">
       <c r="A384" s="5"/>
       <c r="B384" s="5"/>
       <c r="C384" s="5"/>
@@ -6073,7 +6158,7 @@
       <c r="G384" s="5"/>
       <c r="H384" s="5"/>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:8">
       <c r="A385" s="5"/>
       <c r="B385" s="5"/>
       <c r="C385" s="5"/>
@@ -6083,7 +6168,7 @@
       <c r="G385" s="5"/>
       <c r="H385" s="5"/>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:8">
       <c r="A386" s="5"/>
       <c r="B386" s="5"/>
       <c r="C386" s="5"/>
@@ -6093,7 +6178,7 @@
       <c r="G386" s="5"/>
       <c r="H386" s="5"/>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:8">
       <c r="A387" s="5"/>
       <c r="B387" s="5"/>
       <c r="C387" s="5"/>
@@ -6103,7 +6188,7 @@
       <c r="G387" s="5"/>
       <c r="H387" s="5"/>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:8">
       <c r="A388" s="5"/>
       <c r="B388" s="5"/>
       <c r="C388" s="5"/>
@@ -6113,7 +6198,7 @@
       <c r="G388" s="5"/>
       <c r="H388" s="5"/>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:8">
       <c r="A389" s="5"/>
       <c r="B389" s="5"/>
       <c r="C389" s="5"/>
@@ -6123,7 +6208,7 @@
       <c r="G389" s="5"/>
       <c r="H389" s="5"/>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:8">
       <c r="A390" s="5"/>
       <c r="B390" s="5"/>
       <c r="C390" s="5"/>
@@ -6133,7 +6218,7 @@
       <c r="G390" s="5"/>
       <c r="H390" s="5"/>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:8">
       <c r="A391" s="5"/>
       <c r="B391" s="5"/>
       <c r="C391" s="5"/>
@@ -6143,7 +6228,7 @@
       <c r="G391" s="5"/>
       <c r="H391" s="5"/>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:8">
       <c r="A392" s="5"/>
       <c r="B392" s="5"/>
       <c r="C392" s="5"/>
@@ -6153,7 +6238,7 @@
       <c r="G392" s="5"/>
       <c r="H392" s="5"/>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:8">
       <c r="A393" s="5"/>
       <c r="B393" s="5"/>
       <c r="C393" s="5"/>
@@ -6163,7 +6248,7 @@
       <c r="G393" s="5"/>
       <c r="H393" s="5"/>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:8">
       <c r="A394" s="5"/>
       <c r="B394" s="5"/>
       <c r="C394" s="5"/>
@@ -6173,7 +6258,7 @@
       <c r="G394" s="5"/>
       <c r="H394" s="5"/>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:8">
       <c r="A395" s="5"/>
       <c r="B395" s="5"/>
       <c r="C395" s="5"/>
@@ -6183,7 +6268,7 @@
       <c r="G395" s="5"/>
       <c r="H395" s="5"/>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:8">
       <c r="A396" s="5"/>
       <c r="B396" s="5"/>
       <c r="C396" s="5"/>
@@ -6193,7 +6278,7 @@
       <c r="G396" s="5"/>
       <c r="H396" s="5"/>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:8">
       <c r="A397" s="5"/>
       <c r="B397" s="5"/>
       <c r="C397" s="5"/>
@@ -6203,7 +6288,7 @@
       <c r="G397" s="5"/>
       <c r="H397" s="5"/>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:8">
       <c r="A398" s="5"/>
       <c r="B398" s="5"/>
       <c r="C398" s="5"/>
@@ -6213,7 +6298,7 @@
       <c r="G398" s="5"/>
       <c r="H398" s="5"/>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:8">
       <c r="A399" s="5"/>
       <c r="B399" s="5"/>
       <c r="C399" s="5"/>
@@ -6223,7 +6308,7 @@
       <c r="G399" s="5"/>
       <c r="H399" s="5"/>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:8">
       <c r="A400" s="5"/>
       <c r="B400" s="5"/>
       <c r="C400" s="5"/>
@@ -6233,7 +6318,7 @@
       <c r="G400" s="5"/>
       <c r="H400" s="5"/>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:8">
       <c r="A401" s="5"/>
       <c r="B401" s="5"/>
       <c r="C401" s="5"/>
@@ -6243,7 +6328,7 @@
       <c r="G401" s="5"/>
       <c r="H401" s="5"/>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:8">
       <c r="A402" s="5"/>
       <c r="B402" s="5"/>
       <c r="C402" s="5"/>
@@ -6253,7 +6338,7 @@
       <c r="G402" s="5"/>
       <c r="H402" s="5"/>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:8">
       <c r="A403" s="5"/>
       <c r="B403" s="5"/>
       <c r="C403" s="5"/>
@@ -6263,7 +6348,7 @@
       <c r="G403" s="5"/>
       <c r="H403" s="5"/>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:8">
       <c r="A404" s="5"/>
       <c r="B404" s="5"/>
       <c r="C404" s="5"/>
@@ -6273,7 +6358,7 @@
       <c r="G404" s="5"/>
       <c r="H404" s="5"/>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:8">
       <c r="A405" s="5"/>
       <c r="B405" s="5"/>
       <c r="C405" s="5"/>
@@ -6283,7 +6368,7 @@
       <c r="G405" s="5"/>
       <c r="H405" s="5"/>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:8">
       <c r="A406" s="5"/>
       <c r="B406" s="5"/>
       <c r="C406" s="5"/>
@@ -6293,7 +6378,7 @@
       <c r="G406" s="5"/>
       <c r="H406" s="5"/>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:8">
       <c r="A407" s="5"/>
       <c r="B407" s="5"/>
       <c r="C407" s="5"/>
@@ -6303,7 +6388,7 @@
       <c r="G407" s="5"/>
       <c r="H407" s="5"/>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:8">
       <c r="A408" s="5"/>
       <c r="B408" s="5"/>
       <c r="C408" s="5"/>
@@ -6313,7 +6398,7 @@
       <c r="G408" s="5"/>
       <c r="H408" s="5"/>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:8">
       <c r="A409" s="5"/>
       <c r="B409" s="5"/>
       <c r="C409" s="5"/>
@@ -6323,7 +6408,7 @@
       <c r="G409" s="5"/>
       <c r="H409" s="5"/>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:8">
       <c r="A410" s="5"/>
       <c r="B410" s="5"/>
       <c r="C410" s="5"/>
@@ -6333,7 +6418,7 @@
       <c r="G410" s="5"/>
       <c r="H410" s="5"/>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:8">
       <c r="A411" s="5"/>
       <c r="B411" s="5"/>
       <c r="C411" s="5"/>
@@ -6343,7 +6428,7 @@
       <c r="G411" s="5"/>
       <c r="H411" s="5"/>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:8">
       <c r="A412" s="5"/>
       <c r="B412" s="5"/>
       <c r="C412" s="5"/>
@@ -6353,7 +6438,7 @@
       <c r="G412" s="5"/>
       <c r="H412" s="5"/>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:8">
       <c r="A413" s="5"/>
       <c r="B413" s="5"/>
       <c r="C413" s="5"/>
@@ -6363,7 +6448,7 @@
       <c r="G413" s="5"/>
       <c r="H413" s="5"/>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:8">
       <c r="A414" s="5"/>
       <c r="B414" s="5"/>
       <c r="C414" s="5"/>
@@ -6373,7 +6458,7 @@
       <c r="G414" s="5"/>
       <c r="H414" s="5"/>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:8">
       <c r="A415" s="5"/>
       <c r="B415" s="5"/>
       <c r="C415" s="5"/>
@@ -6383,7 +6468,7 @@
       <c r="G415" s="5"/>
       <c r="H415" s="5"/>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:8">
       <c r="A416" s="5"/>
       <c r="B416" s="5"/>
       <c r="C416" s="5"/>
@@ -6393,7 +6478,7 @@
       <c r="G416" s="5"/>
       <c r="H416" s="5"/>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:8">
       <c r="A417" s="5"/>
       <c r="B417" s="5"/>
       <c r="C417" s="5"/>
@@ -6403,7 +6488,7 @@
       <c r="G417" s="5"/>
       <c r="H417" s="5"/>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:8">
       <c r="A418" s="5"/>
       <c r="B418" s="5"/>
       <c r="C418" s="5"/>
@@ -6413,7 +6498,7 @@
       <c r="G418" s="5"/>
       <c r="H418" s="5"/>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:8">
       <c r="A419" s="5"/>
       <c r="B419" s="5"/>
       <c r="C419" s="5"/>
@@ -6423,7 +6508,7 @@
       <c r="G419" s="5"/>
       <c r="H419" s="5"/>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:8">
       <c r="A420" s="5"/>
       <c r="B420" s="5"/>
       <c r="C420" s="5"/>
@@ -6433,7 +6518,7 @@
       <c r="G420" s="5"/>
       <c r="H420" s="5"/>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:8">
       <c r="A421" s="5"/>
       <c r="B421" s="5"/>
       <c r="C421" s="5"/>
@@ -6443,7 +6528,7 @@
       <c r="G421" s="5"/>
       <c r="H421" s="5"/>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:8">
       <c r="A422" s="5"/>
       <c r="B422" s="5"/>
       <c r="C422" s="5"/>
@@ -6453,7 +6538,7 @@
       <c r="G422" s="5"/>
       <c r="H422" s="5"/>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:8">
       <c r="A423" s="5"/>
       <c r="B423" s="5"/>
       <c r="C423" s="5"/>
@@ -6463,7 +6548,7 @@
       <c r="G423" s="5"/>
       <c r="H423" s="5"/>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:8">
       <c r="A424" s="5"/>
       <c r="B424" s="5"/>
       <c r="C424" s="5"/>
@@ -6473,7 +6558,7 @@
       <c r="G424" s="5"/>
       <c r="H424" s="5"/>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:8">
       <c r="A425" s="5"/>
       <c r="B425" s="5"/>
       <c r="C425" s="5"/>
@@ -6483,7 +6568,7 @@
       <c r="G425" s="5"/>
       <c r="H425" s="5"/>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:8">
       <c r="A426" s="5"/>
       <c r="B426" s="5"/>
       <c r="C426" s="5"/>
@@ -6493,7 +6578,7 @@
       <c r="G426" s="5"/>
       <c r="H426" s="5"/>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:8">
       <c r="A427" s="5"/>
       <c r="B427" s="5"/>
       <c r="C427" s="5"/>
@@ -6503,7 +6588,7 @@
       <c r="G427" s="5"/>
       <c r="H427" s="5"/>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:8">
       <c r="A428" s="5"/>
       <c r="B428" s="5"/>
       <c r="C428" s="5"/>
@@ -6513,7 +6598,7 @@
       <c r="G428" s="5"/>
       <c r="H428" s="5"/>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:8">
       <c r="A429" s="5"/>
       <c r="B429" s="5"/>
       <c r="C429" s="5"/>
@@ -6523,7 +6608,7 @@
       <c r="G429" s="5"/>
       <c r="H429" s="5"/>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:8">
       <c r="A430" s="5"/>
       <c r="B430" s="5"/>
       <c r="C430" s="5"/>
@@ -6533,7 +6618,7 @@
       <c r="G430" s="5"/>
       <c r="H430" s="5"/>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:8">
       <c r="A431" s="5"/>
       <c r="B431" s="5"/>
       <c r="C431" s="5"/>
@@ -6543,7 +6628,7 @@
       <c r="G431" s="5"/>
       <c r="H431" s="5"/>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:8">
       <c r="A432" s="5"/>
       <c r="B432" s="5"/>
       <c r="C432" s="5"/>
@@ -6558,43 +6643,8 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A26" r:id="rId1" xr:uid="{D8969698-29C1-B840-A626-5011ABBFAFDB}"/>
+    <hyperlink ref="A25" r:id="rId1" xr:uid="{D8969698-29C1-B840-A626-5011ABBFAFDB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C061361-537C-1845-97CC-CD42E322FD94}">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/planning.xlsx
+++ b/planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/Misc/Hiking/PCT-Washington-2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17D7033-0829-7F47-A335-66DAEA1FBB7A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF9CB14-AA3D-4F48-B8BE-41F010201DC0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16100" activeTab="4" xr2:uid="{CF50ADE5-3FE7-1D4A-B7E6-9F2C5F6DE96F}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16100" xr2:uid="{CF50ADE5-3FE7-1D4A-B7E6-9F2C5F6DE96F}"/>
   </bookViews>
   <sheets>
     <sheet name="Gear Checklist" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="141">
   <si>
     <t>Gear Checklist</t>
   </si>
@@ -218,9 +218,6 @@
     <t>Camera?</t>
   </si>
   <si>
-    <t>Cell Phone</t>
-  </si>
-  <si>
     <t>Journal, Pen, Book, etc.</t>
   </si>
   <si>
@@ -380,9 +377,6 @@
     <t>tons of calories</t>
   </si>
   <si>
-    <t>Powder Supplments</t>
-  </si>
-  <si>
     <t>nutrition and protein</t>
   </si>
   <si>
@@ -447,13 +441,25 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=3oSXJJghlGk</t>
+  </si>
+  <si>
+    <t>Powder Supplements</t>
+  </si>
+  <si>
+    <t>Cell Phone w/ battery pack</t>
+  </si>
+  <si>
+    <t>Share</t>
+  </si>
+  <si>
+    <t>nik wax? Green bottle, purple bottle,https://www.amazon.com/Nikwax-Hardshell-Clean-Waterproof-DUO-Pack/dp/B000PGOOIS/ref=sr_1_3?ie=UTF8&amp;qid=1522994949&amp;sr=8-3&amp;keywords=nikwax+tech+wash&amp;dpID=419xpgfj%252B9L&amp;preST=_SY300_QL70_&amp;dpSrc=srch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -938,12 +944,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97FA1BDE-B68C-E347-BE16-DAED235BDF32}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView zoomScale="137" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
     <col min="2" max="2" width="29.83203125" bestFit="1" customWidth="1"/>
@@ -952,7 +958,7 @@
     <col min="5" max="5" width="60.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -961,7 +967,7 @@
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -969,16 +975,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -989,7 +995,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1000,7 +1006,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1013,7 +1019,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1024,7 +1030,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -1035,7 +1041,7 @@
       <c r="D7" s="6"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -1046,7 +1052,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -1057,7 +1063,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -1068,7 +1074,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -1076,16 +1082,16 @@
         <v>12</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" s="6" t="b">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
@@ -1098,7 +1104,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
@@ -1110,10 +1116,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="32">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -1126,7 +1132,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
@@ -1134,16 +1140,16 @@
         <v>21</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
@@ -1152,11 +1158,11 @@
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
@@ -1167,7 +1173,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
@@ -1180,7 +1186,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
@@ -1191,7 +1197,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
@@ -1202,7 +1208,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
@@ -1212,10 +1218,10 @@
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1226,14 +1232,14 @@
       <c r="D22" s="6"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="8" customHeight="1">
+    <row r="23" spans="1:5" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
@@ -1248,7 +1254,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
@@ -1263,7 +1269,7 @@
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
@@ -1276,7 +1282,7 @@
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -1289,7 +1295,7 @@
       <c r="D27" s="6"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -1300,7 +1306,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -1311,11 +1317,11 @@
         <v>1</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
@@ -1323,14 +1329,16 @@
         <v>35</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D30" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="E30" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>27</v>
       </c>
@@ -1343,7 +1351,7 @@
       </c>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>27</v>
       </c>
@@ -1354,13 +1362,13 @@
         <v>1</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>27</v>
       </c>
@@ -1375,7 +1383,7 @@
       </c>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>27</v>
       </c>
@@ -1390,7 +1398,7 @@
       </c>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>27</v>
       </c>
@@ -1405,7 +1413,7 @@
       </c>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>27</v>
       </c>
@@ -1420,7 +1428,7 @@
       </c>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>27</v>
       </c>
@@ -1428,21 +1436,21 @@
         <v>42</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D37" s="6" t="b">
         <v>0</v>
       </c>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" ht="8" customHeight="1">
+    <row r="38" spans="1:5" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>43</v>
       </c>
@@ -1453,13 +1461,13 @@
         <v>1</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="48">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>43</v>
       </c>
@@ -1476,7 +1484,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>43</v>
       </c>
@@ -1487,7 +1495,7 @@
       <c r="D41" s="6"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>43</v>
       </c>
@@ -1498,7 +1506,7 @@
       <c r="D42" s="6"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
@@ -1509,7 +1517,7 @@
       <c r="D43" s="6"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
@@ -1520,7 +1528,7 @@
       <c r="D44" s="6"/>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
@@ -1531,7 +1539,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>43</v>
       </c>
@@ -1540,9 +1548,11 @@
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="E46" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>43</v>
       </c>
@@ -1553,7 +1563,7 @@
       <c r="D47" s="6"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>43</v>
       </c>
@@ -1564,7 +1574,7 @@
       <c r="D48" s="6"/>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>43</v>
       </c>
@@ -1577,7 +1587,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>43</v>
       </c>
@@ -1588,7 +1598,7 @@
       <c r="D50" s="6"/>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>43</v>
       </c>
@@ -1601,7 +1611,7 @@
       <c r="D51" s="6"/>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>43</v>
       </c>
@@ -1612,7 +1622,7 @@
       <c r="D52" s="6"/>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>43</v>
       </c>
@@ -1623,7 +1633,7 @@
       <c r="D53" s="6"/>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>43</v>
       </c>
@@ -1634,12 +1644,12 @@
       <c r="D54" s="6"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6" t="b">
@@ -1647,34 +1657,34 @@
       </c>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C58" s="6" t="b">
         <v>1</v>
@@ -1684,12 +1694,12 @@
       </c>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C59" s="6" t="b">
         <v>0</v>
@@ -1699,19 +1709,19 @@
       </c>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:5" ht="8" customHeight="1">
+    <row r="60" spans="1:5" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="4"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6" t="b">
@@ -1719,217 +1729,217 @@
       </c>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="E63" s="5"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
       <c r="E64" s="5"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
       <c r="E65" s="5"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="E66" s="5"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
       <c r="E67" s="5"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
       <c r="E68" s="5"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
       <c r="E69" s="5"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
       <c r="E70" s="5"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="5"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
       <c r="E72" s="5"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
       <c r="E73" s="5"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
       <c r="E74" s="5"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
       <c r="E75" s="5"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
     </row>
-    <row r="81" spans="3:4">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
     </row>
-    <row r="82" spans="3:4">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
     </row>
-    <row r="83" spans="3:4">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
     </row>
-    <row r="84" spans="3:4">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
     </row>
-    <row r="85" spans="3:4">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
     </row>
-    <row r="86" spans="3:4">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
     </row>
-    <row r="87" spans="3:4">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
     </row>
-    <row r="88" spans="3:4">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
     </row>
-    <row r="89" spans="3:4">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
     </row>
-    <row r="90" spans="3:4">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
     </row>
-    <row r="91" spans="3:4">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
     </row>
-    <row r="92" spans="3:4">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
     </row>
-    <row r="93" spans="3:4">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
     </row>
-    <row r="94" spans="3:4">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
     </row>
-    <row r="95" spans="3:4">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
     </row>
-    <row r="96" spans="3:4">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
     </row>
-    <row r="97" spans="3:4">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
     </row>
-    <row r="98" spans="3:4">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
     </row>
-    <row r="99" spans="3:4">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
     </row>
-    <row r="100" spans="3:4">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
     </row>
-    <row r="101" spans="3:4">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
     </row>
-    <row r="102" spans="3:4">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
     </row>
@@ -1961,25 +1971,25 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" s="16"/>
       <c r="D1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -1987,135 +1997,135 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
     </row>
@@ -2139,7 +2149,7 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
@@ -2147,31 +2157,31 @@
     <col min="4" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="1" t="b">
         <v>1</v>
@@ -2181,24 +2191,24 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2217,11 +2227,11 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2233,29 +2243,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39BB26A1-FBA0-9741-B5B7-41236C284E72}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1" t="s">
         <v>133</v>
       </c>
-      <c r="F1" t="s">
-        <v>134</v>
-      </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>137</v>
-      </c>
       <c r="F2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2272,7 +2282,7 @@
       <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -2281,9 +2291,9 @@
     <col min="8" max="8" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -2293,35 +2303,35 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>104</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>105</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="32">
+    <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -2339,13 +2349,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2355,7 +2365,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2365,7 +2375,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2375,7 +2385,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2385,7 +2395,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2395,7 +2405,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2405,7 +2415,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2415,7 +2425,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2425,7 +2435,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2435,7 +2445,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2445,7 +2455,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2455,7 +2465,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2465,7 +2475,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2475,7 +2485,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2485,7 +2495,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2495,7 +2505,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2505,7 +2515,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="13"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2515,7 +2525,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="13"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2525,7 +2535,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="13"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2535,7 +2545,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="13"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2545,9 +2555,9 @@
       <c r="G23" s="2"/>
       <c r="H23" s="13"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -2557,9 +2567,9 @@
       <c r="G24" s="5"/>
       <c r="H24" s="14"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -2569,7 +2579,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="14"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -2578,7 +2588,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="14"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -2588,7 +2598,7 @@
       <c r="G27" s="5"/>
       <c r="H27" s="14"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -2598,7 +2608,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="14"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -2608,7 +2618,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="14"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -2618,7 +2628,7 @@
       <c r="G30" s="5"/>
       <c r="H30" s="14"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -2628,7 +2638,7 @@
       <c r="G31" s="5"/>
       <c r="H31" s="14"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -2638,7 +2648,7 @@
       <c r="G32" s="5"/>
       <c r="H32" s="14"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -2648,7 +2658,7 @@
       <c r="G33" s="5"/>
       <c r="H33" s="14"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -2658,7 +2668,7 @@
       <c r="G34" s="5"/>
       <c r="H34" s="14"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -2668,7 +2678,7 @@
       <c r="G35" s="5"/>
       <c r="H35" s="14"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -2678,7 +2688,7 @@
       <c r="G36" s="5"/>
       <c r="H36" s="14"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -2688,7 +2698,7 @@
       <c r="G37" s="5"/>
       <c r="H37" s="14"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -2698,7 +2708,7 @@
       <c r="G38" s="5"/>
       <c r="H38" s="14"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -2708,7 +2718,7 @@
       <c r="G39" s="5"/>
       <c r="H39" s="14"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -2718,7 +2728,7 @@
       <c r="G40" s="5"/>
       <c r="H40" s="14"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -2728,7 +2738,7 @@
       <c r="G41" s="5"/>
       <c r="H41" s="14"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -2738,7 +2748,7 @@
       <c r="G42" s="5"/>
       <c r="H42" s="14"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -2748,7 +2758,7 @@
       <c r="G43" s="5"/>
       <c r="H43" s="14"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -2758,7 +2768,7 @@
       <c r="G44" s="5"/>
       <c r="H44" s="14"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -2768,7 +2778,7 @@
       <c r="G45" s="5"/>
       <c r="H45" s="14"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -2778,7 +2788,7 @@
       <c r="G46" s="5"/>
       <c r="H46" s="14"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -2788,7 +2798,7 @@
       <c r="G47" s="5"/>
       <c r="H47" s="14"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -2798,7 +2808,7 @@
       <c r="G48" s="5"/>
       <c r="H48" s="14"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -2808,7 +2818,7 @@
       <c r="G49" s="5"/>
       <c r="H49" s="14"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -2818,7 +2828,7 @@
       <c r="G50" s="5"/>
       <c r="H50" s="14"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -2828,7 +2838,7 @@
       <c r="G51" s="5"/>
       <c r="H51" s="14"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -2838,7 +2848,7 @@
       <c r="G52" s="5"/>
       <c r="H52" s="14"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -2848,7 +2858,7 @@
       <c r="G53" s="5"/>
       <c r="H53" s="14"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -2858,7 +2868,7 @@
       <c r="G54" s="5"/>
       <c r="H54" s="14"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -2868,7 +2878,7 @@
       <c r="G55" s="5"/>
       <c r="H55" s="14"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -2878,7 +2888,7 @@
       <c r="G56" s="5"/>
       <c r="H56" s="14"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -2888,7 +2898,7 @@
       <c r="G57" s="5"/>
       <c r="H57" s="14"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -2898,7 +2908,7 @@
       <c r="G58" s="5"/>
       <c r="H58" s="14"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -2908,7 +2918,7 @@
       <c r="G59" s="5"/>
       <c r="H59" s="14"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -2918,7 +2928,7 @@
       <c r="G60" s="5"/>
       <c r="H60" s="14"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -2928,7 +2938,7 @@
       <c r="G61" s="5"/>
       <c r="H61" s="14"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -2938,7 +2948,7 @@
       <c r="G62" s="5"/>
       <c r="H62" s="14"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -2948,7 +2958,7 @@
       <c r="G63" s="5"/>
       <c r="H63" s="14"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -2958,7 +2968,7 @@
       <c r="G64" s="5"/>
       <c r="H64" s="14"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -2968,7 +2978,7 @@
       <c r="G65" s="5"/>
       <c r="H65" s="14"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -2978,7 +2988,7 @@
       <c r="G66" s="5"/>
       <c r="H66" s="14"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -2988,7 +2998,7 @@
       <c r="G67" s="5"/>
       <c r="H67" s="14"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -2998,7 +3008,7 @@
       <c r="G68" s="5"/>
       <c r="H68" s="14"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -3008,7 +3018,7 @@
       <c r="G69" s="5"/>
       <c r="H69" s="14"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -3018,7 +3028,7 @@
       <c r="G70" s="5"/>
       <c r="H70" s="14"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -3028,7 +3038,7 @@
       <c r="G71" s="5"/>
       <c r="H71" s="14"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -3038,7 +3048,7 @@
       <c r="G72" s="5"/>
       <c r="H72" s="14"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -3048,7 +3058,7 @@
       <c r="G73" s="5"/>
       <c r="H73" s="14"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -3058,7 +3068,7 @@
       <c r="G74" s="5"/>
       <c r="H74" s="14"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -3068,7 +3078,7 @@
       <c r="G75" s="5"/>
       <c r="H75" s="14"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -3078,7 +3088,7 @@
       <c r="G76" s="5"/>
       <c r="H76" s="14"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -3088,7 +3098,7 @@
       <c r="G77" s="5"/>
       <c r="H77" s="14"/>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -3098,7 +3108,7 @@
       <c r="G78" s="5"/>
       <c r="H78" s="14"/>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -3108,7 +3118,7 @@
       <c r="G79" s="5"/>
       <c r="H79" s="14"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -3118,7 +3128,7 @@
       <c r="G80" s="5"/>
       <c r="H80" s="14"/>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -3128,7 +3138,7 @@
       <c r="G81" s="5"/>
       <c r="H81" s="14"/>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -3138,7 +3148,7 @@
       <c r="G82" s="5"/>
       <c r="H82" s="14"/>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -3148,7 +3158,7 @@
       <c r="G83" s="5"/>
       <c r="H83" s="14"/>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -3158,7 +3168,7 @@
       <c r="G84" s="5"/>
       <c r="H84" s="14"/>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -3168,7 +3178,7 @@
       <c r="G85" s="5"/>
       <c r="H85" s="14"/>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -3178,7 +3188,7 @@
       <c r="G86" s="5"/>
       <c r="H86" s="14"/>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -3188,7 +3198,7 @@
       <c r="G87" s="5"/>
       <c r="H87" s="14"/>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -3198,7 +3208,7 @@
       <c r="G88" s="5"/>
       <c r="H88" s="14"/>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -3208,7 +3218,7 @@
       <c r="G89" s="5"/>
       <c r="H89" s="14"/>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -3218,7 +3228,7 @@
       <c r="G90" s="5"/>
       <c r="H90" s="14"/>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -3228,7 +3238,7 @@
       <c r="G91" s="5"/>
       <c r="H91" s="14"/>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -3238,7 +3248,7 @@
       <c r="G92" s="5"/>
       <c r="H92" s="14"/>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -3248,7 +3258,7 @@
       <c r="G93" s="5"/>
       <c r="H93" s="14"/>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -3258,7 +3268,7 @@
       <c r="G94" s="5"/>
       <c r="H94" s="14"/>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -3268,7 +3278,7 @@
       <c r="G95" s="5"/>
       <c r="H95" s="14"/>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -3278,7 +3288,7 @@
       <c r="G96" s="5"/>
       <c r="H96" s="14"/>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -3288,7 +3298,7 @@
       <c r="G97" s="5"/>
       <c r="H97" s="14"/>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -3298,7 +3308,7 @@
       <c r="G98" s="5"/>
       <c r="H98" s="14"/>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -3308,7 +3318,7 @@
       <c r="G99" s="5"/>
       <c r="H99" s="14"/>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -3318,7 +3328,7 @@
       <c r="G100" s="5"/>
       <c r="H100" s="14"/>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -3328,7 +3338,7 @@
       <c r="G101" s="5"/>
       <c r="H101" s="14"/>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -3338,7 +3348,7 @@
       <c r="G102" s="5"/>
       <c r="H102" s="14"/>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -3348,7 +3358,7 @@
       <c r="G103" s="5"/>
       <c r="H103" s="14"/>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -3358,7 +3368,7 @@
       <c r="G104" s="5"/>
       <c r="H104" s="14"/>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -3368,7 +3378,7 @@
       <c r="G105" s="5"/>
       <c r="H105" s="14"/>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -3378,7 +3388,7 @@
       <c r="G106" s="5"/>
       <c r="H106" s="14"/>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -3388,7 +3398,7 @@
       <c r="G107" s="5"/>
       <c r="H107" s="14"/>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -3398,7 +3408,7 @@
       <c r="G108" s="5"/>
       <c r="H108" s="14"/>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -3408,7 +3418,7 @@
       <c r="G109" s="5"/>
       <c r="H109" s="14"/>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -3418,7 +3428,7 @@
       <c r="G110" s="5"/>
       <c r="H110" s="14"/>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -3428,7 +3438,7 @@
       <c r="G111" s="5"/>
       <c r="H111" s="14"/>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -3438,7 +3448,7 @@
       <c r="G112" s="5"/>
       <c r="H112" s="14"/>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -3448,7 +3458,7 @@
       <c r="G113" s="5"/>
       <c r="H113" s="14"/>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -3458,7 +3468,7 @@
       <c r="G114" s="5"/>
       <c r="H114" s="14"/>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -3468,7 +3478,7 @@
       <c r="G115" s="5"/>
       <c r="H115" s="14"/>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -3478,7 +3488,7 @@
       <c r="G116" s="5"/>
       <c r="H116" s="14"/>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -3488,7 +3498,7 @@
       <c r="G117" s="5"/>
       <c r="H117" s="14"/>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -3498,7 +3508,7 @@
       <c r="G118" s="5"/>
       <c r="H118" s="14"/>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -3508,7 +3518,7 @@
       <c r="G119" s="5"/>
       <c r="H119" s="14"/>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -3518,7 +3528,7 @@
       <c r="G120" s="5"/>
       <c r="H120" s="14"/>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -3528,7 +3538,7 @@
       <c r="G121" s="5"/>
       <c r="H121" s="14"/>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -3538,7 +3548,7 @@
       <c r="G122" s="5"/>
       <c r="H122" s="14"/>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -3548,7 +3558,7 @@
       <c r="G123" s="5"/>
       <c r="H123" s="14"/>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -3558,7 +3568,7 @@
       <c r="G124" s="5"/>
       <c r="H124" s="14"/>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -3568,7 +3578,7 @@
       <c r="G125" s="5"/>
       <c r="H125" s="14"/>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -3578,7 +3588,7 @@
       <c r="G126" s="5"/>
       <c r="H126" s="14"/>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -3588,7 +3598,7 @@
       <c r="G127" s="5"/>
       <c r="H127" s="14"/>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -3598,7 +3608,7 @@
       <c r="G128" s="5"/>
       <c r="H128" s="14"/>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -3608,7 +3618,7 @@
       <c r="G129" s="5"/>
       <c r="H129" s="14"/>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -3618,7 +3628,7 @@
       <c r="G130" s="5"/>
       <c r="H130" s="14"/>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -3628,7 +3638,7 @@
       <c r="G131" s="5"/>
       <c r="H131" s="14"/>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -3638,7 +3648,7 @@
       <c r="G132" s="5"/>
       <c r="H132" s="14"/>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -3648,7 +3658,7 @@
       <c r="G133" s="5"/>
       <c r="H133" s="14"/>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -3658,7 +3668,7 @@
       <c r="G134" s="5"/>
       <c r="H134" s="14"/>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -3668,7 +3678,7 @@
       <c r="G135" s="5"/>
       <c r="H135" s="14"/>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -3678,7 +3688,7 @@
       <c r="G136" s="5"/>
       <c r="H136" s="14"/>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -3688,7 +3698,7 @@
       <c r="G137" s="5"/>
       <c r="H137" s="14"/>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -3698,7 +3708,7 @@
       <c r="G138" s="5"/>
       <c r="H138" s="14"/>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -3708,7 +3718,7 @@
       <c r="G139" s="5"/>
       <c r="H139" s="14"/>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -3718,7 +3728,7 @@
       <c r="G140" s="5"/>
       <c r="H140" s="14"/>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -3728,7 +3738,7 @@
       <c r="G141" s="5"/>
       <c r="H141" s="14"/>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -3738,7 +3748,7 @@
       <c r="G142" s="5"/>
       <c r="H142" s="14"/>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -3748,7 +3758,7 @@
       <c r="G143" s="5"/>
       <c r="H143" s="14"/>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -3758,7 +3768,7 @@
       <c r="G144" s="5"/>
       <c r="H144" s="14"/>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -3768,7 +3778,7 @@
       <c r="G145" s="5"/>
       <c r="H145" s="14"/>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -3778,7 +3788,7 @@
       <c r="G146" s="5"/>
       <c r="H146" s="14"/>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -3788,7 +3798,7 @@
       <c r="G147" s="5"/>
       <c r="H147" s="14"/>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -3798,7 +3808,7 @@
       <c r="G148" s="5"/>
       <c r="H148" s="14"/>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -3808,7 +3818,7 @@
       <c r="G149" s="5"/>
       <c r="H149" s="14"/>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -3818,7 +3828,7 @@
       <c r="G150" s="5"/>
       <c r="H150" s="14"/>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -3828,7 +3838,7 @@
       <c r="G151" s="5"/>
       <c r="H151" s="14"/>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -3838,7 +3848,7 @@
       <c r="G152" s="5"/>
       <c r="H152" s="14"/>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -3848,7 +3858,7 @@
       <c r="G153" s="5"/>
       <c r="H153" s="14"/>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -3858,7 +3868,7 @@
       <c r="G154" s="5"/>
       <c r="H154" s="14"/>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -3868,7 +3878,7 @@
       <c r="G155" s="5"/>
       <c r="H155" s="14"/>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -3878,7 +3888,7 @@
       <c r="G156" s="5"/>
       <c r="H156" s="14"/>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -3888,7 +3898,7 @@
       <c r="G157" s="5"/>
       <c r="H157" s="14"/>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -3898,7 +3908,7 @@
       <c r="G158" s="5"/>
       <c r="H158" s="14"/>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -3908,7 +3918,7 @@
       <c r="G159" s="5"/>
       <c r="H159" s="14"/>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -3918,7 +3928,7 @@
       <c r="G160" s="5"/>
       <c r="H160" s="14"/>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -3928,7 +3938,7 @@
       <c r="G161" s="5"/>
       <c r="H161" s="14"/>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -3938,7 +3948,7 @@
       <c r="G162" s="5"/>
       <c r="H162" s="14"/>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -3948,7 +3958,7 @@
       <c r="G163" s="5"/>
       <c r="H163" s="14"/>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -3958,7 +3968,7 @@
       <c r="G164" s="5"/>
       <c r="H164" s="14"/>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -3968,7 +3978,7 @@
       <c r="G165" s="5"/>
       <c r="H165" s="14"/>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -3978,7 +3988,7 @@
       <c r="G166" s="5"/>
       <c r="H166" s="14"/>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -3988,7 +3998,7 @@
       <c r="G167" s="5"/>
       <c r="H167" s="14"/>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -3998,7 +4008,7 @@
       <c r="G168" s="5"/>
       <c r="H168" s="14"/>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -4008,7 +4018,7 @@
       <c r="G169" s="5"/>
       <c r="H169" s="14"/>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -4018,7 +4028,7 @@
       <c r="G170" s="5"/>
       <c r="H170" s="14"/>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -4028,7 +4038,7 @@
       <c r="G171" s="5"/>
       <c r="H171" s="14"/>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -4038,7 +4048,7 @@
       <c r="G172" s="5"/>
       <c r="H172" s="14"/>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -4048,7 +4058,7 @@
       <c r="G173" s="5"/>
       <c r="H173" s="14"/>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -4058,7 +4068,7 @@
       <c r="G174" s="5"/>
       <c r="H174" s="14"/>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -4068,7 +4078,7 @@
       <c r="G175" s="5"/>
       <c r="H175" s="14"/>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -4078,7 +4088,7 @@
       <c r="G176" s="5"/>
       <c r="H176" s="14"/>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -4088,7 +4098,7 @@
       <c r="G177" s="5"/>
       <c r="H177" s="14"/>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -4098,7 +4108,7 @@
       <c r="G178" s="5"/>
       <c r="H178" s="14"/>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -4108,7 +4118,7 @@
       <c r="G179" s="5"/>
       <c r="H179" s="14"/>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -4118,7 +4128,7 @@
       <c r="G180" s="5"/>
       <c r="H180" s="14"/>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -4128,7 +4138,7 @@
       <c r="G181" s="5"/>
       <c r="H181" s="14"/>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -4138,7 +4148,7 @@
       <c r="G182" s="5"/>
       <c r="H182" s="14"/>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -4148,7 +4158,7 @@
       <c r="G183" s="5"/>
       <c r="H183" s="14"/>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -4158,7 +4168,7 @@
       <c r="G184" s="5"/>
       <c r="H184" s="14"/>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -4168,7 +4178,7 @@
       <c r="G185" s="5"/>
       <c r="H185" s="14"/>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -4178,7 +4188,7 @@
       <c r="G186" s="5"/>
       <c r="H186" s="14"/>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -4188,7 +4198,7 @@
       <c r="G187" s="5"/>
       <c r="H187" s="14"/>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -4198,7 +4208,7 @@
       <c r="G188" s="5"/>
       <c r="H188" s="14"/>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -4208,7 +4218,7 @@
       <c r="G189" s="5"/>
       <c r="H189" s="14"/>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -4218,7 +4228,7 @@
       <c r="G190" s="5"/>
       <c r="H190" s="14"/>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -4228,7 +4238,7 @@
       <c r="G191" s="5"/>
       <c r="H191" s="14"/>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -4238,7 +4248,7 @@
       <c r="G192" s="5"/>
       <c r="H192" s="14"/>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -4248,7 +4258,7 @@
       <c r="G193" s="5"/>
       <c r="H193" s="14"/>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -4258,7 +4268,7 @@
       <c r="G194" s="5"/>
       <c r="H194" s="14"/>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -4268,7 +4278,7 @@
       <c r="G195" s="5"/>
       <c r="H195" s="14"/>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -4278,7 +4288,7 @@
       <c r="G196" s="5"/>
       <c r="H196" s="14"/>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -4288,7 +4298,7 @@
       <c r="G197" s="5"/>
       <c r="H197" s="14"/>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -4298,7 +4308,7 @@
       <c r="G198" s="5"/>
       <c r="H198" s="14"/>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -4308,7 +4318,7 @@
       <c r="G199" s="5"/>
       <c r="H199" s="14"/>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -4318,7 +4328,7 @@
       <c r="G200" s="5"/>
       <c r="H200" s="14"/>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -4328,7 +4338,7 @@
       <c r="G201" s="5"/>
       <c r="H201" s="14"/>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -4338,7 +4348,7 @@
       <c r="G202" s="5"/>
       <c r="H202" s="14"/>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -4348,7 +4358,7 @@
       <c r="G203" s="5"/>
       <c r="H203" s="14"/>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -4358,7 +4368,7 @@
       <c r="G204" s="5"/>
       <c r="H204" s="14"/>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -4368,7 +4378,7 @@
       <c r="G205" s="5"/>
       <c r="H205" s="14"/>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -4378,7 +4388,7 @@
       <c r="G206" s="5"/>
       <c r="H206" s="14"/>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -4388,7 +4398,7 @@
       <c r="G207" s="5"/>
       <c r="H207" s="14"/>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -4398,7 +4408,7 @@
       <c r="G208" s="5"/>
       <c r="H208" s="14"/>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -4408,7 +4418,7 @@
       <c r="G209" s="5"/>
       <c r="H209" s="14"/>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -4418,7 +4428,7 @@
       <c r="G210" s="5"/>
       <c r="H210" s="14"/>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -4428,7 +4438,7 @@
       <c r="G211" s="5"/>
       <c r="H211" s="14"/>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -4438,7 +4448,7 @@
       <c r="G212" s="5"/>
       <c r="H212" s="14"/>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -4448,7 +4458,7 @@
       <c r="G213" s="5"/>
       <c r="H213" s="14"/>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -4458,7 +4468,7 @@
       <c r="G214" s="5"/>
       <c r="H214" s="14"/>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -4468,7 +4478,7 @@
       <c r="G215" s="5"/>
       <c r="H215" s="14"/>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -4478,7 +4488,7 @@
       <c r="G216" s="5"/>
       <c r="H216" s="14"/>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -4488,7 +4498,7 @@
       <c r="G217" s="5"/>
       <c r="H217" s="14"/>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -4498,7 +4508,7 @@
       <c r="G218" s="5"/>
       <c r="H218" s="14"/>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -4508,7 +4518,7 @@
       <c r="G219" s="5"/>
       <c r="H219" s="14"/>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -4518,7 +4528,7 @@
       <c r="G220" s="5"/>
       <c r="H220" s="14"/>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -4528,7 +4538,7 @@
       <c r="G221" s="5"/>
       <c r="H221" s="14"/>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -4538,7 +4548,7 @@
       <c r="G222" s="5"/>
       <c r="H222" s="14"/>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -4548,7 +4558,7 @@
       <c r="G223" s="5"/>
       <c r="H223" s="14"/>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -4558,7 +4568,7 @@
       <c r="G224" s="5"/>
       <c r="H224" s="14"/>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -4568,7 +4578,7 @@
       <c r="G225" s="5"/>
       <c r="H225" s="14"/>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -4578,7 +4588,7 @@
       <c r="G226" s="5"/>
       <c r="H226" s="14"/>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -4588,7 +4598,7 @@
       <c r="G227" s="5"/>
       <c r="H227" s="14"/>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -4598,7 +4608,7 @@
       <c r="G228" s="5"/>
       <c r="H228" s="14"/>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -4608,7 +4618,7 @@
       <c r="G229" s="5"/>
       <c r="H229" s="14"/>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -4618,7 +4628,7 @@
       <c r="G230" s="5"/>
       <c r="H230" s="14"/>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -4628,7 +4638,7 @@
       <c r="G231" s="5"/>
       <c r="H231" s="14"/>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -4638,7 +4648,7 @@
       <c r="G232" s="5"/>
       <c r="H232" s="14"/>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -4648,7 +4658,7 @@
       <c r="G233" s="5"/>
       <c r="H233" s="14"/>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -4658,7 +4668,7 @@
       <c r="G234" s="5"/>
       <c r="H234" s="14"/>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -4668,7 +4678,7 @@
       <c r="G235" s="5"/>
       <c r="H235" s="14"/>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -4678,7 +4688,7 @@
       <c r="G236" s="5"/>
       <c r="H236" s="14"/>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -4688,7 +4698,7 @@
       <c r="G237" s="5"/>
       <c r="H237" s="14"/>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -4698,7 +4708,7 @@
       <c r="G238" s="5"/>
       <c r="H238" s="14"/>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -4708,7 +4718,7 @@
       <c r="G239" s="5"/>
       <c r="H239" s="14"/>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -4718,7 +4728,7 @@
       <c r="G240" s="5"/>
       <c r="H240" s="14"/>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -4728,7 +4738,7 @@
       <c r="G241" s="5"/>
       <c r="H241" s="14"/>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -4738,7 +4748,7 @@
       <c r="G242" s="5"/>
       <c r="H242" s="14"/>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -4748,7 +4758,7 @@
       <c r="G243" s="5"/>
       <c r="H243" s="14"/>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -4758,7 +4768,7 @@
       <c r="G244" s="5"/>
       <c r="H244" s="14"/>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -4768,7 +4778,7 @@
       <c r="G245" s="5"/>
       <c r="H245" s="14"/>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -4778,7 +4788,7 @@
       <c r="G246" s="5"/>
       <c r="H246" s="14"/>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -4788,7 +4798,7 @@
       <c r="G247" s="5"/>
       <c r="H247" s="14"/>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
@@ -4798,7 +4808,7 @@
       <c r="G248" s="5"/>
       <c r="H248" s="14"/>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
@@ -4808,7 +4818,7 @@
       <c r="G249" s="5"/>
       <c r="H249" s="14"/>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
@@ -4818,7 +4828,7 @@
       <c r="G250" s="5"/>
       <c r="H250" s="14"/>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
@@ -4828,7 +4838,7 @@
       <c r="G251" s="5"/>
       <c r="H251" s="14"/>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
@@ -4838,7 +4848,7 @@
       <c r="G252" s="5"/>
       <c r="H252" s="14"/>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
@@ -4848,7 +4858,7 @@
       <c r="G253" s="5"/>
       <c r="H253" s="14"/>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
@@ -4858,7 +4868,7 @@
       <c r="G254" s="5"/>
       <c r="H254" s="14"/>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
@@ -4868,7 +4878,7 @@
       <c r="G255" s="5"/>
       <c r="H255" s="14"/>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
@@ -4878,7 +4888,7 @@
       <c r="G256" s="5"/>
       <c r="H256" s="14"/>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
@@ -4888,7 +4898,7 @@
       <c r="G257" s="5"/>
       <c r="H257" s="14"/>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
@@ -4898,7 +4908,7 @@
       <c r="G258" s="5"/>
       <c r="H258" s="14"/>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
@@ -4908,7 +4918,7 @@
       <c r="G259" s="5"/>
       <c r="H259" s="14"/>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
@@ -4918,7 +4928,7 @@
       <c r="G260" s="5"/>
       <c r="H260" s="14"/>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -4928,7 +4938,7 @@
       <c r="G261" s="5"/>
       <c r="H261" s="14"/>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
@@ -4938,7 +4948,7 @@
       <c r="G262" s="5"/>
       <c r="H262" s="14"/>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
@@ -4948,7 +4958,7 @@
       <c r="G263" s="5"/>
       <c r="H263" s="14"/>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
@@ -4958,7 +4968,7 @@
       <c r="G264" s="5"/>
       <c r="H264" s="14"/>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
@@ -4968,7 +4978,7 @@
       <c r="G265" s="5"/>
       <c r="H265" s="14"/>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
@@ -4978,7 +4988,7 @@
       <c r="G266" s="5"/>
       <c r="H266" s="14"/>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
@@ -4988,7 +4998,7 @@
       <c r="G267" s="5"/>
       <c r="H267" s="14"/>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
@@ -4998,7 +5008,7 @@
       <c r="G268" s="5"/>
       <c r="H268" s="14"/>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
@@ -5008,7 +5018,7 @@
       <c r="G269" s="5"/>
       <c r="H269" s="14"/>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
@@ -5018,7 +5028,7 @@
       <c r="G270" s="5"/>
       <c r="H270" s="14"/>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
@@ -5028,7 +5038,7 @@
       <c r="G271" s="5"/>
       <c r="H271" s="14"/>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
@@ -5038,7 +5048,7 @@
       <c r="G272" s="5"/>
       <c r="H272" s="14"/>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
@@ -5048,7 +5058,7 @@
       <c r="G273" s="5"/>
       <c r="H273" s="14"/>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
@@ -5058,7 +5068,7 @@
       <c r="G274" s="5"/>
       <c r="H274" s="14"/>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
@@ -5068,7 +5078,7 @@
       <c r="G275" s="5"/>
       <c r="H275" s="14"/>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
@@ -5078,7 +5088,7 @@
       <c r="G276" s="5"/>
       <c r="H276" s="14"/>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
@@ -5088,7 +5098,7 @@
       <c r="G277" s="5"/>
       <c r="H277" s="14"/>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
@@ -5098,7 +5108,7 @@
       <c r="G278" s="5"/>
       <c r="H278" s="14"/>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
@@ -5108,7 +5118,7 @@
       <c r="G279" s="5"/>
       <c r="H279" s="14"/>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
@@ -5118,7 +5128,7 @@
       <c r="G280" s="5"/>
       <c r="H280" s="14"/>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
@@ -5128,7 +5138,7 @@
       <c r="G281" s="5"/>
       <c r="H281" s="14"/>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
@@ -5138,7 +5148,7 @@
       <c r="G282" s="5"/>
       <c r="H282" s="14"/>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
@@ -5148,7 +5158,7 @@
       <c r="G283" s="5"/>
       <c r="H283" s="14"/>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
@@ -5158,7 +5168,7 @@
       <c r="G284" s="5"/>
       <c r="H284" s="14"/>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
@@ -5168,7 +5178,7 @@
       <c r="G285" s="5"/>
       <c r="H285" s="14"/>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
@@ -5178,7 +5188,7 @@
       <c r="G286" s="5"/>
       <c r="H286" s="14"/>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
@@ -5188,7 +5198,7 @@
       <c r="G287" s="5"/>
       <c r="H287" s="14"/>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
@@ -5198,7 +5208,7 @@
       <c r="G288" s="5"/>
       <c r="H288" s="14"/>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
@@ -5208,7 +5218,7 @@
       <c r="G289" s="5"/>
       <c r="H289" s="14"/>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
@@ -5218,7 +5228,7 @@
       <c r="G290" s="5"/>
       <c r="H290" s="14"/>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
@@ -5228,7 +5238,7 @@
       <c r="G291" s="5"/>
       <c r="H291" s="14"/>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
@@ -5238,7 +5248,7 @@
       <c r="G292" s="5"/>
       <c r="H292" s="14"/>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
@@ -5248,7 +5258,7 @@
       <c r="G293" s="5"/>
       <c r="H293" s="14"/>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
@@ -5258,7 +5268,7 @@
       <c r="G294" s="5"/>
       <c r="H294" s="14"/>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
@@ -5268,7 +5278,7 @@
       <c r="G295" s="5"/>
       <c r="H295" s="14"/>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
@@ -5278,7 +5288,7 @@
       <c r="G296" s="5"/>
       <c r="H296" s="14"/>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
@@ -5288,7 +5298,7 @@
       <c r="G297" s="5"/>
       <c r="H297" s="14"/>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
@@ -5298,7 +5308,7 @@
       <c r="G298" s="5"/>
       <c r="H298" s="14"/>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
@@ -5308,7 +5318,7 @@
       <c r="G299" s="5"/>
       <c r="H299" s="14"/>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
@@ -5318,7 +5328,7 @@
       <c r="G300" s="5"/>
       <c r="H300" s="14"/>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" s="5"/>
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
@@ -5328,7 +5338,7 @@
       <c r="G301" s="5"/>
       <c r="H301" s="14"/>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" s="5"/>
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
@@ -5338,7 +5348,7 @@
       <c r="G302" s="5"/>
       <c r="H302" s="14"/>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" s="5"/>
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
@@ -5348,7 +5358,7 @@
       <c r="G303" s="5"/>
       <c r="H303" s="14"/>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" s="5"/>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
@@ -5358,7 +5368,7 @@
       <c r="G304" s="5"/>
       <c r="H304" s="14"/>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" s="5"/>
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
@@ -5368,7 +5378,7 @@
       <c r="G305" s="5"/>
       <c r="H305" s="14"/>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" s="5"/>
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
@@ -5378,7 +5388,7 @@
       <c r="G306" s="5"/>
       <c r="H306" s="14"/>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" s="5"/>
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
@@ -5388,7 +5398,7 @@
       <c r="G307" s="5"/>
       <c r="H307" s="14"/>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" s="5"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
@@ -5398,7 +5408,7 @@
       <c r="G308" s="5"/>
       <c r="H308" s="14"/>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" s="5"/>
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
@@ -5408,7 +5418,7 @@
       <c r="G309" s="5"/>
       <c r="H309" s="14"/>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" s="5"/>
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
@@ -5418,7 +5428,7 @@
       <c r="G310" s="5"/>
       <c r="H310" s="14"/>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" s="5"/>
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
@@ -5428,7 +5438,7 @@
       <c r="G311" s="5"/>
       <c r="H311" s="14"/>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" s="5"/>
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
@@ -5438,7 +5448,7 @@
       <c r="G312" s="5"/>
       <c r="H312" s="14"/>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" s="5"/>
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
@@ -5448,7 +5458,7 @@
       <c r="G313" s="5"/>
       <c r="H313" s="14"/>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
@@ -5458,7 +5468,7 @@
       <c r="G314" s="5"/>
       <c r="H314" s="14"/>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
@@ -5468,7 +5478,7 @@
       <c r="G315" s="5"/>
       <c r="H315" s="14"/>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" s="5"/>
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
@@ -5478,7 +5488,7 @@
       <c r="G316" s="5"/>
       <c r="H316" s="14"/>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
@@ -5488,7 +5498,7 @@
       <c r="G317" s="5"/>
       <c r="H317" s="14"/>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
@@ -5498,7 +5508,7 @@
       <c r="G318" s="5"/>
       <c r="H318" s="14"/>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" s="5"/>
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
@@ -5508,7 +5518,7 @@
       <c r="G319" s="5"/>
       <c r="H319" s="14"/>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
@@ -5518,7 +5528,7 @@
       <c r="G320" s="5"/>
       <c r="H320" s="14"/>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" s="5"/>
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
@@ -5528,7 +5538,7 @@
       <c r="G321" s="5"/>
       <c r="H321" s="14"/>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" s="5"/>
       <c r="B322" s="5"/>
       <c r="C322" s="5"/>
@@ -5538,7 +5548,7 @@
       <c r="G322" s="5"/>
       <c r="H322" s="14"/>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" s="5"/>
       <c r="B323" s="5"/>
       <c r="C323" s="5"/>
@@ -5548,7 +5558,7 @@
       <c r="G323" s="5"/>
       <c r="H323" s="14"/>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" s="5"/>
       <c r="B324" s="5"/>
       <c r="C324" s="5"/>
@@ -5558,7 +5568,7 @@
       <c r="G324" s="5"/>
       <c r="H324" s="14"/>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" s="5"/>
       <c r="B325" s="5"/>
       <c r="C325" s="5"/>
@@ -5568,7 +5578,7 @@
       <c r="G325" s="5"/>
       <c r="H325" s="14"/>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" s="5"/>
       <c r="B326" s="5"/>
       <c r="C326" s="5"/>
@@ -5578,7 +5588,7 @@
       <c r="G326" s="5"/>
       <c r="H326" s="14"/>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" s="5"/>
       <c r="B327" s="5"/>
       <c r="C327" s="5"/>
@@ -5588,7 +5598,7 @@
       <c r="G327" s="5"/>
       <c r="H327" s="14"/>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" s="5"/>
       <c r="B328" s="5"/>
       <c r="C328" s="5"/>
@@ -5598,7 +5608,7 @@
       <c r="G328" s="5"/>
       <c r="H328" s="14"/>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" s="5"/>
       <c r="B329" s="5"/>
       <c r="C329" s="5"/>
@@ -5608,7 +5618,7 @@
       <c r="G329" s="5"/>
       <c r="H329" s="14"/>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330" s="5"/>
       <c r="B330" s="5"/>
       <c r="C330" s="5"/>
@@ -5618,7 +5628,7 @@
       <c r="G330" s="5"/>
       <c r="H330" s="14"/>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331" s="5"/>
       <c r="B331" s="5"/>
       <c r="C331" s="5"/>
@@ -5628,7 +5638,7 @@
       <c r="G331" s="5"/>
       <c r="H331" s="14"/>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332" s="5"/>
       <c r="B332" s="5"/>
       <c r="C332" s="5"/>
@@ -5638,7 +5648,7 @@
       <c r="G332" s="5"/>
       <c r="H332" s="14"/>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333" s="5"/>
       <c r="B333" s="5"/>
       <c r="C333" s="5"/>
@@ -5648,7 +5658,7 @@
       <c r="G333" s="5"/>
       <c r="H333" s="14"/>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" s="5"/>
       <c r="B334" s="5"/>
       <c r="C334" s="5"/>
@@ -5658,7 +5668,7 @@
       <c r="G334" s="5"/>
       <c r="H334" s="14"/>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" s="5"/>
       <c r="B335" s="5"/>
       <c r="C335" s="5"/>
@@ -5668,7 +5678,7 @@
       <c r="G335" s="5"/>
       <c r="H335" s="14"/>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" s="5"/>
       <c r="B336" s="5"/>
       <c r="C336" s="5"/>
@@ -5678,7 +5688,7 @@
       <c r="G336" s="5"/>
       <c r="H336" s="14"/>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" s="5"/>
       <c r="B337" s="5"/>
       <c r="C337" s="5"/>
@@ -5688,7 +5698,7 @@
       <c r="G337" s="5"/>
       <c r="H337" s="14"/>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338" s="5"/>
       <c r="B338" s="5"/>
       <c r="C338" s="5"/>
@@ -5698,7 +5708,7 @@
       <c r="G338" s="5"/>
       <c r="H338" s="14"/>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" s="5"/>
       <c r="B339" s="5"/>
       <c r="C339" s="5"/>
@@ -5708,7 +5718,7 @@
       <c r="G339" s="5"/>
       <c r="H339" s="14"/>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340" s="5"/>
       <c r="B340" s="5"/>
       <c r="C340" s="5"/>
@@ -5718,7 +5728,7 @@
       <c r="G340" s="5"/>
       <c r="H340" s="14"/>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341" s="5"/>
       <c r="B341" s="5"/>
       <c r="C341" s="5"/>
@@ -5728,7 +5738,7 @@
       <c r="G341" s="5"/>
       <c r="H341" s="14"/>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342" s="5"/>
       <c r="B342" s="5"/>
       <c r="C342" s="5"/>
@@ -5738,7 +5748,7 @@
       <c r="G342" s="5"/>
       <c r="H342" s="14"/>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" s="5"/>
       <c r="B343" s="5"/>
       <c r="C343" s="5"/>
@@ -5748,7 +5758,7 @@
       <c r="G343" s="5"/>
       <c r="H343" s="14"/>
     </row>
-    <row r="344" spans="1:8">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344" s="5"/>
       <c r="B344" s="5"/>
       <c r="C344" s="5"/>
@@ -5758,7 +5768,7 @@
       <c r="G344" s="5"/>
       <c r="H344" s="14"/>
     </row>
-    <row r="345" spans="1:8">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345" s="5"/>
       <c r="B345" s="5"/>
       <c r="C345" s="5"/>
@@ -5768,7 +5778,7 @@
       <c r="G345" s="5"/>
       <c r="H345" s="14"/>
     </row>
-    <row r="346" spans="1:8">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346" s="5"/>
       <c r="B346" s="5"/>
       <c r="C346" s="5"/>
@@ -5778,7 +5788,7 @@
       <c r="G346" s="5"/>
       <c r="H346" s="14"/>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347" s="5"/>
       <c r="B347" s="5"/>
       <c r="C347" s="5"/>
@@ -5788,7 +5798,7 @@
       <c r="G347" s="5"/>
       <c r="H347" s="14"/>
     </row>
-    <row r="348" spans="1:8">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348" s="5"/>
       <c r="B348" s="5"/>
       <c r="C348" s="5"/>
@@ -5798,7 +5808,7 @@
       <c r="G348" s="5"/>
       <c r="H348" s="14"/>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" s="5"/>
       <c r="B349" s="5"/>
       <c r="C349" s="5"/>
@@ -5808,7 +5818,7 @@
       <c r="G349" s="5"/>
       <c r="H349" s="14"/>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350" s="5"/>
       <c r="B350" s="5"/>
       <c r="C350" s="5"/>
@@ -5818,7 +5828,7 @@
       <c r="G350" s="5"/>
       <c r="H350" s="14"/>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351" s="5"/>
       <c r="B351" s="5"/>
       <c r="C351" s="5"/>
@@ -5828,7 +5838,7 @@
       <c r="G351" s="5"/>
       <c r="H351" s="14"/>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" s="5"/>
       <c r="B352" s="5"/>
       <c r="C352" s="5"/>
@@ -5838,7 +5848,7 @@
       <c r="G352" s="5"/>
       <c r="H352" s="14"/>
     </row>
-    <row r="353" spans="1:8">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" s="5"/>
       <c r="B353" s="5"/>
       <c r="C353" s="5"/>
@@ -5848,7 +5858,7 @@
       <c r="G353" s="5"/>
       <c r="H353" s="14"/>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354" s="5"/>
       <c r="B354" s="5"/>
       <c r="C354" s="5"/>
@@ -5858,7 +5868,7 @@
       <c r="G354" s="5"/>
       <c r="H354" s="14"/>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A355" s="5"/>
       <c r="B355" s="5"/>
       <c r="C355" s="5"/>
@@ -5868,7 +5878,7 @@
       <c r="G355" s="5"/>
       <c r="H355" s="14"/>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356" s="5"/>
       <c r="B356" s="5"/>
       <c r="C356" s="5"/>
@@ -5878,7 +5888,7 @@
       <c r="G356" s="5"/>
       <c r="H356" s="14"/>
     </row>
-    <row r="357" spans="1:8">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357" s="5"/>
       <c r="B357" s="5"/>
       <c r="C357" s="5"/>
@@ -5888,7 +5898,7 @@
       <c r="G357" s="5"/>
       <c r="H357" s="14"/>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358" s="5"/>
       <c r="B358" s="5"/>
       <c r="C358" s="5"/>
@@ -5898,7 +5908,7 @@
       <c r="G358" s="5"/>
       <c r="H358" s="14"/>
     </row>
-    <row r="359" spans="1:8">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359" s="5"/>
       <c r="B359" s="5"/>
       <c r="C359" s="5"/>
@@ -5908,7 +5918,7 @@
       <c r="G359" s="5"/>
       <c r="H359" s="14"/>
     </row>
-    <row r="360" spans="1:8">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" s="5"/>
       <c r="B360" s="5"/>
       <c r="C360" s="5"/>
@@ -5918,7 +5928,7 @@
       <c r="G360" s="5"/>
       <c r="H360" s="14"/>
     </row>
-    <row r="361" spans="1:8">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" s="5"/>
       <c r="B361" s="5"/>
       <c r="C361" s="5"/>
@@ -5928,7 +5938,7 @@
       <c r="G361" s="5"/>
       <c r="H361" s="14"/>
     </row>
-    <row r="362" spans="1:8">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" s="5"/>
       <c r="B362" s="5"/>
       <c r="C362" s="5"/>
@@ -5938,7 +5948,7 @@
       <c r="G362" s="5"/>
       <c r="H362" s="14"/>
     </row>
-    <row r="363" spans="1:8">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" s="5"/>
       <c r="B363" s="5"/>
       <c r="C363" s="5"/>
@@ -5948,7 +5958,7 @@
       <c r="G363" s="5"/>
       <c r="H363" s="14"/>
     </row>
-    <row r="364" spans="1:8">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" s="5"/>
       <c r="B364" s="5"/>
       <c r="C364" s="5"/>
@@ -5958,7 +5968,7 @@
       <c r="G364" s="5"/>
       <c r="H364" s="14"/>
     </row>
-    <row r="365" spans="1:8">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365" s="5"/>
       <c r="B365" s="5"/>
       <c r="C365" s="5"/>
@@ -5968,7 +5978,7 @@
       <c r="G365" s="5"/>
       <c r="H365" s="14"/>
     </row>
-    <row r="366" spans="1:8">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" s="5"/>
       <c r="B366" s="5"/>
       <c r="C366" s="5"/>
@@ -5978,7 +5988,7 @@
       <c r="G366" s="5"/>
       <c r="H366" s="14"/>
     </row>
-    <row r="367" spans="1:8">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367" s="5"/>
       <c r="B367" s="5"/>
       <c r="C367" s="5"/>
@@ -5988,7 +5998,7 @@
       <c r="G367" s="5"/>
       <c r="H367" s="14"/>
     </row>
-    <row r="368" spans="1:8">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A368" s="5"/>
       <c r="B368" s="5"/>
       <c r="C368" s="5"/>
@@ -5998,7 +6008,7 @@
       <c r="G368" s="5"/>
       <c r="H368" s="14"/>
     </row>
-    <row r="369" spans="1:8">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A369" s="5"/>
       <c r="B369" s="5"/>
       <c r="C369" s="5"/>
@@ -6008,7 +6018,7 @@
       <c r="G369" s="5"/>
       <c r="H369" s="14"/>
     </row>
-    <row r="370" spans="1:8">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A370" s="5"/>
       <c r="B370" s="5"/>
       <c r="C370" s="5"/>
@@ -6018,7 +6028,7 @@
       <c r="G370" s="5"/>
       <c r="H370" s="14"/>
     </row>
-    <row r="371" spans="1:8">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A371" s="5"/>
       <c r="B371" s="5"/>
       <c r="C371" s="5"/>
@@ -6028,7 +6038,7 @@
       <c r="G371" s="5"/>
       <c r="H371" s="14"/>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A372" s="5"/>
       <c r="B372" s="5"/>
       <c r="C372" s="5"/>
@@ -6038,7 +6048,7 @@
       <c r="G372" s="5"/>
       <c r="H372" s="14"/>
     </row>
-    <row r="373" spans="1:8">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A373" s="5"/>
       <c r="B373" s="5"/>
       <c r="C373" s="5"/>
@@ -6048,7 +6058,7 @@
       <c r="G373" s="5"/>
       <c r="H373" s="5"/>
     </row>
-    <row r="374" spans="1:8">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A374" s="5"/>
       <c r="B374" s="5"/>
       <c r="C374" s="5"/>
@@ -6058,7 +6068,7 @@
       <c r="G374" s="5"/>
       <c r="H374" s="5"/>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A375" s="5"/>
       <c r="B375" s="5"/>
       <c r="C375" s="5"/>
@@ -6068,7 +6078,7 @@
       <c r="G375" s="5"/>
       <c r="H375" s="5"/>
     </row>
-    <row r="376" spans="1:8">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A376" s="5"/>
       <c r="B376" s="5"/>
       <c r="C376" s="5"/>
@@ -6078,7 +6088,7 @@
       <c r="G376" s="5"/>
       <c r="H376" s="5"/>
     </row>
-    <row r="377" spans="1:8">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377" s="5"/>
       <c r="B377" s="5"/>
       <c r="C377" s="5"/>
@@ -6088,7 +6098,7 @@
       <c r="G377" s="5"/>
       <c r="H377" s="5"/>
     </row>
-    <row r="378" spans="1:8">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A378" s="5"/>
       <c r="B378" s="5"/>
       <c r="C378" s="5"/>
@@ -6098,7 +6108,7 @@
       <c r="G378" s="5"/>
       <c r="H378" s="5"/>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A379" s="5"/>
       <c r="B379" s="5"/>
       <c r="C379" s="5"/>
@@ -6108,7 +6118,7 @@
       <c r="G379" s="5"/>
       <c r="H379" s="5"/>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A380" s="5"/>
       <c r="B380" s="5"/>
       <c r="C380" s="5"/>
@@ -6118,7 +6128,7 @@
       <c r="G380" s="5"/>
       <c r="H380" s="5"/>
     </row>
-    <row r="381" spans="1:8">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A381" s="5"/>
       <c r="B381" s="5"/>
       <c r="C381" s="5"/>
@@ -6128,7 +6138,7 @@
       <c r="G381" s="5"/>
       <c r="H381" s="5"/>
     </row>
-    <row r="382" spans="1:8">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A382" s="5"/>
       <c r="B382" s="5"/>
       <c r="C382" s="5"/>
@@ -6138,7 +6148,7 @@
       <c r="G382" s="5"/>
       <c r="H382" s="5"/>
     </row>
-    <row r="383" spans="1:8">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A383" s="5"/>
       <c r="B383" s="5"/>
       <c r="C383" s="5"/>
@@ -6148,7 +6158,7 @@
       <c r="G383" s="5"/>
       <c r="H383" s="5"/>
     </row>
-    <row r="384" spans="1:8">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A384" s="5"/>
       <c r="B384" s="5"/>
       <c r="C384" s="5"/>
@@ -6158,7 +6168,7 @@
       <c r="G384" s="5"/>
       <c r="H384" s="5"/>
     </row>
-    <row r="385" spans="1:8">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A385" s="5"/>
       <c r="B385" s="5"/>
       <c r="C385" s="5"/>
@@ -6168,7 +6178,7 @@
       <c r="G385" s="5"/>
       <c r="H385" s="5"/>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A386" s="5"/>
       <c r="B386" s="5"/>
       <c r="C386" s="5"/>
@@ -6178,7 +6188,7 @@
       <c r="G386" s="5"/>
       <c r="H386" s="5"/>
     </row>
-    <row r="387" spans="1:8">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A387" s="5"/>
       <c r="B387" s="5"/>
       <c r="C387" s="5"/>
@@ -6188,7 +6198,7 @@
       <c r="G387" s="5"/>
       <c r="H387" s="5"/>
     </row>
-    <row r="388" spans="1:8">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A388" s="5"/>
       <c r="B388" s="5"/>
       <c r="C388" s="5"/>
@@ -6198,7 +6208,7 @@
       <c r="G388" s="5"/>
       <c r="H388" s="5"/>
     </row>
-    <row r="389" spans="1:8">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A389" s="5"/>
       <c r="B389" s="5"/>
       <c r="C389" s="5"/>
@@ -6208,7 +6218,7 @@
       <c r="G389" s="5"/>
       <c r="H389" s="5"/>
     </row>
-    <row r="390" spans="1:8">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A390" s="5"/>
       <c r="B390" s="5"/>
       <c r="C390" s="5"/>
@@ -6218,7 +6228,7 @@
       <c r="G390" s="5"/>
       <c r="H390" s="5"/>
     </row>
-    <row r="391" spans="1:8">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A391" s="5"/>
       <c r="B391" s="5"/>
       <c r="C391" s="5"/>
@@ -6228,7 +6238,7 @@
       <c r="G391" s="5"/>
       <c r="H391" s="5"/>
     </row>
-    <row r="392" spans="1:8">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A392" s="5"/>
       <c r="B392" s="5"/>
       <c r="C392" s="5"/>
@@ -6238,7 +6248,7 @@
       <c r="G392" s="5"/>
       <c r="H392" s="5"/>
     </row>
-    <row r="393" spans="1:8">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A393" s="5"/>
       <c r="B393" s="5"/>
       <c r="C393" s="5"/>
@@ -6248,7 +6258,7 @@
       <c r="G393" s="5"/>
       <c r="H393" s="5"/>
     </row>
-    <row r="394" spans="1:8">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A394" s="5"/>
       <c r="B394" s="5"/>
       <c r="C394" s="5"/>
@@ -6258,7 +6268,7 @@
       <c r="G394" s="5"/>
       <c r="H394" s="5"/>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A395" s="5"/>
       <c r="B395" s="5"/>
       <c r="C395" s="5"/>
@@ -6268,7 +6278,7 @@
       <c r="G395" s="5"/>
       <c r="H395" s="5"/>
     </row>
-    <row r="396" spans="1:8">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A396" s="5"/>
       <c r="B396" s="5"/>
       <c r="C396" s="5"/>
@@ -6278,7 +6288,7 @@
       <c r="G396" s="5"/>
       <c r="H396" s="5"/>
     </row>
-    <row r="397" spans="1:8">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A397" s="5"/>
       <c r="B397" s="5"/>
       <c r="C397" s="5"/>
@@ -6288,7 +6298,7 @@
       <c r="G397" s="5"/>
       <c r="H397" s="5"/>
     </row>
-    <row r="398" spans="1:8">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A398" s="5"/>
       <c r="B398" s="5"/>
       <c r="C398" s="5"/>
@@ -6298,7 +6308,7 @@
       <c r="G398" s="5"/>
       <c r="H398" s="5"/>
     </row>
-    <row r="399" spans="1:8">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A399" s="5"/>
       <c r="B399" s="5"/>
       <c r="C399" s="5"/>
@@ -6308,7 +6318,7 @@
       <c r="G399" s="5"/>
       <c r="H399" s="5"/>
     </row>
-    <row r="400" spans="1:8">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A400" s="5"/>
       <c r="B400" s="5"/>
       <c r="C400" s="5"/>
@@ -6318,7 +6328,7 @@
       <c r="G400" s="5"/>
       <c r="H400" s="5"/>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A401" s="5"/>
       <c r="B401" s="5"/>
       <c r="C401" s="5"/>
@@ -6328,7 +6338,7 @@
       <c r="G401" s="5"/>
       <c r="H401" s="5"/>
     </row>
-    <row r="402" spans="1:8">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A402" s="5"/>
       <c r="B402" s="5"/>
       <c r="C402" s="5"/>
@@ -6338,7 +6348,7 @@
       <c r="G402" s="5"/>
       <c r="H402" s="5"/>
     </row>
-    <row r="403" spans="1:8">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A403" s="5"/>
       <c r="B403" s="5"/>
       <c r="C403" s="5"/>
@@ -6348,7 +6358,7 @@
       <c r="G403" s="5"/>
       <c r="H403" s="5"/>
     </row>
-    <row r="404" spans="1:8">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A404" s="5"/>
       <c r="B404" s="5"/>
       <c r="C404" s="5"/>
@@ -6358,7 +6368,7 @@
       <c r="G404" s="5"/>
       <c r="H404" s="5"/>
     </row>
-    <row r="405" spans="1:8">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A405" s="5"/>
       <c r="B405" s="5"/>
       <c r="C405" s="5"/>
@@ -6368,7 +6378,7 @@
       <c r="G405" s="5"/>
       <c r="H405" s="5"/>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A406" s="5"/>
       <c r="B406" s="5"/>
       <c r="C406" s="5"/>
@@ -6378,7 +6388,7 @@
       <c r="G406" s="5"/>
       <c r="H406" s="5"/>
     </row>
-    <row r="407" spans="1:8">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A407" s="5"/>
       <c r="B407" s="5"/>
       <c r="C407" s="5"/>
@@ -6388,7 +6398,7 @@
       <c r="G407" s="5"/>
       <c r="H407" s="5"/>
     </row>
-    <row r="408" spans="1:8">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A408" s="5"/>
       <c r="B408" s="5"/>
       <c r="C408" s="5"/>
@@ -6398,7 +6408,7 @@
       <c r="G408" s="5"/>
       <c r="H408" s="5"/>
     </row>
-    <row r="409" spans="1:8">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A409" s="5"/>
       <c r="B409" s="5"/>
       <c r="C409" s="5"/>
@@ -6408,7 +6418,7 @@
       <c r="G409" s="5"/>
       <c r="H409" s="5"/>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A410" s="5"/>
       <c r="B410" s="5"/>
       <c r="C410" s="5"/>
@@ -6418,7 +6428,7 @@
       <c r="G410" s="5"/>
       <c r="H410" s="5"/>
     </row>
-    <row r="411" spans="1:8">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A411" s="5"/>
       <c r="B411" s="5"/>
       <c r="C411" s="5"/>
@@ -6428,7 +6438,7 @@
       <c r="G411" s="5"/>
       <c r="H411" s="5"/>
     </row>
-    <row r="412" spans="1:8">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A412" s="5"/>
       <c r="B412" s="5"/>
       <c r="C412" s="5"/>
@@ -6438,7 +6448,7 @@
       <c r="G412" s="5"/>
       <c r="H412" s="5"/>
     </row>
-    <row r="413" spans="1:8">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A413" s="5"/>
       <c r="B413" s="5"/>
       <c r="C413" s="5"/>
@@ -6448,7 +6458,7 @@
       <c r="G413" s="5"/>
       <c r="H413" s="5"/>
     </row>
-    <row r="414" spans="1:8">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A414" s="5"/>
       <c r="B414" s="5"/>
       <c r="C414" s="5"/>
@@ -6458,7 +6468,7 @@
       <c r="G414" s="5"/>
       <c r="H414" s="5"/>
     </row>
-    <row r="415" spans="1:8">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A415" s="5"/>
       <c r="B415" s="5"/>
       <c r="C415" s="5"/>
@@ -6468,7 +6478,7 @@
       <c r="G415" s="5"/>
       <c r="H415" s="5"/>
     </row>
-    <row r="416" spans="1:8">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A416" s="5"/>
       <c r="B416" s="5"/>
       <c r="C416" s="5"/>
@@ -6478,7 +6488,7 @@
       <c r="G416" s="5"/>
       <c r="H416" s="5"/>
     </row>
-    <row r="417" spans="1:8">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A417" s="5"/>
       <c r="B417" s="5"/>
       <c r="C417" s="5"/>
@@ -6488,7 +6498,7 @@
       <c r="G417" s="5"/>
       <c r="H417" s="5"/>
     </row>
-    <row r="418" spans="1:8">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A418" s="5"/>
       <c r="B418" s="5"/>
       <c r="C418" s="5"/>
@@ -6498,7 +6508,7 @@
       <c r="G418" s="5"/>
       <c r="H418" s="5"/>
     </row>
-    <row r="419" spans="1:8">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A419" s="5"/>
       <c r="B419" s="5"/>
       <c r="C419" s="5"/>
@@ -6508,7 +6518,7 @@
       <c r="G419" s="5"/>
       <c r="H419" s="5"/>
     </row>
-    <row r="420" spans="1:8">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A420" s="5"/>
       <c r="B420" s="5"/>
       <c r="C420" s="5"/>
@@ -6518,7 +6528,7 @@
       <c r="G420" s="5"/>
       <c r="H420" s="5"/>
     </row>
-    <row r="421" spans="1:8">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A421" s="5"/>
       <c r="B421" s="5"/>
       <c r="C421" s="5"/>
@@ -6528,7 +6538,7 @@
       <c r="G421" s="5"/>
       <c r="H421" s="5"/>
     </row>
-    <row r="422" spans="1:8">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A422" s="5"/>
       <c r="B422" s="5"/>
       <c r="C422" s="5"/>
@@ -6538,7 +6548,7 @@
       <c r="G422" s="5"/>
       <c r="H422" s="5"/>
     </row>
-    <row r="423" spans="1:8">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A423" s="5"/>
       <c r="B423" s="5"/>
       <c r="C423" s="5"/>
@@ -6548,7 +6558,7 @@
       <c r="G423" s="5"/>
       <c r="H423" s="5"/>
     </row>
-    <row r="424" spans="1:8">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A424" s="5"/>
       <c r="B424" s="5"/>
       <c r="C424" s="5"/>
@@ -6558,7 +6568,7 @@
       <c r="G424" s="5"/>
       <c r="H424" s="5"/>
     </row>
-    <row r="425" spans="1:8">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A425" s="5"/>
       <c r="B425" s="5"/>
       <c r="C425" s="5"/>
@@ -6568,7 +6578,7 @@
       <c r="G425" s="5"/>
       <c r="H425" s="5"/>
     </row>
-    <row r="426" spans="1:8">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A426" s="5"/>
       <c r="B426" s="5"/>
       <c r="C426" s="5"/>
@@ -6578,7 +6588,7 @@
       <c r="G426" s="5"/>
       <c r="H426" s="5"/>
     </row>
-    <row r="427" spans="1:8">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A427" s="5"/>
       <c r="B427" s="5"/>
       <c r="C427" s="5"/>
@@ -6588,7 +6598,7 @@
       <c r="G427" s="5"/>
       <c r="H427" s="5"/>
     </row>
-    <row r="428" spans="1:8">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A428" s="5"/>
       <c r="B428" s="5"/>
       <c r="C428" s="5"/>
@@ -6598,7 +6608,7 @@
       <c r="G428" s="5"/>
       <c r="H428" s="5"/>
     </row>
-    <row r="429" spans="1:8">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A429" s="5"/>
       <c r="B429" s="5"/>
       <c r="C429" s="5"/>
@@ -6608,7 +6618,7 @@
       <c r="G429" s="5"/>
       <c r="H429" s="5"/>
     </row>
-    <row r="430" spans="1:8">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A430" s="5"/>
       <c r="B430" s="5"/>
       <c r="C430" s="5"/>
@@ -6618,7 +6628,7 @@
       <c r="G430" s="5"/>
       <c r="H430" s="5"/>
     </row>
-    <row r="431" spans="1:8">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A431" s="5"/>
       <c r="B431" s="5"/>
       <c r="C431" s="5"/>
@@ -6628,7 +6638,7 @@
       <c r="G431" s="5"/>
       <c r="H431" s="5"/>
     </row>
-    <row r="432" spans="1:8">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A432" s="5"/>
       <c r="B432" s="5"/>
       <c r="C432" s="5"/>

--- a/planning.xlsx
+++ b/planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/Misc/Hiking/PCT-Washington-2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF9CB14-AA3D-4F48-B8BE-41F010201DC0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00499D31-221A-4742-ACE7-6112BBE3DEBF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16100" xr2:uid="{CF50ADE5-3FE7-1D4A-B7E6-9F2C5F6DE96F}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="137">
   <si>
     <t>Gear Checklist</t>
   </si>
@@ -65,18 +65,12 @@
     <t>Whistle?</t>
   </si>
   <si>
-    <t>Multifunction watch?</t>
-  </si>
-  <si>
     <t>Multi-tool / Knife</t>
   </si>
   <si>
     <t>Compass</t>
   </si>
   <si>
-    <t>GPS?</t>
-  </si>
-  <si>
     <t>Maps / Guidebooks</t>
   </si>
   <si>
@@ -92,9 +86,6 @@
     <t>Water filter and backup treatment</t>
   </si>
   <si>
-    <t>I think there are a few options with this. Filter, uv light pen, and as a backup iodine drops or something</t>
-  </si>
-  <si>
     <t>Stove, fuel. repair kit?</t>
   </si>
   <si>
@@ -116,9 +107,6 @@
     <t>Clothing</t>
   </si>
   <si>
-    <t>Most clothing should be quick drying</t>
-  </si>
-  <si>
     <t>Underwear</t>
   </si>
   <si>
@@ -158,18 +146,12 @@
     <t>Socks Socks Socks (synth. / wool)</t>
   </si>
   <si>
-    <t>Sandals?</t>
-  </si>
-  <si>
     <t>Personal</t>
   </si>
   <si>
     <t>Sunglasses</t>
   </si>
   <si>
-    <t>Need to do research on amount / and will need to research best waterbottles. I read those smartwater bottles are good, since they are cheap and lightweight.</t>
-  </si>
-  <si>
     <t>Sunscreen</t>
   </si>
   <si>
@@ -299,9 +281,6 @@
     <t>Does a swiss army knife count? Or should I bring just knife?</t>
   </si>
   <si>
-    <t>Not sure what kind of hat to get.</t>
-  </si>
-  <si>
     <t>John lennon glasses?</t>
   </si>
   <si>
@@ -404,9 +383,6 @@
     <t xml:space="preserve">easy </t>
   </si>
   <si>
-    <t>eh, why?? Just look at sun for the time. And who cares about elevation</t>
-  </si>
-  <si>
     <t>but with what?</t>
   </si>
   <si>
@@ -449,10 +425,22 @@
     <t>Cell Phone w/ battery pack</t>
   </si>
   <si>
-    <t>Share</t>
-  </si>
-  <si>
     <t>nik wax? Green bottle, purple bottle,https://www.amazon.com/Nikwax-Hardshell-Clean-Waterproof-DUO-Pack/dp/B000PGOOIS/ref=sr_1_3?ie=UTF8&amp;qid=1522994949&amp;sr=8-3&amp;keywords=nikwax+tech+wash&amp;dpID=419xpgfj%252B9L&amp;preST=_SY300_QL70_&amp;dpSrc=srch</t>
+  </si>
+  <si>
+    <t>Platypus Gravity Bag</t>
+  </si>
+  <si>
+    <t>https://www.rei.com/product/891827/exofficio-give-n-go-boxer-briefs-mens?cm_mmc=aff_AL-_-147666-_-183186-_-NA&amp;avad=183186_d1195fe9d</t>
+  </si>
+  <si>
+    <t>Sandals / flip flops?</t>
+  </si>
+  <si>
+    <t>https://www.rei.com/product/115832/hydrapak-seeker-2l-collapsible-water-container-676-fl-oz?cm_mmc=aff_AL-_-147666-_-183186-_-NA&amp;avad=183186_f1197c005</t>
+  </si>
+  <si>
+    <t>https://www.rei.com/product/131611/thetentlab-the-deuce-of-spades-backcountry-potty-trowel-2?cm_mmc=aff_AL-_-147666-_-183186-_-NA&amp;avad=183186_d11961705</t>
   </si>
 </sst>
 </file>
@@ -942,11 +930,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97FA1BDE-B68C-E347-BE16-DAED235BDF32}">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+      <pane ySplit="2" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -975,13 +963,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1027,7 +1015,9 @@
         <v>7</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1038,7 +1028,9 @@
         <v>8</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1049,7 +1041,9 @@
         <v>9</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="D8" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1057,10 +1051,12 @@
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="D9" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1068,10 +1064,12 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="D10" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1079,16 +1077,16 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D11" s="6" t="b">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1096,7 +1094,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="6" t="b">
         <v>1</v>
@@ -1109,27 +1107,29 @@
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="b">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="D14" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="E14" s="13" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1137,16 +1137,16 @@
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1154,11 +1154,11 @@
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E16" s="2"/>
     </row>
@@ -1167,7 +1167,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -1178,7 +1178,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6" t="b">
@@ -1191,103 +1191,99 @@
         <v>3</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>10</v>
+      <c r="B20" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="2" t="s">
-        <v>124</v>
-      </c>
+    <row r="21" spans="1:5" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="4"/>
+      <c r="E22" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C24" s="6"/>
-      <c r="D24" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="D25" s="6" t="b">
-        <v>1</v>
-      </c>
+      <c r="D25" s="6"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C26" s="6"/>
-      <c r="D26" s="6" t="b">
-        <v>1</v>
-      </c>
+      <c r="D26" s="6"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C27" s="6" t="b">
         <v>1</v>
@@ -1297,55 +1293,59 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="6" t="b">
+        <v>32</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6" t="b">
         <v>1</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>85</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>85</v>
+        <v>33</v>
+      </c>
+      <c r="C30" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="D30" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>140</v>
-      </c>
+      <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="C31" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="D31" s="6" t="b">
         <v>1</v>
       </c>
@@ -1353,143 +1353,133 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C32" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="D32" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C33" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C34" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="6" t="b">
-        <v>0</v>
+        <v>134</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D35" s="6" t="b">
         <v>0</v>
       </c>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D36" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E36" s="2"/>
+    <row r="36" spans="1:5" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" s="6" t="b">
+        <v>39</v>
+      </c>
+      <c r="C37" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="4"/>
+      <c r="E38" s="13" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D40" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>45</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -1497,10 +1487,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -1508,10 +1498,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -1519,56 +1509,58 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
-      <c r="E44" s="2"/>
+      <c r="E44" s="2" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>52</v>
+      <c r="A46" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="2" t="s">
-        <v>139</v>
-      </c>
+      <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>53</v>
+      <c r="A47" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
-      <c r="E47" s="2"/>
+      <c r="E47" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -1576,23 +1568,23 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="6"/>
+        <v>52</v>
+      </c>
+      <c r="C49" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="D49" s="6"/>
-      <c r="E49" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -1600,23 +1592,21 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" s="6" t="b">
-        <v>1</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -1624,21 +1614,23 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
+      <c r="D53" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -1646,120 +1638,110 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="6" t="b">
-        <v>1</v>
-      </c>
+      <c r="D55" s="6"/>
       <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
+        <v>58</v>
+      </c>
+      <c r="C56" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="E56" s="2"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="C57" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D57" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C58" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D58" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E58" s="2"/>
+    <row r="58" spans="1:5" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C59" s="6" t="b">
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C59" s="6"/>
       <c r="D59" s="6" t="b">
         <v>0</v>
       </c>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:5" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="4"/>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="2"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E61" s="2"/>
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="5"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="2"/>
+      <c r="A62" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="5"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="5"/>
+      <c r="A63" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="B63" s="5"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="E63" s="5"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="11" t="s">
-        <v>87</v>
-      </c>
+      <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
       <c r="E64" s="5"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="5" t="s">
-        <v>86</v>
-      </c>
+      <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -1822,18 +1804,12 @@
       <c r="E73" s="5"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="5"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="5"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C76" s="9"/>
@@ -1934,20 +1910,12 @@
     <row r="100" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
-    </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-    </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3:D62">
+  <conditionalFormatting sqref="C3:D60">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",C3)))</formula>
     </cfRule>
@@ -1959,7 +1927,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A64" r:id="rId1" xr:uid="{87FDAD87-FB61-6E4A-93AF-F55DE598C695}"/>
+    <hyperlink ref="A62" r:id="rId1" xr:uid="{87FDAD87-FB61-6E4A-93AF-F55DE598C695}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1982,11 +1950,11 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B1" s="16"/>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1994,127 +1962,127 @@
         <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -2159,7 +2127,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -2167,21 +2135,21 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1" t="b">
         <v>1</v>
@@ -2193,22 +2161,22 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2231,7 +2199,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2251,21 +2219,21 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="K1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2293,7 +2261,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -2305,33 +2273,33 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>104</v>
-      </c>
       <c r="H2" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -2349,10 +2317,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2557,7 +2525,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -2569,7 +2537,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>

--- a/planning.xlsx
+++ b/planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/Misc/Hiking/PCT-Washington-2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00499D31-221A-4742-ACE7-6112BBE3DEBF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83A0BC9-9E16-2F49-9CD1-52382645786D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16100" xr2:uid="{CF50ADE5-3FE7-1D4A-B7E6-9F2C5F6DE96F}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="139">
   <si>
     <t>Gear Checklist</t>
   </si>
@@ -278,9 +278,6 @@
     <t>https://www.rei.com/blog/travel/pacific-crest-trail-backpacking-gear-list</t>
   </si>
   <si>
-    <t>Does a swiss army knife count? Or should I bring just knife?</t>
-  </si>
-  <si>
     <t>John lennon glasses?</t>
   </si>
   <si>
@@ -441,6 +438,15 @@
   </si>
   <si>
     <t>https://www.rei.com/product/131611/thetentlab-the-deuce-of-spades-backcountry-potty-trowel-2?cm_mmc=aff_AL-_-147666-_-183186-_-NA&amp;avad=183186_d11961705</t>
+  </si>
+  <si>
+    <t>Nail Clippers?</t>
+  </si>
+  <si>
+    <t>Do I need anything other than my cup/bowl thing and a spork?</t>
+  </si>
+  <si>
+    <t>swiss army knife</t>
   </si>
 </sst>
 </file>
@@ -537,7 +543,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -580,10 +586,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -930,11 +939,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97FA1BDE-B68C-E347-BE16-DAED235BDF32}">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -947,13 +956,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -1086,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1129,7 +1138,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1170,8 +1179,12 @@
         <v>21</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="2"/>
+      <c r="D17" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
@@ -1225,7 +1238,7 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1288,7 +1301,9 @@
       <c r="C27" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="D27" s="6"/>
+      <c r="D27" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1305,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1401,7 +1416,7 @@
         <v>24</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>79</v>
@@ -1432,7 +1447,7 @@
         <v>79</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1449,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1501,7 +1516,7 @@
         <v>38</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -1512,31 +1527,31 @@
         <v>38</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
-      <c r="E44" s="2" t="s">
-        <v>136</v>
-      </c>
+      <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="2"/>
+      <c r="E45" s="18" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>48</v>
+      <c r="B46" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -1547,35 +1562,33 @@
         <v>38</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
-      <c r="E47" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
-      <c r="E48" s="2"/>
+      <c r="E48" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" s="6" t="b">
-        <v>1</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="2"/>
     </row>
@@ -1584,9 +1597,11 @@
         <v>38</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" s="6"/>
+        <v>52</v>
+      </c>
+      <c r="C50" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="D50" s="6"/>
       <c r="E50" s="2"/>
     </row>
@@ -1595,7 +1610,7 @@
         <v>38</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -1606,7 +1621,7 @@
         <v>38</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -1617,12 +1632,10 @@
         <v>38</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="6" t="b">
-        <v>1</v>
-      </c>
+      <c r="D53" s="6"/>
       <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -1630,10 +1643,12 @@
         <v>38</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
+      <c r="D54" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -1641,7 +1656,7 @@
         <v>38</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -1652,14 +1667,10 @@
         <v>38</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C56" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D56" s="6" t="b">
-        <v>1</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
       <c r="E56" s="2"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -1667,66 +1678,72 @@
         <v>38</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D57" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="6" t="b">
+      <c r="C58" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D57" s="6" t="b">
+      <c r="D58" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:5" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="4"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E59" s="2"/>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:5" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="5"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="2"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="11" t="s">
-        <v>81</v>
-      </c>
+      <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="E62" s="5"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="5" t="s">
-        <v>80</v>
+      <c r="A63" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="8"/>
@@ -1734,7 +1751,9 @@
       <c r="E63" s="5"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="5"/>
+      <c r="A64" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="B64" s="5"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -1804,8 +1823,11 @@
       <c r="E73" s="5"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="5"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C75" s="9"/>
@@ -1910,12 +1932,16 @@
     <row r="100" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
+    </row>
+    <row r="101" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3:D60">
+  <conditionalFormatting sqref="C3:D61">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",C3)))</formula>
     </cfRule>
@@ -1927,7 +1953,8 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A62" r:id="rId1" xr:uid="{87FDAD87-FB61-6E4A-93AF-F55DE598C695}"/>
+    <hyperlink ref="A63" r:id="rId1" xr:uid="{87FDAD87-FB61-6E4A-93AF-F55DE598C695}"/>
+    <hyperlink ref="E45" r:id="rId2" xr:uid="{28DA9434-2768-C94C-A011-47BAAD650C66}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1949,10 +1976,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="16"/>
+      <c r="A1" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="17"/>
       <c r="D1" t="s">
         <v>75</v>
       </c>
@@ -1970,10 +1997,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="D3" t="s">
         <v>66</v>
@@ -1981,10 +2008,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="D4" t="s">
         <v>67</v>
@@ -1992,10 +2019,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="D5" t="s">
         <v>76</v>
@@ -2003,86 +2030,86 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>121</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -2126,12 +2153,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -2199,7 +2226,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2219,21 +2246,21 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" t="s">
         <v>123</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>124</v>
-      </c>
-      <c r="K1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" t="s">
         <v>127</v>
-      </c>
-      <c r="F2" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2260,38 +2287,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="A1" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>96</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>97</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>14</v>
@@ -2299,7 +2326,7 @@
     </row>
     <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -2317,10 +2344,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2525,7 +2552,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -2537,7 +2564,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>

--- a/planning.xlsx
+++ b/planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/Misc/Hiking/PCT-Washington-2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83A0BC9-9E16-2F49-9CD1-52382645786D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DE0A6B-DA46-4B4E-A97F-A3A288F897CA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16100" xr2:uid="{CF50ADE5-3FE7-1D4A-B7E6-9F2C5F6DE96F}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Other" sheetId="6" r:id="rId5"/>
     <sheet name="Sample Itinerary" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="145">
   <si>
     <t>Gear Checklist</t>
   </si>
@@ -158,9 +158,6 @@
     <t>Burts Bees</t>
   </si>
   <si>
-    <t>Toothbrush w/ bio toothpaste</t>
-  </si>
-  <si>
     <t>Toilet Paper</t>
   </si>
   <si>
@@ -179,9 +176,6 @@
     <t>Wipes?</t>
   </si>
   <si>
-    <t>Forget why these are important but they are.</t>
-  </si>
-  <si>
     <t>Ziplock bags</t>
   </si>
   <si>
@@ -194,12 +188,6 @@
     <t>First-Aid Kit</t>
   </si>
   <si>
-    <t>Towel / Rag?</t>
-  </si>
-  <si>
-    <t>Camera?</t>
-  </si>
-  <si>
     <t>Journal, Pen, Book, etc.</t>
   </si>
   <si>
@@ -218,9 +206,6 @@
     <t>Traction Spikes</t>
   </si>
   <si>
-    <t>Gaiters?</t>
-  </si>
-  <si>
     <t>Marcel Checklist</t>
   </si>
   <si>
@@ -278,9 +263,6 @@
     <t>https://www.rei.com/blog/travel/pacific-crest-trail-backpacking-gear-list</t>
   </si>
   <si>
-    <t>John lennon glasses?</t>
-  </si>
-  <si>
     <t>Good Food Items Brainstorm</t>
   </si>
   <si>
@@ -419,9 +401,6 @@
     <t>Powder Supplements</t>
   </si>
   <si>
-    <t>Cell Phone w/ battery pack</t>
-  </si>
-  <si>
     <t>nik wax? Green bottle, purple bottle,https://www.amazon.com/Nikwax-Hardshell-Clean-Waterproof-DUO-Pack/dp/B000PGOOIS/ref=sr_1_3?ie=UTF8&amp;qid=1522994949&amp;sr=8-3&amp;keywords=nikwax+tech+wash&amp;dpID=419xpgfj%252B9L&amp;preST=_SY300_QL70_&amp;dpSrc=srch</t>
   </si>
   <si>
@@ -443,10 +422,49 @@
     <t>Nail Clippers?</t>
   </si>
   <si>
-    <t>Do I need anything other than my cup/bowl thing and a spork?</t>
-  </si>
-  <si>
     <t>swiss army knife</t>
+  </si>
+  <si>
+    <t>Weight (oz)</t>
+  </si>
+  <si>
+    <t>Rag</t>
+  </si>
+  <si>
+    <t>One for trash, one for tp, and others for organization maybe</t>
+  </si>
+  <si>
+    <t>3/4 of a charmin roll</t>
+  </si>
+  <si>
+    <t>Can use ziplock for cash. credit cards. Id, instead of full wallet</t>
+  </si>
+  <si>
+    <t>Toothbrush, toothpaste, floss</t>
+  </si>
+  <si>
+    <t>(target: &lt; 20 lbs) (factor in shared items like stove and water filter)</t>
+  </si>
+  <si>
+    <t>18 ounces, but in base weight calc, I guess you exclude</t>
+  </si>
+  <si>
+    <t>only count extras for base weight calc.</t>
+  </si>
+  <si>
+    <t>Estimate</t>
+  </si>
+  <si>
+    <t>Cell Phone, battery pack, charging cords</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>need to find mini one</t>
+  </si>
+  <si>
+    <t>Bear Bag</t>
   </si>
 </sst>
 </file>
@@ -543,7 +561,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -587,11 +605,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -939,11 +960,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97FA1BDE-B68C-E347-BE16-DAED235BDF32}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -951,20 +972,24 @@
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
     <col min="2" max="2" width="29.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -972,16 +997,22 @@
         <v>2</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -990,9 +1021,15 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6">
+        <v>48</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1001,9 +1038,13 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1011,12 +1052,16 @@
         <v>6</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="6" t="b">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="6">
+        <v>60</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1024,12 +1069,16 @@
         <v>7</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="6" t="b">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="6">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -1037,12 +1086,16 @@
         <v>8</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="6" t="b">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="6">
+        <v>22</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -1050,12 +1103,16 @@
         <v>9</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="6" t="b">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="6">
+        <v>16</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -1063,12 +1120,18 @@
         <v>15</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="6" t="b">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -1076,12 +1139,16 @@
         <v>16</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="6" t="b">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="6">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -1089,16 +1156,20 @@
         <v>11</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="6" t="b">
+        <v>73</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="6">
+        <v>5</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
@@ -1109,9 +1180,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E12" s="6"/>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
@@ -1119,14 +1194,18 @@
         <v>13</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="6" t="b">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -1134,14 +1213,18 @@
         <v>17</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="6" t="b">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
@@ -1149,16 +1232,20 @@
         <v>18</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
@@ -1166,12 +1253,16 @@
         <v>20</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
@@ -1179,14 +1270,16 @@
         <v>21</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6">
+        <v>6</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
@@ -1194,754 +1287,1007 @@
         <v>22</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="6" t="b">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="6">
+        <v>4</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>23</v>
+      <c r="B20" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="E20" s="6"/>
+      <c r="F20" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6">
+        <v>2</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D23" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6">
+        <v>2</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="C24" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="D24" s="6"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E24" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6">
+        <v>4</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="6" t="b">
-        <v>1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C25" s="6"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E25" s="6"/>
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="C26" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="D26" s="6"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E26" s="6"/>
+      <c r="F26" s="6">
+        <v>13.6</v>
+      </c>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D27" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="6" t="b">
+        <v>30</v>
+      </c>
+      <c r="C28" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" s="6">
+        <v>7.6</v>
+      </c>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6" t="b">
+        <v>31</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" s="6">
+        <v>13</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="6" t="b">
+        <v>32</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="D30" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="D31" s="6" t="b">
+      <c r="D31" s="6"/>
+      <c r="E31" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" s="6">
+        <v>2</v>
+      </c>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="D32" s="6" t="b">
+      <c r="D32" s="6"/>
+      <c r="E32" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" s="6">
+        <v>2</v>
+      </c>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D33" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" s="6">
+        <v>2</v>
+      </c>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D34" s="6" t="b">
+      <c r="D34" s="6"/>
+      <c r="E34" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" s="6">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="6" t="b">
+        <v>37</v>
+      </c>
+      <c r="C35" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D35" s="6"/>
+      <c r="E35" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="6">
+        <v>2</v>
+      </c>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" s="6">
+        <v>6</v>
+      </c>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C38" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="D38" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D38" s="6"/>
+      <c r="E38" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="6">
+        <v>4</v>
+      </c>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="C39" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="D39" s="6"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E39" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E40" s="6"/>
+      <c r="F40" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E41" s="6"/>
+      <c r="F41" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E42" s="6"/>
+      <c r="F42" s="6">
+        <v>1.35</v>
+      </c>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E43" s="6"/>
+      <c r="F43" s="6">
+        <v>3</v>
+      </c>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E44" s="6"/>
+      <c r="F44" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="18" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E45" s="6"/>
+      <c r="F45" s="6">
+        <v>5</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
+      <c r="E46" s="6"/>
+      <c r="F46" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>48</v>
+      <c r="B47" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E47" s="6"/>
+      <c r="F47" s="6">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
-      <c r="E48" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E48" s="6"/>
+      <c r="F48" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E49" s="6"/>
+      <c r="F49" s="6">
+        <v>1</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50" s="6" t="b">
-        <v>1</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C50" s="6"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E50" s="6"/>
+      <c r="F50" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="C51" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="D51" s="6"/>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E51" s="6"/>
+      <c r="F51" s="6">
+        <v>0</v>
+      </c>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E52" s="6"/>
+      <c r="F52" s="6">
+        <v>5</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E53" s="6"/>
+      <c r="F53" s="6">
+        <v>2</v>
+      </c>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="6" t="b">
+      <c r="D54" s="6"/>
+      <c r="E54" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" s="6">
+        <v>16</v>
+      </c>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E55" s="6"/>
+      <c r="F55" s="6">
+        <v>12</v>
+      </c>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E56" s="6"/>
+      <c r="F56" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C57" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="D57" s="6" t="b">
+      <c r="D57" s="6"/>
+      <c r="E57" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57" s="6">
+        <v>0</v>
+      </c>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C58" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D58" s="6" t="b">
+      <c r="D58" s="6"/>
+      <c r="E58" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="1:5" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F58" s="6">
+        <v>0</v>
+      </c>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="1:7" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
-      <c r="E59" s="4"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="6" t="b">
+      <c r="D60" s="6"/>
+      <c r="E60" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="5"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8">
+        <f>SUM(D3:D60)</f>
+        <v>0</v>
+      </c>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8">
+        <f>SUM(F3:F60)</f>
+        <v>305.50000000000006</v>
+      </c>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="B62" s="5"/>
       <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="5"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="11" t="s">
-        <v>81</v>
+      <c r="D62" s="8">
+        <f>D61/16</f>
+        <v>0</v>
+      </c>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8">
+        <f>F61/16</f>
+        <v>19.093750000000004</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
-      <c r="E63" s="5"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="5" t="s">
-        <v>80</v>
-      </c>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
-      <c r="E64" s="5"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="5"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
-      <c r="E66" s="5"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
-      <c r="E67" s="5"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
-      <c r="E68" s="5"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="5"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
-      <c r="E69" s="5"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
-      <c r="E70" s="5"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="5"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
-      <c r="E71" s="5"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="5"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
-      <c r="E72" s="5"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="5"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
-      <c r="E73" s="5"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="5"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="5"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
-    </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+    </row>
+    <row r="83" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
-    </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+    </row>
+    <row r="84" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
-    </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+    </row>
+    <row r="85" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
-    </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+    </row>
+    <row r="86" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
-    </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+    </row>
+    <row r="87" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
-    </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+    </row>
+    <row r="88" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
-    </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+    </row>
+    <row r="89" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
-    </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+    </row>
+    <row r="90" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
-    </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+    </row>
+    <row r="91" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
-    </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+    </row>
+    <row r="92" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
-    </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+    </row>
+    <row r="93" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
-    </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+    </row>
+    <row r="94" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
-    </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+    </row>
+    <row r="95" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
-    </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+    </row>
+    <row r="96" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
-    </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+    </row>
+    <row r="97" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
-    </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+    </row>
+    <row r="98" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
-    </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+    </row>
+    <row r="99" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
-    </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+    </row>
+    <row r="100" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
-    </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3:D61">
+  <conditionalFormatting sqref="C3:F60">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",C3)))</formula>
     </cfRule>
@@ -1953,8 +2299,9 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A63" r:id="rId1" xr:uid="{87FDAD87-FB61-6E4A-93AF-F55DE598C695}"/>
-    <hyperlink ref="E45" r:id="rId2" xr:uid="{28DA9434-2768-C94C-A011-47BAAD650C66}"/>
+    <hyperlink ref="A62" r:id="rId1" xr:uid="{87FDAD87-FB61-6E4A-93AF-F55DE598C695}"/>
+    <hyperlink ref="G46" r:id="rId2" xr:uid="{28DA9434-2768-C94C-A011-47BAAD650C66}"/>
+    <hyperlink ref="G39" r:id="rId3" xr:uid="{ECB886B1-0004-A64A-8472-FFE40EB93EA0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1976,12 +2323,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="17"/>
+      <c r="A1" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="18"/>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1992,124 +2339,124 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -2153,22 +2500,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="A1" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>14</v>
@@ -2176,7 +2523,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1" t="b">
         <v>1</v>
@@ -2188,22 +2535,22 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2226,7 +2573,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2246,21 +2593,21 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="K1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2287,38 +2634,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="A1" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="D2" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>90</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>96</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>14</v>
@@ -2326,7 +2673,7 @@
     </row>
     <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -2344,10 +2691,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2552,7 +2899,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -2564,7 +2911,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>

--- a/planning.xlsx
+++ b/planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/Misc/Hiking/PCT-Washington-2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DE0A6B-DA46-4B4E-A97F-A3A288F897CA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A0470C-662D-BB46-ADE9-A8B1DB4F7996}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16100" xr2:uid="{CF50ADE5-3FE7-1D4A-B7E6-9F2C5F6DE96F}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="145">
   <si>
     <t>Gear Checklist</t>
   </si>
@@ -404,9 +404,6 @@
     <t>nik wax? Green bottle, purple bottle,https://www.amazon.com/Nikwax-Hardshell-Clean-Waterproof-DUO-Pack/dp/B000PGOOIS/ref=sr_1_3?ie=UTF8&amp;qid=1522994949&amp;sr=8-3&amp;keywords=nikwax+tech+wash&amp;dpID=419xpgfj%252B9L&amp;preST=_SY300_QL70_&amp;dpSrc=srch</t>
   </si>
   <si>
-    <t>Platypus Gravity Bag</t>
-  </si>
-  <si>
     <t>https://www.rei.com/product/891827/exofficio-give-n-go-boxer-briefs-mens?cm_mmc=aff_AL-_-147666-_-183186-_-NA&amp;avad=183186_d1195fe9d</t>
   </si>
   <si>
@@ -446,15 +443,9 @@
     <t>(target: &lt; 20 lbs) (factor in shared items like stove and water filter)</t>
   </si>
   <si>
-    <t>18 ounces, but in base weight calc, I guess you exclude</t>
-  </si>
-  <si>
     <t>only count extras for base weight calc.</t>
   </si>
   <si>
-    <t>Estimate</t>
-  </si>
-  <si>
     <t>Cell Phone, battery pack, charging cords</t>
   </si>
   <si>
@@ -465,6 +456,15 @@
   </si>
   <si>
     <t>Bear Bag</t>
+  </si>
+  <si>
+    <t>https://www.backcountry.com/adventure-medical-ultralight-watertight-.7-first-aid-kit?skid=AMK001M-ONECOL-S09KIT&amp;ti=UExQIENhdDpGaXJzdCBBaWQ6MToxOmJjLWZpcnN0LWFpZA==</t>
+  </si>
+  <si>
+    <t>3 pairs, plus sleeping socks?</t>
+  </si>
+  <si>
+    <t>Platypus Gravity Bag, minus clean water bag</t>
   </si>
 </sst>
 </file>
@@ -608,18 +608,48 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -964,7 +994,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -979,15 +1009,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -1000,13 +1030,13 @@
         <v>58</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>59</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>14</v>
@@ -1026,7 +1056,7 @@
         <v>48</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1125,11 +1155,9 @@
         <v>1</v>
       </c>
       <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>138</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -1166,7 +1194,7 @@
         <v>5</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1218,10 +1246,10 @@
         <v>1</v>
       </c>
       <c r="F14" s="6">
-        <v>11.5</v>
+        <v>8.5</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1254,9 +1282,7 @@
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="6" t="s">
-        <v>74</v>
-      </c>
+      <c r="E16" s="6"/>
       <c r="F16" s="6">
         <v>0.5</v>
       </c>
@@ -1301,7 +1327,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -1338,7 +1364,7 @@
         <v>2</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="8" customHeight="1" x14ac:dyDescent="0.2">
@@ -1363,8 +1389,8 @@
       <c r="F23" s="6">
         <v>2</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>125</v>
+      <c r="G23" s="17" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1385,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1416,7 +1442,7 @@
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6">
-        <v>13.6</v>
+        <v>10.7</v>
       </c>
       <c r="G26" s="2"/>
     </row>
@@ -1583,16 +1609,18 @@
         <v>0</v>
       </c>
       <c r="F35" s="6">
-        <v>2</v>
-      </c>
-      <c r="G35" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>74</v>
@@ -1651,8 +1679,8 @@
       <c r="F39" s="6">
         <v>3.9</v>
       </c>
-      <c r="G39" s="19" t="s">
-        <v>127</v>
+      <c r="G39" s="18" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -1666,7 +1694,7 @@
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="G40" s="2"/>
     </row>
@@ -1690,7 +1718,7 @@
         <v>38</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -1720,7 +1748,7 @@
         <v>38</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -1744,7 +1772,7 @@
         <v>5</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -1761,7 +1789,7 @@
         <v>0.6</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -1775,7 +1803,7 @@
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G47" s="2"/>
     </row>
@@ -1808,7 +1836,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -1854,10 +1882,10 @@
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6">
-        <v>5</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -1865,7 +1893,7 @@
         <v>38</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -1880,7 +1908,7 @@
         <v>38</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -1921,7 +1949,7 @@
         <v>0.2</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -1997,7 +2025,7 @@
       <c r="E61" s="8"/>
       <c r="F61" s="8">
         <f>SUM(F3:F60)</f>
-        <v>305.50000000000006</v>
+        <v>318.41999999999996</v>
       </c>
       <c r="G61" s="5"/>
     </row>
@@ -2014,10 +2042,10 @@
       <c r="E62" s="8"/>
       <c r="F62" s="8">
         <f>F61/16</f>
-        <v>19.093750000000004</v>
+        <v>19.901249999999997</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -2288,20 +2316,33 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:F60">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="MAYBE">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="MAYBE">
       <formula>NOT(ISERROR(SEARCH("MAYBE",C3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23:F58">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A62" r:id="rId1" xr:uid="{87FDAD87-FB61-6E4A-93AF-F55DE598C695}"/>
     <hyperlink ref="G46" r:id="rId2" xr:uid="{28DA9434-2768-C94C-A011-47BAAD650C66}"/>
     <hyperlink ref="G39" r:id="rId3" xr:uid="{ECB886B1-0004-A64A-8472-FFE40EB93EA0}"/>
+    <hyperlink ref="G23" r:id="rId4" xr:uid="{70A017D9-633A-0D4B-9D0F-B5F18D91FC3D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2323,10 +2364,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="19"/>
       <c r="D1" t="s">
         <v>70</v>
       </c>
@@ -2500,12 +2541,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -2634,16 +2675,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">

--- a/planning.xlsx
+++ b/planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/Misc/Hiking/PCT-Washington-2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A0470C-662D-BB46-ADE9-A8B1DB4F7996}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638B8C17-D53D-0248-B94D-CA7274117138}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16100" xr2:uid="{CF50ADE5-3FE7-1D4A-B7E6-9F2C5F6DE96F}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="146">
   <si>
     <t>Gear Checklist</t>
   </si>
@@ -465,6 +465,9 @@
   </si>
   <si>
     <t>Platypus Gravity Bag, minus clean water bag</t>
+  </si>
+  <si>
+    <t>One phone instead of two</t>
   </si>
 </sst>
 </file>
@@ -619,37 +622,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -993,8 +966,8 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1918,7 +1891,9 @@
       <c r="F54" s="6">
         <v>16</v>
       </c>
-      <c r="G54" s="2"/>
+      <c r="G54" s="2" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
@@ -2316,13 +2291,13 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:F60">
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="MAYBE">
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="MAYBE">
       <formula>NOT(ISERROR(SEARCH("MAYBE",C3)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/planning.xlsx
+++ b/planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/Misc/Hiking/PCT-Washington-2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638B8C17-D53D-0248-B94D-CA7274117138}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09C73F5-0517-2E48-A6F0-10947D2F4BB0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16100" xr2:uid="{CF50ADE5-3FE7-1D4A-B7E6-9F2C5F6DE96F}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="148">
   <si>
     <t>Gear Checklist</t>
   </si>
@@ -449,9 +449,6 @@
     <t>Cell Phone, battery pack, charging cords</t>
   </si>
   <si>
-    <t>target</t>
-  </si>
-  <si>
     <t>need to find mini one</t>
   </si>
   <si>
@@ -468,6 +465,15 @@
   </si>
   <si>
     <t>One phone instead of two</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE </t>
+  </si>
+  <si>
+    <t>Not bringing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not needed </t>
   </si>
 </sst>
 </file>
@@ -966,8 +972,8 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1024,13 +1030,13 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="E3" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="F3" s="6">
-        <v>48</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>139</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -1041,7 +1047,9 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="F4" s="6">
         <v>3</v>
       </c>
@@ -1060,7 +1068,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="6">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G5" s="2"/>
     </row>
@@ -1196,8 +1204,8 @@
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="6" t="b">
-        <v>1</v>
+      <c r="E13" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="F13" s="6">
         <v>0</v>
@@ -1222,7 +1230,7 @@
         <v>8.5</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1237,7 +1245,7 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F15" s="6">
         <v>0</v>
@@ -1300,11 +1308,13 @@
         <v>3</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="F19" s="6"/>
       <c r="G19" s="2"/>
     </row>
@@ -1337,7 +1347,7 @@
         <v>2</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="8" customHeight="1" x14ac:dyDescent="0.2">
@@ -1396,7 +1406,9 @@
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="E25" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="F25" s="6">
         <v>0</v>
       </c>
@@ -1413,9 +1425,11 @@
         <v>1</v>
       </c>
       <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="F26" s="6">
-        <v>10.7</v>
+        <v>0</v>
       </c>
       <c r="G26" s="2"/>
     </row>
@@ -1428,7 +1442,9 @@
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="E27" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="F27" s="6">
         <v>0</v>
       </c>
@@ -1585,7 +1601,7 @@
         <v>3</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -1858,7 +1874,7 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -1892,7 +1908,7 @@
         <v>16</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -1983,8 +1999,8 @@
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="6" t="b">
-        <v>0</v>
+      <c r="E60" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="2"/>
@@ -2000,7 +2016,7 @@
       <c r="E61" s="8"/>
       <c r="F61" s="8">
         <f>SUM(F3:F60)</f>
-        <v>318.41999999999996</v>
+        <v>330.72</v>
       </c>
       <c r="G61" s="5"/>
     </row>
@@ -2017,7 +2033,7 @@
       <c r="E62" s="8"/>
       <c r="F62" s="8">
         <f>F61/16</f>
-        <v>19.901249999999997</v>
+        <v>20.67</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>136</v>
